--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="198">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -478,35 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・保存ダイアログが表示されること
-・設定年月の勤務データがCSVファイルに書き出されること</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ファイル選択ダイアログが表示されること
 ・コピー確認ダイアログにて「はい」を選択したデータがコピーされること
 ・コピー時に既存データがある場合は削除されること
@@ -1252,6 +1223,1566 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力可能であること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「勤務を選択して下さい。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「入力時項目名を入力して下さい。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="8">
+      <t>ニュウリョクジコウモクメイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順が数値以外</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「表示順は数値で入力して下さい。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記以外</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力内容で登録されること
+・印刷時項目名が空白の場合、入力時項目名の頭２文字が印刷時項目名として登録されること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤務、入力時項目名が一致するデータが削除されること
+・該当データが存在しない場合、「登録されていません。」ダイアログが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務未選択</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力時項目名未入力</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「勤務を選択して下さい。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務未選択</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「入力時項目名を入力して下さい。」ダイアログが表示されること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択された勤務のデータが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択行の内容が各テキストボックス等に反映されること</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力可能であること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力値に数値以外の文字が含まれている場合、ダイアログが表示され登録されないこと</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最終データ登録日が左上セルに表示されていること
+・8行分「特養、事務、ｼｮｰﾄｽﾃｲ、ﾃﾞｲｻｰﾋﾞｽ、ﾍﾙﾊﾟｰｽﾃｰｼｮﾝ、居宅介護支援、老人介護支援ｾﾝﾀｰ、生活支援ﾊｳｽ」のデータが表示されていること
+・24列「日勤、半勤、早出、遅出、Ａ勤、Ｂ勤、振替、夜勤、宿直、日直、Ｃ勤、明け、特日、研修、深夜、1/3勤、1/3半、日早、日遅、遅々、半Ａ、半Ｂ、半夜、半行」のデータが表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>トクヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジム</t>
+    </rPh>
+    <rPh sb="65" eb="71">
+      <t>キョタクカイゴシエン</t>
+    </rPh>
+    <rPh sb="72" eb="78">
+      <t>ロウジンカイゴシエン</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>セイカツシエン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ハヤデ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>オソデ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ヤキン</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ニッチョク</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>トクビ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・保存ダイアログが表示されること
+・保存名のデフォルト値が"勤務表yyyyMM.Csv"の形式であること
+・設定年月の勤務データがCSVファイルに書き出されること</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務データが存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務データが存在する</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・トップフォームで設定された年月で初期表示されていること</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・設定年月の勤務データが表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態列</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職種列</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終行に入力無</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終行に入力有</t>
+    <rPh sb="0" eb="3">
+      <t>サイシュウギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「行挿入できません。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択行の位置（変更行選択時は選択位置は予定行とする）に空白の２行が追加されること</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択行（予定行と変更行）が削除されること</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当年月の勤務データが存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当年月の勤務データが存在する</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「登録されていません。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・削除確認ダイアログ表示、「はい」を選択で削除されること</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤務表印刷条件フォームが表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷条件フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形式ラジオボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定実績ラジオボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設長ボックス</t>
+    <rPh sb="0" eb="3">
+      <t>シセツチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合議ボックス1</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合議ボックス2</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「A4、B4、B4→A4、B4→A4(NC)」が選択できること</t>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「予定、実績、予定／実績」が選択できること</t>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>・ジッセキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力可能であること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力可能であること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォームが閉じられること</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務データが存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務データが存在する</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「対象データがありません。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SealBoxフォルダから施設長、合議テキストのファイル名の印影ファイルを読み込み、
+存在しないファイルがある場合印刷が実行されないこと
+・テキストが空白もしくは全てのファイルが存在する場合印刷が実行されること</t>
+    <rPh sb="14" eb="17">
+      <t>シセツチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゴウギ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>インエイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パスワードフォームが表示されること
+・iniファイルに設定されているパスワードで通過できること
+・パスワード通過後、印刷が実行されること</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・職員マスタで設定されている該当職種の氏名データが表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ショクイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・該当データが表示されること
+・変更勤務が予定勤務と同じ場合は空白で表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形態列</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職種列</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名列</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務1～31列</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記以外の列</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力ができないこと</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力が可能であること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力が可能であること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力が可能であること
+・文字色が青色であること</t>
+    <rPh sb="13" eb="15">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>アオイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・全ての列で入力できないこと</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上1行、下8行</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務名対応数字ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・定数マスタで0ではない時間が設定されている勤務名が表示されていること
+・上記該当勤務 ＋ 「公休、有休、欠勤」が表示されていること</t>
+    <rPh sb="1" eb="3">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケッキン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力が可能であること
+・変更行は文字色が赤色であること
+・勤務対応ラベルの数値を入力後エンターキー押下で勤務名が入力されること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務等入力有り、且つ、名前未入力行有り</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記以外</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「氏名の無い行に入力しています。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力内容で登録されること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・各行に常勤換算、月合計、総勤日数が表示されること
+　集計対象は4週(1日～28日の勤務)
+　常勤換算式 ： 4週合計 / 157 (小数第三位以下切り捨て)
+　勤務時間は定数マスタを参照、入力が数値の場合は入力値を使用
+　「有休」は「日勤」扱いでカウントする
+　形態が「常勤専従」の場合は常勤換算を1.00とする
+　常勤換算、月合計、総勤日数が0の場合は表示しない
+・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
+　それぞれ職種名に一致する数をカウントすること</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>サンイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>センジュウ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="189" eb="190">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="192" eb="195">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="206" eb="207">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="241" eb="242">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1341,7 +2872,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1482,13 +3013,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1576,173 +3116,239 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2064,7 +3670,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2095,17 +3701,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="67"/>
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="63" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="63" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6"/>
@@ -2122,13 +3728,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="56"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="56"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="6"/>
       <c r="G3" s="19"/>
       <c r="H3" s="1"/>
@@ -2143,13 +3749,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="56"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="64"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
@@ -2164,14 +3770,14 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>59</v>
+      <c r="E5" s="35" t="s">
+        <v>58</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="19"/>
@@ -2187,14 +3793,14 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="59"/>
+      <c r="E6" s="23" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="23" t="s">
-        <v>95</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
@@ -2210,14 +3816,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="54"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -2235,11 +3841,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -2261,9 +3867,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="48"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -2283,11 +3889,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -2309,14 +3915,14 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="48"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>60</v>
+      <c r="E11" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
@@ -2330,17 +3936,17 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
+    <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="67"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="20" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
@@ -2355,16 +3961,16 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="19"/>
@@ -2379,11 +3985,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="45" t="s">
+      <c r="A14" s="67"/>
+      <c r="B14" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -2405,9 +4011,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -2421,11 +4027,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="45" t="s">
+      <c r="A16" s="67"/>
+      <c r="B16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -2447,9 +4053,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -2463,11 +4069,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="67"/>
+      <c r="B18" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -2489,9 +4095,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -2505,11 +4111,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="45" t="s">
+      <c r="A20" s="67"/>
+      <c r="B20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="60" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -2531,9 +4137,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -2547,14 +4153,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -2571,12 +4177,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="43" t="s">
+      <c r="A23" s="67"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -2593,14 +4199,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="62" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -2617,12 +4223,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="43" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -2675,10 +4281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2688,16 +4294,16 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="71.5" customWidth="1"/>
+    <col min="6" max="6" width="74.125" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2706,7 +4312,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="32"/>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2718,422 +4324,554 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="78" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="10"/>
+    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="77"/>
+      <c r="B2" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="10" t="s">
+        <v>140</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="11"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="68" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="10"/>
+    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="77"/>
+      <c r="B4" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="12"/>
+    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="77"/>
+      <c r="B5" s="95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="100"/>
+      <c r="F5" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="12"/>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="77"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="100"/>
+      <c r="F6" s="12" t="s">
+        <v>147</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
-      <c r="B7" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="12"/>
+    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="77"/>
+      <c r="B7" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="11"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="13"/>
+    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="12" t="s">
+        <v>195</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
-      <c r="B9" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="13"/>
+    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="77"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="12" t="s">
+        <v>196</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="14"/>
+    <row r="10" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="77"/>
+      <c r="B10" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="12"/>
+    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="77"/>
+      <c r="B11" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
-      <c r="B12" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="12"/>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="77"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="12"/>
+    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="77"/>
+      <c r="B13" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="92"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="12"/>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="77"/>
+      <c r="B14" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="11"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="12"/>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="77"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="11"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="12"/>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="77"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="11"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="12"/>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="77"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="87"/>
+      <c r="F17" s="14" t="s">
+        <v>167</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="11"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="14"/>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="77"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" s="87"/>
+      <c r="F18" s="14" t="s">
+        <v>167</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="11"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="14"/>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="77"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+    <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="77"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="77"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+    <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="77"/>
+      <c r="B22" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="77"/>
+      <c r="B23" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+    <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="77"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="77"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="E26" s="87"/>
+      <c r="F26" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+    <row r="27" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="77"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="87"/>
+      <c r="F27" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+    <row r="28" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="77"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="87"/>
+      <c r="F28" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="77"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="77"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="87"/>
+      <c r="F30" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="77"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="77"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="28"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="77"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="77"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+    <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="78"/>
+      <c r="B35" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" s="80"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -3247,95 +4985,289 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="17"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="15"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="17"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="15"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="17"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="15"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="17"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" s="17"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="17"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="17"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="17"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="17"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
       <c r="E57" s="17"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="45">
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A1:A19"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,8 +5295,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>63</v>
+      <c r="A1" s="103" t="s">
+        <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -3387,230 +5319,230 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
+      <c r="A2" s="103"/>
       <c r="B2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="90"/>
       <c r="E2" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="69"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="72" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="73"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="72" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="73"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="99"/>
       <c r="E5" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="73"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="99"/>
       <c r="E6" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
-      <c r="B7" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="76"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="92"/>
       <c r="E7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="75" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="76"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="103"/>
+      <c r="B9" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>105</v>
+      <c r="C9" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>104</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="41" t="s">
-        <v>119</v>
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="40" t="s">
+        <v>118</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="11"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="40" t="s">
-        <v>106</v>
+      <c r="A11" s="103"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="39" t="s">
+        <v>105</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="40" t="s">
-        <v>107</v>
+      <c r="A12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="39" t="s">
+        <v>106</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="38" t="s">
-        <v>108</v>
+      <c r="A13" s="103"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="37" t="s">
+        <v>107</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="103"/>
+      <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="76"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="11"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="103"/>
+      <c r="B15" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="75" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="11"/>
@@ -3962,10 +5894,610 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="78.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="90"/>
+      <c r="E2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103"/>
+      <c r="B4" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="103"/>
+      <c r="B6" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="103"/>
+      <c r="B7" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="103"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="103"/>
+      <c r="B11" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="103"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="103"/>
+      <c r="B14" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="92"/>
+      <c r="E14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="103"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="92"/>
+      <c r="E15" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A1:A15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3980,7 +6512,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="103" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -4003,132 +6535,110 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="69"/>
+    <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="90"/>
       <c r="E2" s="10" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="69"/>
+    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="103"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="90"/>
       <c r="E3" s="10" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="10" t="s">
-        <v>117</v>
+    <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103"/>
+      <c r="B4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="90"/>
+      <c r="E4" s="32" t="s">
+        <v>135</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
-      <c r="B7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
-      <c r="B9" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -4332,599 +6842,72 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="71.5" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C3:D3"/>
     <mergeCell ref="A1:A4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4953,7 +6936,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4984,16 +6967,16 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="19"/>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="207">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2568,13 +2568,128 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>コンボボックス項目</t>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「常勤専従、常勤兼務、常勤以外専従、常勤以外兼務」が選択できること</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センジュウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「"", "理事長", "施設長", "副施設長", "事務局長", "部長", "課長", "係長", "主任", "管理者", "ｻｰﾋﾞｽ提供責任者", "医師", "正看護師", "准看護師", "看護職", "機能訓練士", "介護支援専門員", "生活相談員", "支援援助員", "介護職", "介護福祉士", "訪問介護員", "管理栄養士", "栄養士", "宿直"」が選択できること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氏名列</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>レツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択行背景色が黄色</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択行背景色が白色</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択行の背景色をデフォルトに戻ること</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択行の背景色が黄色に変更されること</t>
+    <rPh sb="1" eb="4">
+      <t>センタクギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・各行に常勤換算、月合計、総勤日数が表示されること
-　集計対象は4週(1日～28日の勤務)
-　常勤換算式 ： 4週合計 / 157 (小数第三位以下切り捨て)
-　勤務時間は定数マスタを参照、入力が数値の場合は入力値を使用
-　「有休」は「日勤」扱いでカウントする
-　形態が「常勤専従」の場合は常勤換算を1.00とする
-　常勤換算、月合計、総勤日数が0の場合は表示しない
+・換算、集計の仕様
+　共通部分
+　　集計対象は4週(1日～28日の勤務)
+　　勤務時間は定数マスタを参照、入力が数値の場合は入力値を使用
+　　「有休」は「日勤」扱いでカウント
+　　常勤換算、月合計、総勤日数が0の場合は表示しない
+　常勤換算
+　　常勤換算式 ： 4週合計時間 / 157　(小数第三位以下切り捨て)
+　　形態が「常勤専従」の場合は常勤換算を1.00とする
+　月合計
+　　勤務4週合計時間（小数第三位以下切り捨て）を表示
+　総勤日数
+　　数値、または定数マスタの24種類勤務名の場合カウントする
 ・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
 　それぞれ職種名に一致する数をカウントすること</t>
     <rPh sb="1" eb="2">
@@ -2608,180 +2723,147 @@
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="27" eb="29">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>シュウケイ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="47" eb="49">
+    <rPh sb="143" eb="145">
       <t>ジョウキン</t>
     </rPh>
-    <rPh sb="49" eb="51">
+    <rPh sb="145" eb="147">
       <t>カンサン</t>
     </rPh>
-    <rPh sb="51" eb="52">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
+    <rPh sb="162" eb="164">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="221" eb="223">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="224" eb="225">
       <t>シュウ</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="225" eb="227">
       <t>ゴウケイ</t>
     </rPh>
-    <rPh sb="67" eb="69">
+    <rPh sb="227" eb="229">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="230" eb="232">
       <t>ショウスウ</t>
     </rPh>
-    <rPh sb="69" eb="70">
+    <rPh sb="232" eb="233">
       <t>ダイ</t>
     </rPh>
-    <rPh sb="70" eb="72">
+    <rPh sb="233" eb="235">
       <t>サンイ</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="235" eb="237">
       <t>イカ</t>
     </rPh>
-    <rPh sb="74" eb="75">
+    <rPh sb="237" eb="238">
       <t>キ</t>
     </rPh>
-    <rPh sb="76" eb="77">
+    <rPh sb="239" eb="240">
       <t>ス</t>
     </rPh>
-    <rPh sb="81" eb="83">
+    <rPh sb="243" eb="245">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="248" eb="252">
+      <t>ソウキンニッスウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="261" eb="263">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="271" eb="273">
       <t>キンム</t>
     </rPh>
-    <rPh sb="83" eb="85">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
+    <rPh sb="273" eb="274">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="104" eb="106">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>ユウキュウ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ニッキン</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>センジュウ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="178" eb="180">
+    <rPh sb="286" eb="287">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="288" eb="289">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="291" eb="294">
+      <t>カンゴシ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="297" eb="298">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="301" eb="302">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="305" eb="306">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="311" eb="313">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="313" eb="314">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="322" eb="324">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="325" eb="327">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="187" eb="188">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="189" eb="190">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="192" eb="195">
-      <t>カンゴシ</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="206" eb="207">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="214" eb="215">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="220" eb="221">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="239" eb="241">
+    <rPh sb="338" eb="340">
       <t>ショクシュ</t>
     </rPh>
-    <rPh sb="241" eb="242">
+    <rPh sb="340" eb="341">
       <t>メイ</t>
     </rPh>
-    <rPh sb="243" eb="245">
+    <rPh sb="342" eb="344">
       <t>イッチ</t>
     </rPh>
-    <rPh sb="247" eb="248">
+    <rPh sb="346" eb="347">
       <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -3028,7 +3110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3110,232 +3192,223 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3670,7 +3743,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3701,17 +3774,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="48" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="48" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6"/>
@@ -3728,13 +3801,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="64"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="64"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="6"/>
       <c r="G3" s="19"/>
       <c r="H3" s="1"/>
@@ -3749,13 +3822,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="67"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="64"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="65"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="6"/>
       <c r="G4" s="19"/>
       <c r="H4" s="1"/>
@@ -3770,13 +3843,13 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="67"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="65"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="6"/>
@@ -3793,12 +3866,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="67"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="58" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="59"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="23" t="s">
         <v>94</v>
       </c>
@@ -3816,14 +3889,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -3841,11 +3914,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -3867,9 +3940,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -3889,11 +3962,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -3915,13 +3988,13 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="32" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="6"/>
@@ -3937,14 +4010,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="73"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="20" t="s">
         <v>137</v>
       </c>
@@ -3961,14 +4034,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -3985,11 +4058,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4011,9 +4084,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4027,11 +4100,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4053,9 +4126,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4069,11 +4142,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4095,9 +4168,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4111,11 +4184,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4137,9 +4210,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4153,14 +4226,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="70" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="52"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4177,12 +4250,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -4199,14 +4272,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="70" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -4223,12 +4296,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="51" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -4246,6 +4319,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4262,16 +4345,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4283,7 +4356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
@@ -4300,10 +4373,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -4312,7 +4385,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="32"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4325,15 +4398,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
-      <c r="B2" s="93" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="10" t="s">
         <v>140</v>
       </c>
@@ -4342,13 +4415,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="10" t="s">
         <v>134</v>
       </c>
@@ -4357,15 +4430,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="8" t="s">
         <v>141</v>
       </c>
@@ -4374,17 +4447,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="95" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="12" t="s">
         <v>146</v>
       </c>
@@ -4393,13 +4466,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="98" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="100"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="12" t="s">
         <v>147</v>
       </c>
@@ -4408,15 +4481,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="92"/>
+      <c r="B7" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
         <v>148</v>
       </c>
@@ -4425,17 +4498,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="82" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="12" t="s">
         <v>195</v>
       </c>
@@ -4444,13 +4517,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="12" t="s">
         <v>196</v>
       </c>
@@ -4458,35 +4531,35 @@
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="50" t="s">
+    <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="87"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="13" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="95" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="92" t="s">
+      <c r="D11" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
         <v>151</v>
       </c>
@@ -4495,13 +4568,13 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="92" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="87"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
         <v>152</v>
       </c>
@@ -4510,15 +4583,15 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="92"/>
+      <c r="B13" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="87"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="14" t="s">
         <v>153</v>
       </c>
@@ -4527,17 +4600,17 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="95" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="87"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="14" t="s">
         <v>164</v>
       </c>
@@ -4546,15 +4619,15 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="92"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="14" t="s">
         <v>165</v>
       </c>
@@ -4563,15 +4636,15 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="47" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="14" t="s">
         <v>166</v>
       </c>
@@ -4580,15 +4653,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="87"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="14" t="s">
         <v>167</v>
       </c>
@@ -4597,15 +4670,15 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="92"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="E18" s="87"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="14" t="s">
         <v>167</v>
       </c>
@@ -4614,15 +4687,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="84" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="75" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="42" t="s">
         <v>171</v>
       </c>
       <c r="F19" s="14" t="s">
@@ -4633,11 +4706,11 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="46" t="s">
+      <c r="A20" s="92"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="42" t="s">
         <v>172</v>
       </c>
       <c r="F20" s="14" t="s">
@@ -4647,16 +4720,16 @@
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="47" t="s">
+    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="92"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="92" t="s">
+      <c r="D21" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="14" t="s">
         <v>168</v>
       </c>
@@ -4665,15 +4738,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="87"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="13" t="s">
         <v>175</v>
       </c>
@@ -4682,17 +4755,17 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="77"/>
-      <c r="B23" s="95" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="87"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="12" t="s">
         <v>176</v>
       </c>
@@ -4701,13 +4774,13 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="96"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="87"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="13" t="s">
         <v>177</v>
       </c>
@@ -4715,163 +4788,179 @@
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="77"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="12" t="s">
-        <v>184</v>
+    <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="92"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>204</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="77"/>
-      <c r="B26" s="96"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="E26" s="87"/>
-      <c r="F26" s="12" t="s">
-        <v>185</v>
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="92"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="77"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="86" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="87"/>
-      <c r="F27" s="13" t="s">
-        <v>186</v>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="92"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="74"/>
+      <c r="F27" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="77"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="86" t="s">
-        <v>181</v>
-      </c>
-      <c r="E28" s="87"/>
-      <c r="F28" s="13" t="s">
-        <v>192</v>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="92"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="77"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="86" t="s">
-        <v>182</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="12" t="s">
-        <v>183</v>
+    <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="92"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="74"/>
+      <c r="F29" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="77"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="87"/>
-      <c r="F30" s="12" t="s">
-        <v>187</v>
+    <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="92"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="74"/>
+      <c r="F30" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="77"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="12"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="12" t="s">
+        <v>183</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="77"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="12"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="74"/>
+      <c r="F32" s="12" t="s">
+        <v>187</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="77"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="14"/>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="92"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="74"/>
+      <c r="F33" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="11"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="14"/>
+    <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="92"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="11"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="93"/>
+      <c r="B35" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -5222,13 +5311,30 @@
       <c r="E72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C22:E22"/>
+  <mergeCells count="47">
+    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B23:B34"/>
     <mergeCell ref="C2:E2"/>
@@ -5236,7 +5342,7 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
@@ -5245,29 +5351,14 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:A35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5295,7 +5386,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="100" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5319,14 +5410,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
+      <c r="A2" s="100"/>
       <c r="B2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="10" t="s">
         <v>103</v>
       </c>
@@ -5335,14 +5426,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="8" t="s">
         <v>102</v>
       </c>
@@ -5351,14 +5442,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
-      <c r="B4" s="82" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="12" t="s">
         <v>98</v>
       </c>
@@ -5367,12 +5458,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="98" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="13" t="s">
         <v>99</v>
       </c>
@@ -5381,14 +5472,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="12" t="s">
         <v>101</v>
       </c>
@@ -5397,14 +5488,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="92"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="13" t="s">
         <v>100</v>
       </c>
@@ -5413,14 +5504,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
-      <c r="B8" s="29" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="13" t="s">
         <v>102</v>
       </c>
@@ -5429,14 +5520,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
-      <c r="B9" s="82" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="34" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -5447,10 +5538,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="40" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="36" t="s">
         <v>118</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -5461,10 +5552,10 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="39" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="35" t="s">
         <v>105</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -5475,10 +5566,10 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="39" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="35" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -5489,10 +5580,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="33" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -5503,14 +5594,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103"/>
-      <c r="B14" s="30" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="14" t="s">
         <v>112</v>
       </c>
@@ -5519,14 +5610,14 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="103"/>
-      <c r="B15" s="82" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12" t="s">
         <v>95</v>
       </c>
@@ -5535,12 +5626,12 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="103"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="92"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13" t="s">
         <v>96</v>
       </c>
@@ -5896,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5912,7 +6003,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="100" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5936,14 +6027,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="10" t="s">
         <v>113</v>
       </c>
@@ -5952,12 +6043,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="10" t="s">
         <v>114</v>
       </c>
@@ -5966,14 +6057,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="10" t="s">
         <v>116</v>
       </c>
@@ -5982,14 +6073,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="29" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="12" t="s">
         <v>119</v>
       </c>
@@ -5998,14 +6089,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="12" t="s">
         <v>119</v>
       </c>
@@ -6014,14 +6105,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="12" t="s">
@@ -6032,10 +6123,10 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="42" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="38" t="s">
         <v>128</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -6046,10 +6137,10 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="42" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="38" t="s">
         <v>122</v>
       </c>
       <c r="E9" s="12" t="s">
@@ -6060,10 +6151,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="44" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="40" t="s">
         <v>124</v>
       </c>
       <c r="E10" s="13" t="s">
@@ -6074,14 +6165,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103"/>
-      <c r="B11" s="82" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="84" t="s">
+      <c r="C11" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="41" t="s">
         <v>127</v>
       </c>
       <c r="E11" s="13" t="s">
@@ -6092,10 +6183,10 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="103"/>
-      <c r="B12" s="104"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="44" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="40" t="s">
         <v>128</v>
       </c>
       <c r="E12" s="13" t="s">
@@ -6106,10 +6197,10 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="44" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="40" t="s">
         <v>124</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -6120,14 +6211,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103"/>
-      <c r="B14" s="82" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="13" t="s">
         <v>132</v>
       </c>
@@ -6136,12 +6227,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="103"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="86" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="14" t="s">
         <v>133</v>
       </c>
@@ -6512,7 +6603,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="100" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6536,14 +6627,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="105" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="102" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="10" t="s">
         <v>136</v>
       </c>
@@ -6552,12 +6643,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="89" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="10" t="s">
         <v>134</v>
       </c>
@@ -6566,15 +6657,15 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="32" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="29" t="s">
         <v>135</v>
       </c>
       <c r="F4" s="6"/>
@@ -6936,7 +7027,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -6967,14 +7058,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="59"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="23" t="s">
         <v>61</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="211">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -530,36 +530,6 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">・設定年月の特養のコピーをするか確認ダイアログ表示、
-「はい」でコピーしてフォーム表示、「いいえ」でそのままフォーム表示されること
-</t>
-    <rPh sb="1" eb="3">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トクヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2865,6 +2835,96 @@
     </rPh>
     <rPh sb="346" eb="347">
       <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・設定年月の特養のコピーをするか確認ダイアログ表示、
+「はい」でコピーしてフォーム表示、「いいえ」でそのままフォーム表示されること
+・「はい」選択時
+　コピー先データが存在する場合、ダイアログが表示されコピー処理が実行されずにフォームが表示されること
+　コピー元データが存在しない場合、ダイアログが表示されそのままフォームが表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トクヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3255,6 +3315,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3264,15 +3360,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3285,24 +3372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3315,20 +3390,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3336,11 +3426,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3348,67 +3453,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3726,7 +3786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
@@ -3743,7 +3803,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3774,21 +3834,25 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="60" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="19"/>
+      <c r="F2" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="19">
+        <v>43883</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -3801,15 +3865,19 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G3" s="19">
+        <v>43883</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -3822,15 +3890,19 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="19">
+        <v>43883</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3843,17 +3915,21 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="19">
+        <v>43883</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -3866,14 +3942,14 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
@@ -3889,19 +3965,23 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="19">
+        <v>43883</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -3914,11 +3994,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -3927,8 +4007,12 @@
       <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="19"/>
+      <c r="F8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="19">
+        <v>43883</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3940,17 +4024,21 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="19">
+        <v>43883</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3962,11 +4050,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -3975,8 +4063,12 @@
       <c r="E10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="19">
+        <v>43883</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -3987,15 +4079,15 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="59"/>
+    <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="64"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>59</v>
+        <v>210</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="19"/>
@@ -4010,16 +4102,16 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
@@ -4033,15 +4125,15 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="64"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4058,11 +4150,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="64"/>
+      <c r="B14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4071,8 +4163,12 @@
       <c r="E14" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="19">
+        <v>43883</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4084,27 +4180,31 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15" s="19">
+        <v>43883</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="64"/>
+      <c r="B16" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4113,8 +4213,12 @@
       <c r="E16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="19"/>
+      <c r="F16" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="19">
+        <v>43883</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -4126,27 +4230,31 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="19">
+        <v>43883</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4155,8 +4263,12 @@
       <c r="E18" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="19">
+        <v>43883</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -4168,27 +4280,31 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="19">
+        <v>43883</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="64"/>
+      <c r="B20" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4197,8 +4313,12 @@
       <c r="E20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="19">
+        <v>43883</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -4210,35 +4330,43 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="19">
+        <v>43883</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="49"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G22" s="19">
+        <v>43883</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -4250,17 +4378,21 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62" t="s">
+      <c r="A23" s="64"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="49"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="19"/>
+      <c r="F23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="19">
+        <v>43883</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -4272,19 +4404,23 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="19"/>
+      <c r="F24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="19">
+        <v>43883</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -4296,17 +4432,21 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="19"/>
+      <c r="F25" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="19">
+        <v>43883</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -4319,16 +4459,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4345,6 +4475,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4373,8 +4513,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>60</v>
+      <c r="A1" s="73" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>1</v>
@@ -4398,566 +4538,566 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="11"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
+        <v>79</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
-      <c r="B5" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="86" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="96"/>
+      <c r="F5" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="88"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="96"/>
       <c r="F6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+        <v>81</v>
+      </c>
+      <c r="C7" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="11"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="74"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="84"/>
       <c r="F8" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="74"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="84"/>
       <c r="F9" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="74"/>
+        <v>83</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="89"/>
+      <c r="E10" s="84"/>
       <c r="F10" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="74"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="84"/>
       <c r="F11" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="74"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="84"/>
       <c r="F12" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="74"/>
+        <v>85</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="74"/>
+      <c r="D14" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="84"/>
       <c r="F14" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="11"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="74"/>
+        <v>155</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="84"/>
       <c r="F15" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="11"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="93"/>
       <c r="C16" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="74"/>
+        <v>156</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="84"/>
       <c r="F16" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="11"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="74"/>
+        <v>159</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="84"/>
       <c r="F17" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="11"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="92"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="74"/>
+        <v>160</v>
+      </c>
+      <c r="D18" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="84"/>
       <c r="F18" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="11"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>162</v>
+      <c r="A19" s="74"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="81" t="s">
+        <v>161</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="92"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="74"/>
+        <v>158</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="E21" s="84"/>
       <c r="F21" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
+      <c r="A22" s="74"/>
       <c r="B22" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="74"/>
+        <v>86</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="89"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="92"/>
-      <c r="B23" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="74"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="84"/>
       <c r="F23" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="92"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="74"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="84"/>
       <c r="F24" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="92"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="75" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="E25" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>202</v>
-      </c>
       <c r="F25" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="92"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="74"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="83" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="84"/>
       <c r="F27" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="74"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="84"/>
       <c r="F28" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="74"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="84"/>
       <c r="F29" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="E30" s="74"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="84"/>
       <c r="F30" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="92"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="73" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="83" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="E32" s="74"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" s="84"/>
       <c r="F32" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="92"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="75" t="s">
+      <c r="A33" s="74"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="84"/>
+      <c r="F33" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="11"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="74"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="84"/>
       <c r="F34" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="11"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="D35" s="77"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
@@ -5312,6 +5452,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:A35"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="B8:B9"/>
@@ -5328,37 +5499,6 @@
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5387,7 +5527,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -5412,14 +5552,14 @@
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="100"/>
       <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
@@ -5428,14 +5568,14 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="100"/>
       <c r="B3" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
@@ -5443,15 +5583,15 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="100"/>
-      <c r="B4" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
@@ -5459,13 +5599,13 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="100"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="95"/>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
@@ -5474,14 +5614,14 @@
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="100"/>
       <c r="B6" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="87"/>
+        <v>65</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="95"/>
       <c r="E6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="11"/>
@@ -5490,14 +5630,14 @@
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="100"/>
       <c r="B7" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="80"/>
+        <v>66</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="89"/>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="11"/>
@@ -5506,14 +5646,14 @@
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="100"/>
       <c r="B8" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
@@ -5521,17 +5661,17 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="100"/>
-      <c r="B9" s="97" t="s">
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="75" t="s">
-        <v>71</v>
+      <c r="C9" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
@@ -5540,12 +5680,12 @@
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
-      <c r="C10" s="99"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="11"/>
@@ -5554,12 +5694,12 @@
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
-      <c r="C11" s="99"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11"/>
@@ -5568,12 +5708,12 @@
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
-      <c r="C12" s="99"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11"/>
@@ -5581,13 +5721,13 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
@@ -5598,12 +5738,12 @@
       <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="11"/>
@@ -5611,15 +5751,15 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="100"/>
-      <c r="B15" s="97" t="s">
+      <c r="B15" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
@@ -5627,13 +5767,13 @@
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="100"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="80"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="11"/>
@@ -5987,7 +6127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
@@ -6004,7 +6144,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -6029,14 +6169,14 @@
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="100"/>
       <c r="B2" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
@@ -6045,12 +6185,12 @@
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="100"/>
       <c r="B3" s="103"/>
-      <c r="C3" s="83" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="84"/>
+      <c r="C3" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="87"/>
       <c r="E3" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
@@ -6059,14 +6199,14 @@
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="100"/>
       <c r="B4" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="10" t="s">
-        <v>116</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
@@ -6075,14 +6215,14 @@
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="100"/>
       <c r="B5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
@@ -6091,14 +6231,14 @@
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="100"/>
       <c r="B6" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="86" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="11"/>
@@ -6106,17 +6246,17 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="100"/>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="75" t="s">
-        <v>77</v>
+      <c r="C7" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="11"/>
@@ -6125,12 +6265,12 @@
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
-      <c r="C8" s="99"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
@@ -6139,12 +6279,12 @@
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
-      <c r="C9" s="99"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
@@ -6153,12 +6293,12 @@
     <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
-      <c r="C10" s="99"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>124</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>125</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="11"/>
@@ -6166,17 +6306,17 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="100"/>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="75" t="s">
-        <v>77</v>
+      <c r="C11" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11"/>
@@ -6185,12 +6325,12 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
-      <c r="C12" s="99"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11"/>
@@ -6198,13 +6338,13 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
@@ -6212,15 +6352,15 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="100"/>
-      <c r="B14" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="73" t="s">
+      <c r="B14" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="11"/>
@@ -6228,13 +6368,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="100"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="73" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
@@ -6604,7 +6744,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -6629,14 +6769,14 @@
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="100"/>
       <c r="B2" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
@@ -6645,12 +6785,12 @@
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="100"/>
       <c r="B3" s="103"/>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
@@ -6661,12 +6801,12 @@
       <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="84"/>
+      <c r="C4" s="86" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="87"/>
       <c r="E4" s="29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
@@ -7027,7 +7167,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7058,16 +7198,16 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="19"/>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="211">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -3315,22 +3315,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3342,53 +3384,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3414,61 +3468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3803,7 +3803,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3834,17 +3834,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64"/>
-      <c r="B2" s="50" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="48" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="48" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -3865,13 +3865,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="64"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="61"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="49"/>
       <c r="F3" s="6" t="s">
         <v>206</v>
       </c>
@@ -3890,13 +3890,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="64"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="61"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="62"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="6" t="s">
         <v>206</v>
       </c>
@@ -3915,9 +3915,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -3942,12 +3942,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="55" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -3965,14 +3965,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="64"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="59"/>
+      <c r="D7" s="72"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -3994,11 +3994,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="64"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4024,9 +4024,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="64"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4050,11 +4050,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="64"/>
-      <c r="B10" s="50" t="s">
+      <c r="A10" s="55"/>
+      <c r="B10" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4080,17 +4080,21 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="64"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="53"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="19">
+        <v>43883</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -4102,14 +4106,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="64"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="20" t="s">
         <v>136</v>
       </c>
@@ -4126,14 +4130,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="64"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4150,11 +4154,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="64"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4180,9 +4184,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="64"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4200,11 +4204,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="64"/>
-      <c r="B16" s="50" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4230,9 +4234,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="64"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4250,11 +4254,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="64"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4280,9 +4284,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="64"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4300,11 +4304,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="64"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="51" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4330,9 +4334,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="64"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4350,14 +4354,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="64"/>
-      <c r="B22" s="67" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="49"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4378,12 +4382,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="64"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="48" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="49"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -4404,14 +4408,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="64"/>
-      <c r="B24" s="67" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="49"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -4432,12 +4436,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="65"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="48" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -4459,6 +4463,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4475,16 +4489,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4513,7 +4517,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="91" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="44" t="s">
@@ -4538,15 +4542,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="90" t="s">
+      <c r="A2" s="92"/>
+      <c r="B2" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="10" t="s">
         <v>139</v>
       </c>
@@ -4555,13 +4559,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="86" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="10" t="s">
         <v>133</v>
       </c>
@@ -4570,15 +4574,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="74"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="85"/>
       <c r="F4" s="8" t="s">
         <v>140</v>
       </c>
@@ -4587,17 +4591,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="92" t="s">
+      <c r="A5" s="92"/>
+      <c r="B5" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="12" t="s">
         <v>145</v>
       </c>
@@ -4606,13 +4610,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="94" t="s">
+      <c r="A6" s="92"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="12" t="s">
         <v>146</v>
       </c>
@@ -4621,15 +4625,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="12" t="s">
         <v>147</v>
       </c>
@@ -4638,17 +4642,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="84"/>
+      <c r="E8" s="74"/>
       <c r="F8" s="12" t="s">
         <v>194</v>
       </c>
@@ -4657,13 +4661,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="83" t="s">
+      <c r="A9" s="92"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="E9" s="84"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="12" t="s">
         <v>195</v>
       </c>
@@ -4672,15 +4676,15 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="89"/>
-      <c r="E10" s="84"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="13" t="s">
         <v>205</v>
       </c>
@@ -4689,17 +4693,17 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="84"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="13" t="s">
         <v>150</v>
       </c>
@@ -4708,13 +4712,13 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="89" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="84"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="13" t="s">
         <v>151</v>
       </c>
@@ -4723,15 +4727,15 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="84"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="14" t="s">
         <v>152</v>
       </c>
@@ -4740,17 +4744,17 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="92" t="s">
+      <c r="A14" s="92"/>
+      <c r="B14" s="77" t="s">
         <v>153</v>
       </c>
       <c r="C14" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="84"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="14" t="s">
         <v>163</v>
       </c>
@@ -4759,15 +4763,15 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="84"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="14" t="s">
         <v>164</v>
       </c>
@@ -4776,15 +4780,15 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="93"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="84"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="14" t="s">
         <v>165</v>
       </c>
@@ -4793,15 +4797,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="93"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="84"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="14" t="s">
         <v>166</v>
       </c>
@@ -4810,15 +4814,15 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="84"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="14" t="s">
         <v>166</v>
       </c>
@@ -4827,12 +4831,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="81" t="s">
+      <c r="A19" s="92"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="75" t="s">
         <v>161</v>
       </c>
       <c r="E19" s="42" t="s">
@@ -4846,10 +4850,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="42" t="s">
         <v>171</v>
       </c>
@@ -4861,15 +4865,15 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="74"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="E21" s="84"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="14" t="s">
         <v>167</v>
       </c>
@@ -4878,15 +4882,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="89"/>
-      <c r="E22" s="84"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="13" t="s">
         <v>174</v>
       </c>
@@ -4895,17 +4899,17 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="92" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="12" t="s">
         <v>175</v>
       </c>
@@ -4914,13 +4918,13 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83" t="s">
+      <c r="A24" s="92"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="E24" s="84"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="13" t="s">
         <v>176</v>
       </c>
@@ -4929,12 +4933,12 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="81" t="s">
+      <c r="A25" s="92"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="81" t="s">
+      <c r="D25" s="75" t="s">
         <v>200</v>
       </c>
       <c r="E25" s="47" t="s">
@@ -4948,10 +4952,10 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="47" t="s">
         <v>202</v>
       </c>
@@ -4963,15 +4967,15 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="81" t="s">
+      <c r="A27" s="92"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="83" t="s">
+      <c r="D27" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="84"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="12" t="s">
         <v>183</v>
       </c>
@@ -4980,13 +4984,13 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="83" t="s">
+      <c r="A28" s="92"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="84"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="12" t="s">
         <v>184</v>
       </c>
@@ -4995,13 +4999,13 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="83" t="s">
+      <c r="A29" s="92"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="73" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="84"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="13" t="s">
         <v>185</v>
       </c>
@@ -5010,13 +5014,13 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="83" t="s">
+      <c r="A30" s="92"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="E30" s="84"/>
+      <c r="E30" s="74"/>
       <c r="F30" s="13" t="s">
         <v>191</v>
       </c>
@@ -5025,13 +5029,13 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="83" t="s">
+      <c r="A31" s="92"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="E31" s="84"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="12" t="s">
         <v>182</v>
       </c>
@@ -5040,13 +5044,13 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83" t="s">
+      <c r="A32" s="92"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="73" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="84"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="12" t="s">
         <v>186</v>
       </c>
@@ -5055,15 +5059,15 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="81" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="83" t="s">
+      <c r="D33" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="84"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="12" t="s">
         <v>197</v>
       </c>
@@ -5072,13 +5076,13 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83" t="s">
+      <c r="A34" s="92"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="84"/>
+      <c r="E34" s="74"/>
       <c r="F34" s="13" t="s">
         <v>198</v>
       </c>
@@ -5087,15 +5091,15 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="75"/>
+      <c r="A35" s="93"/>
       <c r="B35" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="94" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="77"/>
-      <c r="E35" s="78"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="96"/>
       <c r="F35" s="7" t="s">
         <v>190</v>
       </c>
@@ -5452,14 +5456,29 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B23:B34"/>
     <mergeCell ref="C2:E2"/>
@@ -5476,29 +5495,14 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:A35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5554,10 +5558,10 @@
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -5570,10 +5574,10 @@
       <c r="B3" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -5583,13 +5587,13 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="100"/>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -5599,11 +5603,11 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="100"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="94" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -5616,10 +5620,10 @@
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -5632,10 +5636,10 @@
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -5648,10 +5652,10 @@
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="80"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -5661,10 +5665,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="100"/>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="75" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="34" t="s">
@@ -5680,7 +5684,7 @@
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
-      <c r="C10" s="85"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="36" t="s">
         <v>117</v>
       </c>
@@ -5694,7 +5698,7 @@
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="100"/>
       <c r="B11" s="101"/>
-      <c r="C11" s="85"/>
+      <c r="C11" s="99"/>
       <c r="D11" s="35" t="s">
         <v>104</v>
       </c>
@@ -5708,7 +5712,7 @@
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
-      <c r="C12" s="85"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="35" t="s">
         <v>105</v>
       </c>
@@ -5721,8 +5725,8 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="33" t="s">
         <v>106</v>
       </c>
@@ -5738,10 +5742,10 @@
       <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="14" t="s">
         <v>111</v>
       </c>
@@ -5751,13 +5755,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="100"/>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="12" t="s">
         <v>94</v>
       </c>
@@ -5767,11 +5771,11 @@
     </row>
     <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="100"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="98"/>
+      <c r="C16" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13" t="s">
         <v>95</v>
       </c>
@@ -6171,10 +6175,10 @@
       <c r="B2" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="10" t="s">
         <v>112</v>
       </c>
@@ -6185,10 +6189,10 @@
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="100"/>
       <c r="B3" s="103"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="10" t="s">
         <v>113</v>
       </c>
@@ -6201,10 +6205,10 @@
       <c r="B4" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="10" t="s">
         <v>115</v>
       </c>
@@ -6217,10 +6221,10 @@
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="87"/>
       <c r="E5" s="12" t="s">
         <v>118</v>
       </c>
@@ -6233,10 +6237,10 @@
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="12" t="s">
         <v>118</v>
       </c>
@@ -6246,10 +6250,10 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="100"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="75" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="39" t="s">
@@ -6265,7 +6269,7 @@
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="100"/>
       <c r="B8" s="101"/>
-      <c r="C8" s="85"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="38" t="s">
         <v>127</v>
       </c>
@@ -6279,7 +6283,7 @@
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="100"/>
       <c r="B9" s="101"/>
-      <c r="C9" s="85"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="38" t="s">
         <v>121</v>
       </c>
@@ -6293,7 +6297,7 @@
     <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="100"/>
       <c r="B10" s="101"/>
-      <c r="C10" s="85"/>
+      <c r="C10" s="99"/>
       <c r="D10" s="40" t="s">
         <v>123</v>
       </c>
@@ -6306,10 +6310,10 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="100"/>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="75" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="41" t="s">
@@ -6325,7 +6329,7 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="100"/>
       <c r="B12" s="101"/>
-      <c r="C12" s="85"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="40" t="s">
         <v>127</v>
       </c>
@@ -6338,8 +6342,8 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="100"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="40" t="s">
         <v>123</v>
       </c>
@@ -6352,13 +6356,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="100"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="13" t="s">
         <v>131</v>
       </c>
@@ -6368,11 +6372,11 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="100"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="83" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="14" t="s">
         <v>132</v>
       </c>
@@ -6771,10 +6775,10 @@
       <c r="B2" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
@@ -6785,10 +6789,10 @@
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="100"/>
       <c r="B3" s="103"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="84"/>
       <c r="E3" s="10" t="s">
         <v>133</v>
       </c>
@@ -6801,10 +6805,10 @@
       <c r="B4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="84"/>
       <c r="E4" s="29" t="s">
         <v>134</v>
       </c>
@@ -7167,7 +7171,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7198,14 +7202,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
+      <c r="A2" s="56"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="56"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="23" t="s">
         <v>60</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="222">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -1090,22 +1090,6 @@
     </rPh>
     <rPh sb="44" eb="46">
       <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・職員Noテキストボックスの入力値のデータが削除されること</t>
-    <rPh sb="1" eb="3">
-      <t>ショクイン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2926,6 +2910,82 @@
     <rPh sb="162" eb="164">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職員Noが数値以外</t>
+    <rPh sb="0" eb="2">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職員Noのデータが存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>ショクイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職員Noのデータが存在する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「登録されていません。」ダイアログが表示されること</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・削除確認ダイアログが表示されること
+・「はい」選択で、職員No入力値のデータが削除されること</t>
+    <rPh sb="1" eb="3">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3170,7 +3230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3255,9 +3315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3313,6 +3370,12 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3786,7 +3849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A25"/>
     </sheetView>
   </sheetViews>
@@ -3803,7 +3866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3834,21 +3897,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="49" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G2" s="19">
         <v>43883</v>
@@ -3865,15 +3928,15 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G3" s="19">
         <v>43883</v>
@@ -3890,15 +3953,15 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="19">
         <v>43883</v>
@@ -3915,17 +3978,17 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="50"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G5" s="19">
         <v>43883</v>
@@ -3942,12 +4005,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="69" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -3965,19 +4028,19 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" s="19">
         <v>43883</v>
@@ -3994,11 +4057,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="57" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4008,7 +4071,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G8" s="19">
         <v>43883</v>
@@ -4024,9 +4087,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4034,7 +4097,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G9" s="19">
         <v>43883</v>
@@ -4050,11 +4113,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="55"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4064,7 +4127,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G10" s="19">
         <v>43883</v>
@@ -4080,17 +4143,17 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>210</v>
+      <c r="E11" s="31" t="s">
+        <v>209</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G11" s="19">
         <v>43883</v>
@@ -4106,16 +4169,16 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
@@ -4130,14 +4193,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="55"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4154,11 +4217,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4168,7 +4231,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14" s="19">
         <v>43883</v>
@@ -4184,9 +4247,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="51"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4194,7 +4257,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G15" s="19">
         <v>43883</v>
@@ -4204,11 +4267,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="52" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4218,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G16" s="19">
         <v>43883</v>
@@ -4234,9 +4297,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4244,7 +4307,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G17" s="19">
         <v>43883</v>
@@ -4254,11 +4317,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4268,7 +4331,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G18" s="19">
         <v>43883</v>
@@ -4284,9 +4347,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="51"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4294,7 +4357,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G19" s="19">
         <v>43883</v>
@@ -4304,11 +4367,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4318,7 +4381,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G20" s="19">
         <v>43883</v>
@@ -4334,9 +4397,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4344,7 +4407,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G21" s="19">
         <v>43883</v>
@@ -4354,19 +4417,19 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="60" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="63"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G22" s="19">
         <v>43883</v>
@@ -4382,17 +4445,17 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G23" s="19">
         <v>43883</v>
@@ -4408,19 +4471,19 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="60" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="19">
         <v>43883</v>
@@ -4436,17 +4499,17 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="56"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="19">
         <v>43883</v>
@@ -4517,10 +4580,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -4529,7 +4592,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4542,569 +4605,569 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92"/>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="11"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="92"/>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="89"/>
+      <c r="F5" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="92"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="88"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="89"/>
       <c r="F6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="92"/>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="93"/>
+      <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="11"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="92"/>
-      <c r="B8" s="97" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="74"/>
+      <c r="D8" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="75"/>
       <c r="F8" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="92"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="74"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="75"/>
       <c r="F9" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="93"/>
+      <c r="B10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="74"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="92"/>
-      <c r="B11" s="77" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="74"/>
+      <c r="D11" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="75"/>
       <c r="F11" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="92"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" s="74"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="75"/>
       <c r="F12" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="92"/>
-      <c r="B13" s="45" t="s">
+      <c r="A13" s="93"/>
+      <c r="B13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="77" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="74"/>
+      <c r="D14" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="75"/>
       <c r="F14" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="11"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="E15" s="74"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="75"/>
       <c r="F15" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="11"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E16" s="74"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="75"/>
       <c r="F16" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="11"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="92"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="D17" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="74"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="75"/>
       <c r="F17" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="11"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="92"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="74"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="75"/>
       <c r="F18" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="11"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="92"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>170</v>
+      <c r="A19" s="93"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="92"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="42" t="s">
-        <v>171</v>
+      <c r="A20" s="93"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="92"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="74"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="E21" s="75"/>
       <c r="F21" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="92"/>
-      <c r="B22" s="45" t="s">
+      <c r="A22" s="93"/>
+      <c r="B22" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="92"/>
-      <c r="B23" s="77" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="74"/>
+      <c r="D23" s="74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="75"/>
       <c r="F23" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="92"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="74"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="75"/>
       <c r="F24" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="92"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="75" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="E25" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>201</v>
-      </c>
       <c r="F25" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="47" t="s">
-        <v>202</v>
+      <c r="A26" s="93"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="46" t="s">
+        <v>201</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="92"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="75" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="73" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="74"/>
+      <c r="D27" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="75"/>
       <c r="F27" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="74"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="75"/>
       <c r="F28" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="74"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" s="75"/>
       <c r="F29" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="74"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="74" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="75"/>
       <c r="F30" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="92"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="73" t="s">
+      <c r="A31" s="93"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="75"/>
+      <c r="F31" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="74"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="75"/>
       <c r="F32" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="92"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="75" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="75"/>
+      <c r="F33" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="D33" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="11"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="92"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="74"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="75"/>
       <c r="F34" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="11"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="93"/>
-      <c r="B35" s="30" t="s">
+      <c r="A35" s="94"/>
+      <c r="B35" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="94" t="s">
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -5512,10 +5575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection sqref="A1:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5523,14 +5586,14 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
     <col min="5" max="5" width="71.5" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5554,253 +5617,331 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
+      <c r="A2" s="101"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43886</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43886</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100"/>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43886</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="86" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43886</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6" s="11">
+        <v>43886</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="80"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="11">
+        <v>43886</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="80"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43886</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="97" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="11">
+        <v>43886</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="36" t="s">
-        <v>117</v>
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="35" t="s">
+        <v>116</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="11">
+        <v>43886</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="35" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43886</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="35" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="11">
+        <v>43886</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="33" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43886</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="28" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="47" t="s">
+        <v>215</v>
+      </c>
       <c r="E14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="11">
+        <v>43886</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="97" t="s">
+    <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="101"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G16" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="101"/>
+      <c r="B17" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="73" t="s">
+      <c r="C17" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="12" t="s">
+      <c r="D17" s="81"/>
+      <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="73" t="s">
+      <c r="F17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="101"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="13" t="s">
+      <c r="D18" s="81"/>
+      <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G18" s="11">
+        <v>43886</v>
+      </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -6044,14 +6185,24 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="17"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="17"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" s="17"/>
@@ -6103,23 +6254,34 @@
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
     </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:A16"/>
+  <mergeCells count="16">
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A1:A18"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6131,7 +6293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
@@ -6147,7 +6309,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6171,214 +6333,222 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="101"/>
+      <c r="B4" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100"/>
-      <c r="B4" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="83" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="11"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="87"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="11"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
-      <c r="B7" s="97" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>129</v>
+      <c r="D7" s="38" t="s">
+        <v>128</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="11"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="38" t="s">
-        <v>127</v>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="11"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="38" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="40" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="11"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="97" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>126</v>
+      <c r="D11" s="40" t="s">
+        <v>125</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="40" t="s">
-        <v>127</v>
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="40" t="s">
-        <v>123</v>
+      <c r="A13" s="101"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="97" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="80"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="11"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="73" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="80"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
@@ -6747,7 +6917,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6771,46 +6941,46 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="102" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="84"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="83" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="84"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="101"/>
+      <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="29" t="s">
-        <v>134</v>
+      <c r="D4" s="85"/>
+      <c r="E4" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
@@ -7171,7 +7341,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7202,14 +7372,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="70"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="23" t="s">
         <v>60</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="223">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -1267,68 +1267,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・入力内容で登録されること
-・印刷時項目名が空白の場合、入力時項目名の頭２文字が印刷時項目名として登録されること</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ニュウリョクジ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>アタマ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2986,6 +2924,73 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力内容で登録されること
+・表示順が空白の場合、既存データの表示順の最大値+1の値で登録されること
+・印刷時項目名が空白の場合、入力時項目名の頭２文字が印刷時項目名として登録されること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3378,6 +3383,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3387,15 +3428,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3408,24 +3440,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3438,20 +3458,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3459,11 +3494,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3471,67 +3521,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3866,7 +3871,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3897,21 +3902,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="61" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="61" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G2" s="19">
         <v>43883</v>
@@ -3928,15 +3933,15 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G3" s="19">
         <v>43883</v>
@@ -3953,15 +3958,15 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G4" s="19">
         <v>43883</v>
@@ -3978,9 +3983,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -3988,7 +3993,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G5" s="19">
         <v>43883</v>
@@ -4005,12 +4010,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="70" t="s">
+      <c r="A6" s="65"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4028,19 +4033,19 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="19">
         <v>43883</v>
@@ -4057,11 +4062,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="65"/>
+      <c r="B8" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4071,7 +4076,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G8" s="19">
         <v>43883</v>
@@ -4087,9 +4092,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4097,7 +4102,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="19">
         <v>43883</v>
@@ -4113,11 +4118,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="65"/>
+      <c r="B10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="53" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4127,7 +4132,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G10" s="19">
         <v>43883</v>
@@ -4143,17 +4148,17 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" s="19">
         <v>43883</v>
@@ -4169,16 +4174,16 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
@@ -4193,14 +4198,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4217,11 +4222,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4231,7 +4236,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G14" s="19">
         <v>43883</v>
@@ -4247,9 +4252,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="19">
         <v>43883</v>
@@ -4267,11 +4272,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4281,7 +4286,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G16" s="19">
         <v>43883</v>
@@ -4297,9 +4302,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4307,7 +4312,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="19">
         <v>43883</v>
@@ -4317,11 +4322,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4331,7 +4336,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G18" s="19">
         <v>43883</v>
@@ -4347,9 +4352,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4357,7 +4362,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G19" s="19">
         <v>43883</v>
@@ -4367,11 +4372,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="58" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4381,7 +4386,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G20" s="19">
         <v>43883</v>
@@ -4397,9 +4402,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4407,7 +4412,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G21" s="19">
         <v>43883</v>
@@ -4417,19 +4422,19 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G22" s="19">
         <v>43883</v>
@@ -4445,17 +4450,17 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G23" s="19">
         <v>43883</v>
@@ -4471,19 +4476,19 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G24" s="19">
         <v>43883</v>
@@ -4499,17 +4504,17 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63" t="s">
+      <c r="A25" s="66"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G25" s="19">
         <v>43883</v>
@@ -4526,16 +4531,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4552,6 +4547,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4580,7 +4585,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="74" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -4605,566 +4610,566 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="11"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="11"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="11"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="12" t="s">
         <v>143</v>
-      </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="12" t="s">
-        <v>144</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="11"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="89"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="97"/>
       <c r="F6" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="11"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="11"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="75"/>
+      <c r="D8" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="85"/>
       <c r="F8" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="74" t="s">
-        <v>192</v>
-      </c>
-      <c r="E9" s="75"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="85"/>
       <c r="F9" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="75"/>
+      <c r="D11" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="85"/>
       <c r="F11" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" s="75"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="85"/>
       <c r="F12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="75"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="75"/>
+      <c r="D14" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="85"/>
       <c r="F14" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="11"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="85"/>
       <c r="F15" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="11"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
-      <c r="B16" s="79"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" s="75"/>
+        <v>154</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="85"/>
       <c r="F16" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="11"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="E17" s="75"/>
+        <v>157</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="85"/>
       <c r="F17" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="11"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="75"/>
+        <v>158</v>
+      </c>
+      <c r="D18" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="85"/>
       <c r="F18" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="11"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>160</v>
+      <c r="A19" s="75"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>159</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="75"/>
+        <v>156</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="85"/>
       <c r="F21" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="75"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="75"/>
+      <c r="D23" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="85"/>
       <c r="F23" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="11"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="E24" s="75"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="85"/>
       <c r="F24" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="76" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="E25" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="E25" s="46" t="s">
-        <v>200</v>
-      </c>
       <c r="F25" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="11"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="11"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="76" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="E27" s="75"/>
+      <c r="D27" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="85"/>
       <c r="F27" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="75"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="85"/>
       <c r="F28" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="93"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E29" s="75"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="85"/>
       <c r="F29" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="93"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="74" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="75"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="85"/>
       <c r="F30" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="93"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="74" t="s">
+      <c r="A31" s="75"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="85"/>
+      <c r="F31" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="93"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="75"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="85"/>
       <c r="F32" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="93"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="84" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="85"/>
+      <c r="F33" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="D33" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="11"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="74" t="s">
-        <v>141</v>
-      </c>
-      <c r="E34" s="75"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="85"/>
       <c r="F34" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="11"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="94"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="D35" s="78"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -5519,6 +5524,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B23:B34"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:A35"/>
     <mergeCell ref="C35:E35"/>
     <mergeCell ref="B8:B9"/>
@@ -5535,37 +5571,6 @@
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5621,15 +5626,15 @@
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -5641,15 +5646,15 @@
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -5658,18 +5663,18 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="101"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -5678,16 +5683,16 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="101"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="87" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -5699,15 +5704,15 @@
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -5719,15 +5724,15 @@
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -5739,15 +5744,15 @@
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -5756,10 +5761,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="101"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="82" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5769,7 +5774,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -5779,7 +5784,7 @@
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="101"/>
       <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -5787,7 +5792,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -5797,7 +5802,7 @@
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="101"/>
       <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -5815,7 +5820,7 @@
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="101"/>
       <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -5832,8 +5837,8 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="101"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -5841,7 +5846,7 @@
         <v>110</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -5850,20 +5855,20 @@
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="82" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -5873,15 +5878,15 @@
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="101"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="100"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -5890,16 +5895,16 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="101"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="11">
         <v>43886</v>
@@ -5908,18 +5913,18 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="101"/>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G17" s="11">
         <v>43886</v>
@@ -5928,16 +5933,16 @@
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="101"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="74" t="s">
+      <c r="B18" s="81"/>
+      <c r="C18" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G18" s="11">
         <v>43886</v>
@@ -6337,15 +6342,15 @@
       <c r="B2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -6355,10 +6360,10 @@
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="101"/>
       <c r="B3" s="104"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -6375,15 +6380,19 @@
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
+      <c r="F4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43886</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6391,10 +6400,10 @@
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -6407,10 +6416,10 @@
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -6420,14 +6429,14 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="101"/>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="82" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>118</v>
@@ -6439,9 +6448,9 @@
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="101"/>
       <c r="B8" s="102"/>
-      <c r="C8" s="100"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>119</v>
@@ -6453,7 +6462,7 @@
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="101"/>
       <c r="B9" s="102"/>
-      <c r="C9" s="100"/>
+      <c r="C9" s="86"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -6464,15 +6473,15 @@
       <c r="G9" s="11"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="101"/>
       <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="11"/>
@@ -6480,17 +6489,17 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="101"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="82" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="11"/>
@@ -6499,12 +6508,12 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="101"/>
       <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+      <c r="C12" s="86"/>
       <c r="D12" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="11"/>
@@ -6512,13 +6521,13 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="101"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="77"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="11"/>
@@ -6526,15 +6535,15 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="11"/>
@@ -6542,13 +6551,13 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="101"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="81"/>
+      <c r="C15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="11"/>
@@ -6945,12 +6954,12 @@
       <c r="B2" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="11"/>
@@ -6959,12 +6968,12 @@
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="101"/>
       <c r="B3" s="104"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
@@ -6975,12 +6984,12 @@
       <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="11"/>
@@ -7341,7 +7350,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="64" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7372,14 +7381,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="23" t="s">
         <v>60</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="224">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2991,6 +2991,10 @@
     <rPh sb="86" eb="88">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3383,22 +3387,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3410,53 +3456,65 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3482,61 +3540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3871,7 +3875,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="55" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3902,17 +3906,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65"/>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="56"/>
+      <c r="B2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="49" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -3933,13 +3937,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="6" t="s">
         <v>204</v>
       </c>
@@ -3958,13 +3962,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="6" t="s">
         <v>204</v>
       </c>
@@ -3983,9 +3987,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="63"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4010,12 +4014,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="56" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4033,14 +4037,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="60"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -4062,11 +4066,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4092,9 +4096,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4118,11 +4122,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="59" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4148,9 +4152,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="65"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -4174,14 +4178,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="20" t="s">
         <v>134</v>
       </c>
@@ -4198,14 +4202,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="73"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4222,11 +4226,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4252,9 +4256,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="65"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4272,11 +4276,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4302,9 +4306,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="65"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4322,11 +4326,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4352,9 +4356,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="65"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4372,11 +4376,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4402,9 +4406,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="65"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4422,14 +4426,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="65"/>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="56"/>
+      <c r="B22" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4450,12 +4454,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="65"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -4476,14 +4480,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="65"/>
-      <c r="B24" s="68" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -4504,12 +4508,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="66"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="50"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -4531,6 +4535,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4547,16 +4561,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4585,7 +4589,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="92" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -4610,15 +4614,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75"/>
-      <c r="B2" s="91" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="10" t="s">
         <v>137</v>
       </c>
@@ -4627,13 +4631,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="87" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
@@ -4642,15 +4646,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="8" t="s">
         <v>138</v>
       </c>
@@ -4659,17 +4663,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="93" t="s">
+      <c r="A5" s="93"/>
+      <c r="B5" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="12" t="s">
         <v>143</v>
       </c>
@@ -4678,13 +4682,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="95" t="s">
+      <c r="A6" s="93"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="97"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="12" t="s">
         <v>144</v>
       </c>
@@ -4693,15 +4697,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="75"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="12" t="s">
         <v>145</v>
       </c>
@@ -4710,17 +4714,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="75"/>
       <c r="F8" s="12" t="s">
         <v>192</v>
       </c>
@@ -4729,13 +4733,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84" t="s">
+      <c r="A9" s="93"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="74" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="75"/>
       <c r="F9" s="12" t="s">
         <v>193</v>
       </c>
@@ -4744,15 +4748,15 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="85"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="13" t="s">
         <v>203</v>
       </c>
@@ -4761,17 +4765,17 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="75"/>
-      <c r="B11" s="93" t="s">
+      <c r="A11" s="93"/>
+      <c r="B11" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="75"/>
       <c r="F11" s="13" t="s">
         <v>148</v>
       </c>
@@ -4780,13 +4784,13 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="90" t="s">
+      <c r="A12" s="93"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="81" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="13" t="s">
         <v>149</v>
       </c>
@@ -4795,15 +4799,15 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="85"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="14" t="s">
         <v>150</v>
       </c>
@@ -4812,17 +4816,17 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
-      <c r="B14" s="93" t="s">
+      <c r="A14" s="93"/>
+      <c r="B14" s="78" t="s">
         <v>151</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="75"/>
       <c r="F14" s="14" t="s">
         <v>161</v>
       </c>
@@ -4831,15 +4835,15 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="14" t="s">
         <v>162</v>
       </c>
@@ -4848,15 +4852,15 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="14" t="s">
         <v>163</v>
       </c>
@@ -4865,15 +4869,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="75"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="85"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="14" t="s">
         <v>164</v>
       </c>
@@ -4882,15 +4886,15 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="14" t="s">
         <v>164</v>
       </c>
@@ -4899,12 +4903,12 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="82" t="s">
+      <c r="A19" s="93"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="76" t="s">
         <v>159</v>
       </c>
       <c r="E19" s="41" t="s">
@@ -4918,10 +4922,10 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="75"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
       <c r="E20" s="41" t="s">
         <v>169</v>
       </c>
@@ -4933,15 +4937,15 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="75"/>
-      <c r="B21" s="98"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="14" t="s">
         <v>165</v>
       </c>
@@ -4950,15 +4954,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="85"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="13" t="s">
         <v>172</v>
       </c>
@@ -4967,17 +4971,17 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="75"/>
-      <c r="B23" s="93" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="12" t="s">
         <v>173</v>
       </c>
@@ -4986,13 +4990,13 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="75"/>
       <c r="F24" s="13" t="s">
         <v>174</v>
       </c>
@@ -5001,12 +5005,12 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="82" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="76" t="s">
         <v>198</v>
       </c>
       <c r="E25" s="46" t="s">
@@ -5020,10 +5024,10 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="75"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
       <c r="E26" s="46" t="s">
         <v>200</v>
       </c>
@@ -5035,15 +5039,15 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="75"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="82" t="s">
+      <c r="A27" s="93"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="12" t="s">
         <v>181</v>
       </c>
@@ -5052,13 +5056,13 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="75"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="84" t="s">
+      <c r="A28" s="93"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="12" t="s">
         <v>182</v>
       </c>
@@ -5067,13 +5071,13 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="75"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="84" t="s">
+      <c r="A29" s="93"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E29" s="85"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="13" t="s">
         <v>183</v>
       </c>
@@ -5082,13 +5086,13 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="75"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="84" t="s">
+      <c r="A30" s="93"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="85"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="13" t="s">
         <v>189</v>
       </c>
@@ -5097,13 +5101,13 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="75"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="84" t="s">
+      <c r="A31" s="93"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="74" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="85"/>
+      <c r="E31" s="75"/>
       <c r="F31" s="12" t="s">
         <v>180</v>
       </c>
@@ -5112,13 +5116,13 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="75"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84" t="s">
+      <c r="A32" s="93"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="74" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="85"/>
+      <c r="E32" s="75"/>
       <c r="F32" s="12" t="s">
         <v>184</v>
       </c>
@@ -5127,15 +5131,15 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="75"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="82" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="12" t="s">
         <v>195</v>
       </c>
@@ -5144,13 +5148,13 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="75"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84" t="s">
+      <c r="A34" s="93"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="13" t="s">
         <v>196</v>
       </c>
@@ -5159,15 +5163,15 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="95" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="78"/>
-      <c r="E35" s="79"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
       <c r="F35" s="7" t="s">
         <v>188</v>
       </c>
@@ -5524,14 +5528,29 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A1:A35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B23:B34"/>
     <mergeCell ref="C2:E2"/>
@@ -5548,29 +5567,14 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:A35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5626,10 +5630,10 @@
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -5646,10 +5650,10 @@
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -5663,13 +5667,13 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="101"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -5683,11 +5687,11 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="101"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="95" t="s">
+      <c r="B5" s="99"/>
+      <c r="C5" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -5704,10 +5708,10 @@
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -5724,10 +5728,10 @@
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="90"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -5744,10 +5748,10 @@
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -5761,10 +5765,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="101"/>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="76" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5784,7 +5788,7 @@
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="101"/>
       <c r="B10" s="102"/>
-      <c r="C10" s="86"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -5802,7 +5806,7 @@
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="101"/>
       <c r="B11" s="102"/>
-      <c r="C11" s="86"/>
+      <c r="C11" s="100"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -5820,7 +5824,7 @@
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="101"/>
       <c r="B12" s="102"/>
-      <c r="C12" s="86"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -5837,8 +5841,8 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="101"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -5855,10 +5859,10 @@
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="76" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -5878,7 +5882,7 @@
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="101"/>
       <c r="B15" s="102"/>
-      <c r="C15" s="86"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="48" t="s">
         <v>215</v>
       </c>
@@ -5895,8 +5899,8 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="101"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="83"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="77"/>
       <c r="D16" s="48" t="s">
         <v>216</v>
       </c>
@@ -5913,13 +5917,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="101"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="81"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -5933,11 +5937,11 @@
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="101"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="90"/>
+      <c r="D18" s="81"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -6342,10 +6346,10 @@
       <c r="B2" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
@@ -6360,10 +6364,10 @@
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="101"/>
       <c r="B3" s="104"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -6380,10 +6384,10 @@
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
@@ -6400,15 +6404,19 @@
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43886</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6416,23 +6424,27 @@
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="88"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="11">
+        <v>43886</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="101"/>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="76" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -6441,42 +6453,54 @@
       <c r="E7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="11">
+        <v>43886</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="101"/>
       <c r="B8" s="102"/>
-      <c r="C8" s="86"/>
+      <c r="C8" s="100"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43886</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="101"/>
       <c r="B9" s="102"/>
-      <c r="C9" s="86"/>
+      <c r="C9" s="100"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="11">
+        <v>43886</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="101"/>
       <c r="B10" s="102"/>
-      <c r="C10" s="86"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -6489,10 +6513,10 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="101"/>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="76" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -6508,7 +6532,7 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="101"/>
       <c r="B12" s="102"/>
-      <c r="C12" s="86"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -6521,8 +6545,8 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="101"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -6535,13 +6559,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="101"/>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -6551,11 +6575,11 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="101"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="84" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -6954,10 +6978,10 @@
       <c r="B2" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="85"/>
       <c r="E2" s="10" t="s">
         <v>133</v>
       </c>
@@ -6968,10 +6992,10 @@
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="101"/>
       <c r="B3" s="104"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
@@ -6984,10 +7008,10 @@
       <c r="B4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="84" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="85"/>
       <c r="E4" s="28" t="s">
         <v>132</v>
       </c>
@@ -7350,7 +7374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7381,14 +7405,14 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="23" t="s">
         <v>60</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="237">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -1383,37 +1383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・入力値に数値以外の文字が含まれている場合、ダイアログが表示され登録されないこと</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・最終データ登録日が左上セルに表示されていること
 ・8行分「特養、事務、ｼｮｰﾄｽﾃｲ、ﾃﾞｲｻｰﾋﾞｽ、ﾍﾙﾊﾟｰｽﾃｰｼｮﾝ、居宅介護支援、老人介護支援ｾﾝﾀｰ、生活支援ﾊｳｽ」のデータが表示されていること
 ・24列「日勤、半勤、早出、遅出、Ａ勤、Ｂ勤、振替、夜勤、宿直、日直、Ｃ勤、明け、特日、研修、深夜、1/3勤、1/3半、日早、日遅、遅々、半Ａ、半Ｂ、半夜、半行」のデータが表示されていること</t>
@@ -2467,19 +2436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・「常勤専従、常勤兼務、常勤以外専従、常勤以外兼務」が選択できること</t>
-    <rPh sb="2" eb="4">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センジュウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・「"", "理事長", "施設長", "副施設長", "事務局長", "部長", "課長", "係長", "主任", "管理者", "ｻｰﾋﾞｽ提供責任者", "医師", "正看護師", "准看護師", "看護職", "機能訓練士", "介護支援専門員", "生活相談員", "支援援助員", "介護職", "介護福祉士", "訪問介護員", "管理栄養士", "栄養士", "宿直"」が選択できること</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2532,22 +2488,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・選択行の背景色をデフォルトに戻ること</t>
-    <rPh sb="1" eb="3">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2995,6 +2935,121 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力値に数値以外の文字がある</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力値に数値以外の文字が含まれている場合、ダイアログが表示され登録されないこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記以外</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力内容で登録されること</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「""、"常勤専従"、"常勤兼務"、"常勤以外専従"、"常勤以外兼務"」が選択できること</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センジュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・選択行の背景色がデフォルトに戻ること</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モド</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3239,7 +3294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3387,6 +3442,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3554,6 +3618,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3875,7 +3945,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3906,21 +3976,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="52" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G2" s="19">
         <v>43883</v>
@@ -3937,15 +4007,15 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="50"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="50"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G3" s="19">
         <v>43883</v>
@@ -3962,15 +4032,15 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="50"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G4" s="19">
         <v>43883</v>
@@ -3987,9 +4057,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -3997,7 +4067,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G5" s="19">
         <v>43883</v>
@@ -4014,12 +4084,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="70" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4037,19 +4107,19 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="73"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G7" s="19">
         <v>43883</v>
@@ -4066,11 +4136,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4080,7 +4150,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G8" s="19">
         <v>43883</v>
@@ -4096,9 +4166,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4106,7 +4176,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G9" s="19">
         <v>43883</v>
@@ -4122,11 +4192,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="53" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4136,7 +4206,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G10" s="19">
         <v>43883</v>
@@ -4152,17 +4222,17 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G11" s="19">
         <v>43883</v>
@@ -4178,16 +4248,16 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="66"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="19"/>
@@ -4202,14 +4272,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="68"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4226,11 +4296,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="53" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4240,7 +4310,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="19">
         <v>43883</v>
@@ -4256,9 +4326,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4266,7 +4336,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G15" s="19">
         <v>43883</v>
@@ -4276,11 +4346,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="56"/>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4290,7 +4360,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G16" s="19">
         <v>43883</v>
@@ -4306,9 +4376,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4316,7 +4386,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G17" s="19">
         <v>43883</v>
@@ -4326,11 +4396,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="56"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="52" t="s">
+      <c r="C18" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4340,7 +4410,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G18" s="19">
         <v>43883</v>
@@ -4356,9 +4426,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4366,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G19" s="19">
         <v>43883</v>
@@ -4376,11 +4446,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="56"/>
-      <c r="B20" s="53" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4390,7 +4460,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G20" s="19">
         <v>43883</v>
@@ -4406,9 +4476,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4416,7 +4486,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G21" s="19">
         <v>43883</v>
@@ -4426,19 +4496,19 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="56"/>
-      <c r="B22" s="61" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="64"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G22" s="19">
         <v>43883</v>
@@ -4454,17 +4524,17 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="56"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G23" s="19">
         <v>43883</v>
@@ -4480,19 +4550,19 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="56"/>
-      <c r="B24" s="61" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G24" s="19">
         <v>43883</v>
@@ -4508,17 +4578,17 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G25" s="19">
         <v>43883</v>
@@ -4572,7 +4642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
@@ -4589,7 +4659,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -4614,569 +4684,649 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93"/>
-      <c r="B2" s="82" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89"/>
       <c r="F2" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="11">
+        <v>43886</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="96"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="11"/>
+      <c r="G3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="11">
+        <v>43886</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93"/>
+      <c r="A4" s="96"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="11"/>
+        <v>137</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="11">
+        <v>43886</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
-      <c r="B5" s="78" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="90" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="92"/>
+      <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H5" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="96"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="92"/>
+      <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="93"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" s="11">
+        <v>43886</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
+      <c r="A7" s="96"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="11"/>
+        <v>144</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="11">
+        <v>43886</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="74" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="75"/>
+      <c r="D8" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="78"/>
       <c r="F8" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="11"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E9" s="75"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="78"/>
       <c r="F9" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="11"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+      <c r="A10" s="96"/>
       <c r="B10" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="96"/>
+      <c r="B11" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="96"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="13" t="s">
+      <c r="E12" s="78"/>
+      <c r="F12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H12" s="11">
+        <v>43886</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="75"/>
+      <c r="C13" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="84"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="96"/>
+      <c r="B14" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="78" t="s">
+      <c r="C14" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="D14" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="78"/>
+      <c r="F14" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="96"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D15" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="78"/>
+      <c r="F15" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="96"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="93"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="74" t="s">
+      <c r="E16" s="78"/>
+      <c r="F16" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="96"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="42" t="s">
+      <c r="E17" s="78"/>
+      <c r="F17" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H17" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="96"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="78"/>
+      <c r="F18" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="96"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D19" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="93"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="93"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="93"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="76" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>168</v>
-      </c>
       <c r="F19" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="11"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="93"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="11"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="93"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" s="75"/>
+        <v>155</v>
+      </c>
+      <c r="D21" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="78"/>
       <c r="F21" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="11"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="93"/>
+      <c r="A22" s="96"/>
       <c r="B22" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="81"/>
-      <c r="E22" s="75"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="11"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="93"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="96"/>
+      <c r="B23" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="78"/>
+      <c r="F23" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H23" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="96"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="12" t="s">
+      <c r="E24" s="78"/>
+      <c r="F24" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="93"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="11"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="93"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="76" t="s">
+      <c r="A25" s="96"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="79" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="F25" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="96"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="F26" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="G26" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="93"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="11">
+        <v>43886</v>
+      </c>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="93"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="76" t="s">
+      <c r="A27" s="96"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="E27" s="75"/>
+      <c r="D27" s="77" t="s">
+        <v>174</v>
+      </c>
+      <c r="E27" s="78"/>
       <c r="F27" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="11"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="93"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="E28" s="75"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="77" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="78"/>
       <c r="F28" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="93"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="74" t="s">
-        <v>177</v>
-      </c>
-      <c r="E29" s="75"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="77" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="78"/>
       <c r="F29" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="11"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="93"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="75"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="78"/>
       <c r="F30" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="93"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="74" t="s">
+      <c r="A31" s="96"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="78"/>
+      <c r="F31" s="12" t="s">
         <v>179</v>
-      </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="93"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="75"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" s="78"/>
       <c r="F32" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="93"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="96"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="79" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="77" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="78"/>
+      <c r="F33" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="96"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D33" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="93"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="11"/>
+      <c r="G34" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="11">
+        <v>43886</v>
+      </c>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="94"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="95" t="s">
+      <c r="D35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="G35" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" s="11">
+        <v>43886</v>
+      </c>
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -5602,7 +5752,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5626,19 +5776,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
+      <c r="A2" s="104"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -5646,19 +5796,19 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
+      <c r="A3" s="104"/>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -5666,19 +5816,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="101"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -5686,17 +5836,17 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="87" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -5704,19 +5854,19 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="101"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -5724,19 +5874,19 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="101"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="81"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -5744,19 +5894,19 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -5764,11 +5914,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="79" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5778,7 +5928,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -5786,9 +5936,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -5796,7 +5946,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -5804,9 +5954,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="100"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -5814,7 +5964,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -5822,9 +5972,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -5832,7 +5982,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -5840,9 +5990,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -5850,7 +6000,7 @@
         <v>110</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -5858,21 +6008,21 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="101"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="79" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -5880,17 +6030,17 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -5898,17 +6048,17 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="101"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="77"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G16" s="11">
         <v>43886</v>
@@ -5916,19 +6066,19 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101"/>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G17" s="11">
         <v>43886</v>
@@ -5936,17 +6086,17 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="101"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="74" t="s">
+      <c r="A18" s="104"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G18" s="11">
         <v>43886</v>
@@ -6302,7 +6452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
@@ -6318,7 +6468,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6342,19 +6492,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -6362,17 +6512,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -6380,19 +6530,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="101"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="85"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -6400,19 +6550,19 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="88"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -6420,19 +6570,19 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="101"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="88"/>
+      <c r="D6" s="91"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -6440,11 +6590,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="101"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="79" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -6454,7 +6604,7 @@
         <v>118</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -6462,9 +6612,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -6472,7 +6622,7 @@
         <v>119</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -6480,9 +6630,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="100"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -6490,7 +6640,7 @@
         <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -6498,25 +6648,29 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="11"/>
+        <v>219</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="11">
+        <v>43886</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="79" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -6525,66 +6679,86 @@
       <c r="E11" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43886</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="11">
+        <v>43886</v>
+      </c>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="77"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G13" s="11">
+        <v>43886</v>
+      </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="101"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G14" s="11">
+        <v>43886</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="74" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="11">
+        <v>43886</v>
+      </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -6932,25 +7106,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="23.25" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="71.5" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="104" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6974,60 +7148,82 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="103" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="85"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="11"/>
+        <v>132</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="11">
+        <v>43886</v>
+      </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="85"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43886</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="101"/>
-      <c r="B4" s="29" t="s">
+    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="104"/>
+      <c r="B4" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="11"/>
+      <c r="C4" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43886</v>
+      </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="104"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="11">
+        <v>43886</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
@@ -7280,9 +7476,14 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="17"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B32" s="17"/>
@@ -7339,13 +7540,19 @@
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
     </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A1:A5"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7355,7 +7562,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A2"/>
@@ -7366,15 +7573,14 @@
     <col min="1" max="1" width="5.75" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="27.75" customWidth="1"/>
-    <col min="4" max="4" width="22.25" customWidth="1"/>
-    <col min="5" max="5" width="45.125" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="9" max="11" width="9.125" customWidth="1"/>
-    <col min="19" max="19" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="8" max="10" width="9.125" customWidth="1"/>
+    <col min="18" max="18" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7384,40 +7590,41 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57"/>
+    </row>
+    <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="60"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="19">
+        <v>43886</v>
+      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -7427,11 +7634,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="256">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -1986,81 +1986,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・SealBoxフォルダから施設長、合議テキストのファイル名の印影ファイルを読み込み、
-存在しないファイルがある場合印刷が実行されないこと
-・テキストが空白もしくは全てのファイルが存在する場合印刷が実行されること</t>
-    <rPh sb="14" eb="17">
-      <t>シセツチョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴウギ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>インエイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・パスワードフォームが表示されること
-・iniファイルに設定されているパスワードで通過できること
-・パスワード通過後、印刷が実行されること</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ツウカ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・職員マスタで設定されている該当職種の氏名データが表示されること</t>
     <rPh sb="1" eb="3">
       <t>ショクイン</t>
@@ -2504,199 +2429,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・各行に常勤換算、月合計、総勤日数が表示されること
-・換算、集計の仕様
-　共通部分
-　　集計対象は4週(1日～28日の勤務)
-　　勤務時間は定数マスタを参照、入力が数値の場合は入力値を使用
-　　「有休」は「日勤」扱いでカウント
-　　常勤換算、月合計、総勤日数が0の場合は表示しない
-　常勤換算
-　　常勤換算式 ： 4週合計時間 / 157　(小数第三位以下切り捨て)
-　　形態が「常勤専従」の場合は常勤換算を1.00とする
-　月合計
-　　勤務4週合計時間（小数第三位以下切り捨て）を表示
-　総勤日数
-　　数値、または定数マスタの24種類勤務名の場合カウントする
-・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
-　それぞれ職種名に一致する数をカウントすること</t>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="162" eb="164">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="216" eb="218">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="221" eb="223">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>シュウ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="227" eb="229">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>ショウスウ</t>
-    </rPh>
-    <rPh sb="232" eb="233">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>サンイ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="237" eb="238">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="248" eb="252">
-      <t>ソウキンニッスウ</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="261" eb="263">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="269" eb="271">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="271" eb="273">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="273" eb="274">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="275" eb="277">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="286" eb="287">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="288" eb="289">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="291" eb="294">
-      <t>カンゴシ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="297" eb="298">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="299" eb="301">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="305" eb="306">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="311" eb="313">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="313" eb="314">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="325" eb="327">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="338" eb="340">
-      <t>ショクシュ</t>
-    </rPh>
-    <rPh sb="340" eb="341">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="342" eb="344">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="346" eb="347">
-      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3050,6 +2782,285 @@
     <rPh sb="15" eb="16">
       <t>モド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・パスワードフォームが表示されること
+・iniファイルに設定されているパスワードで通過できること
+・パスワード通過後、勤務データが存在する場合は印刷が実行されること
+・勤務データが存在しない場合はダイアログが表示され印刷が実行されないこと</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ツウカ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SealBoxフォルダから施設長、合議テキストのファイル名の印影ファイルを読み込み、
+存在しないファイルがある場合印刷が実行されないこと
+・テキストが空白もしくは全てのファイルが存在する場合印刷が実行されること
+・iniファイルのSign1,Sign2,Sign3が入力値で更新されること</t>
+    <rPh sb="14" eb="17">
+      <t>シセツチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゴウギ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>インエイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・iniファイルのSign1の値が表示されていること</t>
+    <rPh sb="15" eb="16">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・iniファイルのSign2の値が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・iniファイルのSign3の値が表示されていること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通仕様</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常勤換算</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月合計</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総勤日数</t>
+    <rPh sb="0" eb="4">
+      <t>ソウキンニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・常勤換算式 ： 4週合計時間 / 157　(小数第三位以下切り捨て)
+・形態が「常勤専従」の場合は常勤換算を1.00とする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤務4週合計時間（小数第三位以下切り捨て）を表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下８行</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・数値、または定数マスタの24種類勤務名の場合カウントする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・各行に常勤換算、月合計、総勤日数が表示されること
+・共通仕様
+　　集計対象は4週(1日～28日の勤務)
+　　勤務時間は定数マスタを参照、入力が数値の場合は入力値を使用
+　　「有休」は「日勤」扱いでカウント
+　　常勤換算、月合計、総勤日数が0の場合は表示しない
+</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
+・それぞれ職種名に一致する数をカウントする</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3451,6 +3462,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3460,15 +3507,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3481,24 +3519,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3511,20 +3537,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3532,11 +3573,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3544,67 +3600,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3945,7 +3956,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3976,21 +3987,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="64" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="64" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G2" s="19">
         <v>43883</v>
@@ -4007,15 +4018,15 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G3" s="19">
         <v>43883</v>
@@ -4032,15 +4043,15 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G4" s="19">
         <v>43883</v>
@@ -4057,9 +4068,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4067,7 +4078,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G5" s="19">
         <v>43883</v>
@@ -4084,12 +4095,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="73" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4107,19 +4118,19 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G7" s="19">
         <v>43883</v>
@@ -4136,11 +4147,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="56" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4150,7 +4161,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G8" s="19">
         <v>43883</v>
@@ -4166,9 +4177,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4176,7 +4187,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G9" s="19">
         <v>43883</v>
@@ -4192,11 +4203,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4206,7 +4217,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G10" s="19">
         <v>43883</v>
@@ -4222,17 +4233,17 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="63"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="19">
         <v>43883</v>
@@ -4248,14 +4259,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="74"/>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4272,14 +4283,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4296,11 +4307,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4310,7 +4321,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G14" s="19">
         <v>43883</v>
@@ -4326,9 +4337,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4336,7 +4347,7 @@
         <v>38</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G15" s="19">
         <v>43883</v>
@@ -4346,11 +4357,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4360,7 +4371,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G16" s="19">
         <v>43883</v>
@@ -4376,9 +4387,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4386,7 +4397,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G17" s="19">
         <v>43883</v>
@@ -4396,11 +4407,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4410,7 +4421,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G18" s="19">
         <v>43883</v>
@@ -4426,9 +4437,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="61"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4436,7 +4447,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G19" s="19">
         <v>43883</v>
@@ -4446,11 +4457,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4460,7 +4471,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G20" s="19">
         <v>43883</v>
@@ -4476,9 +4487,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4486,7 +4497,7 @@
         <v>38</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G21" s="19">
         <v>43883</v>
@@ -4496,19 +4507,19 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G22" s="19">
         <v>43883</v>
@@ -4524,17 +4535,17 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G23" s="19">
         <v>43883</v>
@@ -4550,19 +4561,19 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G24" s="19">
         <v>43883</v>
@@ -4578,17 +4589,17 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G25" s="19">
         <v>43883</v>
@@ -4605,16 +4616,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4631,6 +4632,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4640,10 +4651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4659,7 +4670,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="77" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -4684,20 +4695,20 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96"/>
-      <c r="B2" s="85" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
       <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H2" s="11">
         <v>43886</v>
@@ -4705,18 +4716,18 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H3" s="11">
         <v>43886</v>
@@ -4724,20 +4735,20 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="96"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="8" t="s">
         <v>137</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H4" s="11">
         <v>43886</v>
@@ -4745,22 +4756,22 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="96"/>
-      <c r="B5" s="81" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="102" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H5" s="11">
         <v>43886</v>
@@ -4768,18 +4779,18 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="96"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="90" t="s">
+      <c r="A6" s="78"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H6" s="11">
         <v>43886</v>
@@ -4787,20 +4798,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="96"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="92"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="H7" s="11">
         <v>43886</v>
@@ -4808,157 +4819,143 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="96"/>
-      <c r="B8" s="101" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="11"/>
+      <c r="G8" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="11">
+        <v>43892</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="96"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="77" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="11"/>
+      <c r="G9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="11">
+        <v>43892</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="96"/>
-      <c r="B10" s="45" t="s">
+    <row r="10" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="78"/>
+      <c r="B10" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="78"/>
+      <c r="D10" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="88"/>
       <c r="F10" s="13" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="11"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="96"/>
-      <c r="B11" s="81" t="s">
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="78"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="78"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="78"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="78"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="78"/>
+      <c r="B15" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C15" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D15" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="13" t="s">
+      <c r="E15" s="88"/>
+      <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="96"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="96"/>
-      <c r="B13" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="96"/>
-      <c r="B14" s="81" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="96"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="14" t="s">
-        <v>161</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H15" s="11">
         <v>43886</v>
@@ -4966,20 +4963,18 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="96"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="14" t="s">
-        <v>162</v>
+      <c r="A16" s="78"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="93" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="88"/>
+      <c r="F16" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="H16" s="11">
         <v>43886</v>
@@ -4987,20 +4982,20 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="96"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="78"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="93"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H17" s="11">
         <v>43886</v>
@@ -5008,20 +5003,22 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="96"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="96" t="s">
+        <v>150</v>
+      </c>
       <c r="C18" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="78"/>
+        <v>151</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" s="88"/>
       <c r="F18" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H18" s="11">
         <v>43886</v>
@@ -5029,381 +5026,489 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="96"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>167</v>
-      </c>
+      <c r="A19" s="78"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="88"/>
       <c r="F19" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="11">
+        <v>43886</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="96"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="41" t="s">
-        <v>168</v>
-      </c>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="78"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="85" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="88"/>
       <c r="F20" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H20" s="11">
+        <v>43886</v>
+      </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="96"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="78"/>
+    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="78"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="88"/>
       <c r="F21" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="11"/>
+        <v>240</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H21" s="11">
+        <v>43886</v>
+      </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="96"/>
-      <c r="B22" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="11"/>
+    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="78"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="88"/>
+      <c r="F22" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" s="11">
+        <v>43886</v>
+      </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="96"/>
-      <c r="B23" s="81" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="12" t="s">
-        <v>172</v>
+    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="78"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E23" s="88"/>
+      <c r="F23" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="H23" s="11">
         <v>43886</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="96"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="11"/>
+    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="78"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="88"/>
+      <c r="F24" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="11">
+        <v>43886</v>
+      </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="96"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="79" t="s">
-        <v>195</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>236</v>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="78"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E25" s="88"/>
+      <c r="F25" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H25" s="11">
         <v>43886</v>
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="96"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="46" t="s">
+    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="78"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="H26" s="11">
+        <v>43892</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="78"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="11">
+        <v>43893</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="78"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="88"/>
+      <c r="F28" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="11">
         <v>43886</v>
       </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="96"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E27" s="78"/>
-      <c r="F27" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="96"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="96"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="78"/>
+    <row r="29" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="78"/>
+      <c r="B29" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="93"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="11"/>
+        <v>237</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="11">
+        <v>43886</v>
+      </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="96"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11"/>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="78"/>
+      <c r="B30" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H30" s="11">
+        <v>43886</v>
+      </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="96"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="11"/>
+    <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="78"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" s="88"/>
+      <c r="F31" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" s="11">
+        <v>43886</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="96"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11"/>
+    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="78"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" s="11">
+        <v>43886</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="96"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="79" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="12" t="s">
-        <v>234</v>
+    <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="78"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H33" s="11">
         <v>43886</v>
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="96"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="13" t="s">
-        <v>194</v>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="78"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E34" s="88"/>
+      <c r="F34" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H34" s="11">
         <v>43886</v>
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="97"/>
-      <c r="B35" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="99"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="7" t="s">
-        <v>187</v>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="78"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E35" s="88"/>
+      <c r="F35" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H35" s="11">
         <v>43886</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+    <row r="36" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="78"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="88"/>
+      <c r="F36" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="11">
+        <v>43886</v>
+      </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+    <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="78"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="88"/>
+      <c r="F37" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" s="11">
+        <v>43886</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="78"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="88"/>
+      <c r="F38" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H38" s="11">
+        <v>43886</v>
+      </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="78"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="88"/>
+      <c r="F39" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H39" s="11">
+        <v>43886</v>
+      </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="78"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="88"/>
+      <c r="F40" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" s="11">
+        <v>43886</v>
+      </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+    <row r="41" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="78"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="88"/>
+      <c r="F41" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H41" s="11">
+        <v>43886</v>
+      </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+    <row r="42" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="79"/>
+      <c r="B42" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="81"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H42" s="11">
+        <v>43886</v>
+      </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -5605,126 +5710,215 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B61" s="17"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B62" s="17"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B63" s="17"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
       <c r="E63" s="17"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B64" s="17"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="17"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="17"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="15"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="17"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="15"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A1:A35"/>
-    <mergeCell ref="C35:E35"/>
+  <mergeCells count="59">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A1:A42"/>
+    <mergeCell ref="C42:E42"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B23:B34"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5780,15 +5974,15 @@
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -5800,15 +5994,15 @@
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -5817,18 +6011,18 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -5837,16 +6031,16 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="104"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="90" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -5858,15 +6052,15 @@
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -5878,15 +6072,15 @@
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="93"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -5898,15 +6092,15 @@
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="93"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -5915,10 +6109,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="104"/>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="85" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -5928,7 +6122,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -5938,7 +6132,7 @@
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -5946,7 +6140,7 @@
         <v>115</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -5956,7 +6150,7 @@
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="104"/>
       <c r="B11" s="105"/>
-      <c r="C11" s="103"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -5964,7 +6158,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -5974,7 +6168,7 @@
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -5982,7 +6176,7 @@
         <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -5991,8 +6185,8 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="104"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -6000,7 +6194,7 @@
         <v>110</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -6009,20 +6203,20 @@
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="104"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="85" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -6032,15 +6226,15 @@
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="104"/>
       <c r="B15" s="105"/>
-      <c r="C15" s="103"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -6049,16 +6243,16 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="104"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="80"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="48" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G16" s="11">
         <v>43886</v>
@@ -6067,18 +6261,18 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="104"/>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="93"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G17" s="11">
         <v>43886</v>
@@ -6087,16 +6281,16 @@
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="104"/>
-      <c r="B18" s="102"/>
-      <c r="C18" s="77" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="93"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G18" s="11">
         <v>43886</v>
@@ -6496,15 +6690,15 @@
       <c r="B2" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -6514,15 +6708,15 @@
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="104"/>
       <c r="B3" s="107"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -6534,15 +6728,15 @@
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="88"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -6554,15 +6748,15 @@
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="91"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -6574,15 +6768,15 @@
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="91"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -6591,10 +6785,10 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="104"/>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="85" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -6604,7 +6798,7 @@
         <v>118</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -6614,7 +6808,7 @@
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="104"/>
       <c r="B8" s="105"/>
-      <c r="C8" s="103"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -6622,7 +6816,7 @@
         <v>119</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -6632,7 +6826,7 @@
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="104"/>
       <c r="B9" s="105"/>
-      <c r="C9" s="103"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -6640,7 +6834,7 @@
         <v>121</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -6650,15 +6844,15 @@
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="104"/>
       <c r="B10" s="105"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -6667,10 +6861,10 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="104"/>
-      <c r="B11" s="101" t="s">
+      <c r="B11" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="85" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -6680,7 +6874,7 @@
         <v>126</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -6690,7 +6884,7 @@
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="104"/>
       <c r="B12" s="105"/>
-      <c r="C12" s="103"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -6698,7 +6892,7 @@
         <v>128</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -6707,8 +6901,8 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="104"/>
-      <c r="B13" s="102"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -6716,7 +6910,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -6725,18 +6919,18 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="104"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="93"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -6745,16 +6939,16 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="104"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="77" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="93"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -7152,15 +7346,15 @@
       <c r="B2" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7170,15 +7364,15 @@
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="104"/>
       <c r="B3" s="107"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7187,20 +7381,20 @@
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="104"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="83" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="108" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>223</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>226</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -7209,16 +7403,16 @@
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="104"/>
-      <c r="B5" s="102"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="109"/>
       <c r="D5" s="51" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -7580,7 +7774,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7608,7 +7802,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -7619,7 +7813,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F2" s="19">
         <v>43886</v>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="256">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2984,15 +2984,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・常勤換算式 ： 4週合計時間 / 157　(小数第三位以下切り捨て)
-・形態が「常勤専従」の場合は常勤換算を1.00とする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・勤務4週合計時間（小数第三位以下切り捨て）を表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>下８行</t>
     <rPh sb="0" eb="1">
       <t>シタ</t>
@@ -3003,15 +2994,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・数値、または定数マスタの24種類勤務名の場合カウントする</t>
+    <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
+・それぞれ職種名に一致する数をカウントする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・常勤換算式 ： 4週合計時間 / 157　(小数第三位切り捨て)
+・形態が「常勤専従」の場合は常勤換算を1.00とする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤務4週合計時間（小数第二位切り捨て）を表示</t>
+    <rPh sb="13" eb="14">
+      <t>２</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・数値、または定数マスタの23種類勤務名(振替以外)の場合カウントする</t>
+    <rPh sb="21" eb="23">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">・各行に常勤換算、月合計、総勤日数が表示されること
 ・共通仕様
 　　集計対象は4週(1日～28日の勤務)
-　　勤務時間は定数マスタを参照、入力が数値の場合は入力値を使用
-　　「有休」は「日勤」扱いでカウント
+　　勤務時間
+　　　定数マスタを参照
+　　　入力が数値の場合は入力値を使用
+　　　「有休」は「日勤」扱いで計算
 　　常勤換算、月合計、総勤日数が0の場合は表示しない
 </t>
     <rPh sb="1" eb="2">
@@ -3056,11 +3072,12 @@
     <rPh sb="36" eb="38">
       <t>タイショウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
-・それぞれ職種名に一致する数をカウントする</t>
+    <rPh sb="103" eb="104">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケイサン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3462,22 +3479,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3489,53 +3548,77 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3555,74 +3638,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3956,7 +3973,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3987,17 +4004,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68"/>
-      <c r="B2" s="54" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="52" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4018,13 +4035,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="6" t="s">
         <v>198</v>
       </c>
@@ -4043,13 +4060,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="6" t="s">
         <v>198</v>
       </c>
@@ -4068,9 +4085,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="66"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4095,12 +4112,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="59" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="60"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4118,14 +4135,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="63"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -4147,11 +4164,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="70" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="62" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4177,9 +4194,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="57"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4203,11 +4220,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4233,9 +4250,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="57"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -4259,14 +4276,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="74"/>
+      <c r="D12" s="69"/>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4283,14 +4300,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="71"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4307,11 +4324,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4337,9 +4354,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4357,11 +4374,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4387,9 +4404,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4407,11 +4424,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4437,9 +4454,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="61"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4457,11 +4474,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="59"/>
+      <c r="B20" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="55" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4487,9 +4504,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="61"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4507,14 +4524,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="53"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4535,12 +4552,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="68"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="52" t="s">
+      <c r="A23" s="59"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="53"/>
+      <c r="D23" s="67"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -4561,14 +4578,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -4589,12 +4606,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="52" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="53"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -4616,6 +4633,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4632,16 +4659,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4653,7 +4670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A42"/>
     </sheetView>
   </sheetViews>
@@ -4670,7 +4687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="99" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -4695,15 +4712,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78"/>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
@@ -4716,13 +4733,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="90" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
@@ -4735,15 +4752,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="8" t="s">
         <v>137</v>
       </c>
@@ -4756,17 +4773,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="96" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="100"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
@@ -4779,13 +4796,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="98" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="100"/>
+      <c r="E6" s="96"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
@@ -4798,15 +4815,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
@@ -4819,17 +4836,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="83" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="78"/>
       <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
@@ -4842,13 +4859,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="78"/>
       <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
@@ -4861,96 +4878,100 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
-      <c r="B10" s="83" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="11"/>
+        <v>255</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" s="11">
+        <v>43893</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="87" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="78"/>
       <c r="F11" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="11"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="87" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="77" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="11"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="87" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="77" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="88"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="11"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="88"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="78"/>
       <c r="F14" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="11"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="78"/>
-      <c r="B15" s="96" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="78"/>
       <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
@@ -4963,13 +4984,13 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="78"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="93" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="88"/>
+      <c r="E16" s="78"/>
       <c r="F16" s="13" t="s">
         <v>148</v>
       </c>
@@ -4982,15 +5003,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="78"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="78"/>
       <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
@@ -5003,17 +5024,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="78"/>
-      <c r="B18" s="96" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="85" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="D18" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="88"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
@@ -5026,15 +5047,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="78"/>
-      <c r="B19" s="97"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="88"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="14" t="s">
         <v>161</v>
       </c>
@@ -5047,15 +5068,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="78"/>
-      <c r="B20" s="97"/>
-      <c r="C20" s="85" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="88"/>
+      <c r="E20" s="78"/>
       <c r="F20" s="14" t="s">
         <v>162</v>
       </c>
@@ -5068,13 +5089,13 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="78"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="88"/>
+      <c r="E21" s="78"/>
       <c r="F21" s="14" t="s">
         <v>240</v>
       </c>
@@ -5087,15 +5108,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="78"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="85" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="88"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="14" t="s">
         <v>163</v>
       </c>
@@ -5108,13 +5129,13 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="78"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87" t="s">
+      <c r="A23" s="100"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="78"/>
       <c r="F23" s="14" t="s">
         <v>241</v>
       </c>
@@ -5127,15 +5148,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="78"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="85" t="s">
+      <c r="A24" s="100"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="88"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="14" t="s">
         <v>163</v>
       </c>
@@ -5148,13 +5169,13 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="78"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87" t="s">
+      <c r="A25" s="100"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="78"/>
       <c r="F25" s="14" t="s">
         <v>242</v>
       </c>
@@ -5167,12 +5188,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="78"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="85" t="s">
+      <c r="A26" s="100"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="82" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -5190,10 +5211,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="78"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="41" t="s">
         <v>168</v>
       </c>
@@ -5209,15 +5230,15 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="78"/>
-      <c r="B28" s="101"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="93" t="s">
+      <c r="D28" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="88"/>
+      <c r="E28" s="78"/>
       <c r="F28" s="14" t="s">
         <v>164</v>
       </c>
@@ -5230,15 +5251,15 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="78"/>
+      <c r="A29" s="100"/>
       <c r="B29" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C29" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="13" t="s">
         <v>237</v>
       </c>
@@ -5251,17 +5272,17 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="78"/>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="100"/>
+      <c r="B30" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="12" t="s">
         <v>170</v>
       </c>
@@ -5274,13 +5295,13 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87" t="s">
+      <c r="A31" s="100"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="13" t="s">
         <v>171</v>
       </c>
@@ -5293,12 +5314,12 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="85" t="s">
+      <c r="A32" s="100"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="85" t="s">
+      <c r="D32" s="82" t="s">
         <v>194</v>
       </c>
       <c r="E32" s="46" t="s">
@@ -5316,10 +5337,10 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="46" t="s">
         <v>196</v>
       </c>
@@ -5335,15 +5356,15 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="85" t="s">
+      <c r="A34" s="100"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="88"/>
+      <c r="E34" s="78"/>
       <c r="F34" s="12" t="s">
         <v>178</v>
       </c>
@@ -5356,13 +5377,13 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="87" t="s">
+      <c r="A35" s="100"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="E35" s="88"/>
+      <c r="E35" s="78"/>
       <c r="F35" s="12" t="s">
         <v>179</v>
       </c>
@@ -5375,13 +5396,13 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="87" t="s">
+      <c r="A36" s="100"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="E36" s="88"/>
+      <c r="E36" s="78"/>
       <c r="F36" s="13" t="s">
         <v>180</v>
       </c>
@@ -5394,13 +5415,13 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="78"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="87" t="s">
+      <c r="A37" s="100"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="13" t="s">
         <v>186</v>
       </c>
@@ -5413,13 +5434,13 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="78"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="87" t="s">
+      <c r="A38" s="100"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="78"/>
       <c r="F38" s="12" t="s">
         <v>177</v>
       </c>
@@ -5432,13 +5453,13 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="78"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="87" t="s">
+      <c r="A39" s="100"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="E39" s="88"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="12" t="s">
         <v>181</v>
       </c>
@@ -5451,15 +5472,15 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="78"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="85" t="s">
+      <c r="A40" s="100"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="D40" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="88"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="12" t="s">
         <v>231</v>
       </c>
@@ -5472,13 +5493,13 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="78"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87" t="s">
+      <c r="A41" s="100"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="88"/>
+      <c r="E41" s="78"/>
       <c r="F41" s="13" t="s">
         <v>192</v>
       </c>
@@ -5491,15 +5512,15 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="79"/>
+      <c r="A42" s="101"/>
       <c r="B42" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="C42" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="D42" s="81"/>
-      <c r="E42" s="82"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
       <c r="F42" s="7" t="s">
         <v>185</v>
       </c>
@@ -5860,27 +5881,28 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A1:A42"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B30:B41"/>
     <mergeCell ref="C2:E2"/>
@@ -5897,28 +5919,27 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A1:A42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="B18:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5946,7 +5967,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5970,14 +5991,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -5990,14 +6011,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -6010,14 +6031,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -6030,12 +6051,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="98" t="s">
+      <c r="A5" s="105"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -6048,14 +6069,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -6068,14 +6089,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="93"/>
+      <c r="D7" s="88"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -6088,14 +6109,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="93"/>
+      <c r="D8" s="88"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -6108,11 +6129,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
-      <c r="B9" s="83" t="s">
+      <c r="A9" s="105"/>
+      <c r="B9" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="82" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6130,9 +6151,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="89"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -6148,9 +6169,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="89"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="83"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -6166,9 +6187,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="89"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -6184,9 +6205,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -6202,11 +6223,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="105"/>
+      <c r="B14" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="82" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -6224,9 +6245,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="89"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="48" t="s">
         <v>209</v>
       </c>
@@ -6242,9 +6263,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="86"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
@@ -6260,14 +6281,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="104"/>
-      <c r="B17" s="83" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -6280,12 +6301,12 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="104"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="87" t="s">
+      <c r="A18" s="105"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -6662,7 +6683,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6686,14 +6707,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
@@ -6706,12 +6727,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="107"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -6724,14 +6745,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
@@ -6744,14 +6765,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -6764,14 +6785,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -6784,11 +6805,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
-      <c r="B7" s="83" t="s">
+      <c r="A7" s="105"/>
+      <c r="B7" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="82" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -6806,9 +6827,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="89"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -6824,9 +6845,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="89"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -6842,9 +6863,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="89"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -6860,11 +6881,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="83" t="s">
+      <c r="A11" s="105"/>
+      <c r="B11" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="82" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -6882,9 +6903,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="89"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -6900,9 +6921,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="86"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -6918,14 +6939,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="105"/>
+      <c r="B14" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="93"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -6938,12 +6959,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="87" t="s">
+      <c r="A15" s="105"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="93"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -7318,7 +7339,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7342,14 +7363,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104"/>
+      <c r="A2" s="105"/>
       <c r="B2" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="91"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
@@ -7362,12 +7383,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="107"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
@@ -7380,8 +7401,8 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
-      <c r="B4" s="83" t="s">
+      <c r="A4" s="105"/>
+      <c r="B4" s="79" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="108" t="s">
@@ -7402,8 +7423,8 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="84"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="109"/>
       <c r="D5" s="51" t="s">
         <v>221</v>
@@ -7774,7 +7795,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7802,7 +7823,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
+      <c r="A2" s="60"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="271">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2999,18 +2999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・常勤換算式 ： 4週合計時間 / 157　(小数第三位切り捨て)
-・形態が「常勤専従」の場合は常勤換算を1.00とする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・勤務4週合計時間（小数第二位切り捨て）を表示</t>
-    <rPh sb="13" eb="14">
-      <t>２</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・数値、または定数マスタの23種類勤務名(振替以外)の場合カウントする</t>
     <rPh sb="21" eb="23">
       <t>フリカエ</t>
@@ -3021,15 +3009,130 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">・各行に常勤換算、月合計、総勤日数が表示されること
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・勤務4週合計時間（小数第一位まで）を表示
+・変更行は表示されないこと</t>
+    <rPh sb="13" eb="14">
+      <t>１</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷仕様</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4→A4(NC)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>常勤換算式 ： 4週合計時間 / 157　(小数第三位切り捨て)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+・形態が「常勤専従」の場合は常勤換算を1.00とする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・各行に常勤換算、月合計、総勤日数が表示されること
 ・共通仕様
-　　集計対象は4週(1日～28日の勤務)
+　　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>集計対象は4週(1日～28日の勤務)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 　　勤務時間
 　　　定数マスタを参照
 　　　入力が数値の場合は入力値を使用
 　　　「有休」は「日勤」扱いで計算
 　　常勤換算、月合計、総勤日数が0の場合は表示しない
 </t>
+    </r>
     <rPh sb="1" eb="2">
       <t>カク</t>
     </rPh>
@@ -3077,6 +3180,206 @@
     </rPh>
     <rPh sb="106" eb="108">
       <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・予定ラジオボタン選択時、勤務予定データのみ印刷されること
+・実績ラジオボタン選択時、勤務変更データのみ印刷されること
+・予定/実績ラジオボタン選択時、勤務予定データと変更データが印刷されること（予定と変更が同じ場合は変更行は空白）</t>
+    <rPh sb="1" eb="3">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがA4であること
+・形態、職種、氏名、勤務が印刷されること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがB4であること
+・形態、職種、氏名、勤務、常勤換算、月合計（予定のみ）が印刷されること
+・勤務別集計、職種集計が印刷されること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがA4であること
+・印刷内容が「B4」選択時と同様であること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4→A4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがA4であること
+・形態、職種、氏名、勤務が印刷されること
+・勤務別集計、職種集計が印刷されること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3085,7 +3388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3152,6 +3455,22 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3322,7 +3641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3479,6 +3798,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3488,15 +3846,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3509,24 +3858,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3539,20 +3876,38 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3560,83 +3915,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -3973,7 +4295,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4004,17 +4326,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="65" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="65" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4035,13 +4357,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="59"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="53"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="6" t="s">
         <v>198</v>
       </c>
@@ -4060,13 +4382,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="59"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="6" t="s">
         <v>198</v>
       </c>
@@ -4085,9 +4407,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="54"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4112,12 +4434,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="73" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="74"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4135,14 +4457,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -4164,11 +4486,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4194,9 +4516,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4220,11 +4542,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="59"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4250,9 +4572,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="63"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -4276,14 +4598,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="69"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4300,14 +4622,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="71"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4324,11 +4646,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="59"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4354,9 +4676,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="59"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4374,11 +4696,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="59"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4404,9 +4726,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="59"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4424,11 +4746,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="59"/>
-      <c r="B18" s="56" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4454,9 +4776,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="59"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4474,11 +4796,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="59"/>
-      <c r="B20" s="56" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4504,9 +4826,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4524,14 +4846,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="64" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="67"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4552,12 +4874,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="59"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -4578,14 +4900,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="64" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="67"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -4606,12 +4928,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="60"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="66" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="67"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -4633,16 +4955,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4659,6 +4971,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4668,10 +4990,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4687,7 +5009,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="81" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -4712,8 +5034,8 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="95" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="91" t="s">
@@ -4733,8 +5055,8 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100"/>
-      <c r="B3" s="90"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="91" t="s">
         <v>88</v>
       </c>
@@ -4752,7 +5074,7 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
@@ -4773,17 +5095,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100"/>
-      <c r="B5" s="85" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="96"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
@@ -4796,13 +5118,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="94" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="96"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
@@ -4815,15 +5137,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="100"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
@@ -4836,17 +5158,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="100"/>
-      <c r="B8" s="79" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
@@ -4859,13 +5181,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="100"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="77" t="s">
+      <c r="A9" s="82"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="78"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
@@ -4878,22 +5200,22 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="100"/>
-      <c r="B10" s="79" t="s">
+      <c r="A10" s="82"/>
+      <c r="B10" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="78"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="13" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
       <c r="H10" s="11">
         <v>43893</v>
@@ -4901,58 +5223,70 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="100"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="77" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="78"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="11">
+        <v>43893</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="82"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="90"/>
+      <c r="F12" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H12" s="11">
+        <v>43893</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="82"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="100"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="77" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="78"/>
-      <c r="F12" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="100"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="78"/>
-      <c r="F13" s="13" t="s">
+      <c r="G13" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="11">
+        <v>43893</v>
+      </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="100"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="77" t="s">
+      <c r="A14" s="82"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="78"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="13" t="s">
         <v>251</v>
       </c>
@@ -4961,17 +5295,17 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="100"/>
-      <c r="B15" s="85" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="78"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
@@ -4984,13 +5318,13 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="100"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="88" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="78"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="13" t="s">
         <v>148</v>
       </c>
@@ -5003,15 +5337,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="100"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
@@ -5024,17 +5358,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="100"/>
-      <c r="B18" s="85" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="77" t="s">
+      <c r="D18" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
@@ -5047,15 +5381,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="100"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="78"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="14" t="s">
         <v>161</v>
       </c>
@@ -5068,15 +5402,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="100"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="82" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="14" t="s">
         <v>162</v>
       </c>
@@ -5089,13 +5423,13 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="100"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="77" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="14" t="s">
         <v>240</v>
       </c>
@@ -5108,15 +5442,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="100"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="82" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="78"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="14" t="s">
         <v>163</v>
       </c>
@@ -5129,13 +5463,13 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="100"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="77" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="78"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="14" t="s">
         <v>241</v>
       </c>
@@ -5148,15 +5482,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="100"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="82" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="77" t="s">
+      <c r="D24" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="78"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="14" t="s">
         <v>163</v>
       </c>
@@ -5169,13 +5503,13 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="100"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="77" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="78"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="14" t="s">
         <v>242</v>
       </c>
@@ -5188,12 +5522,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="100"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="78" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -5211,10 +5545,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="100"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="41" t="s">
         <v>168</v>
       </c>
@@ -5229,147 +5563,119 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="100"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="42" t="s">
+    <row r="28" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="82"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="82"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="82"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="82"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="82"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="82"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D33" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="E28" s="78"/>
-      <c r="F28" s="14" t="s">
+      <c r="E33" s="90"/>
+      <c r="F33" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G33" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="H28" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="100"/>
-      <c r="B29" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="88"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H29" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="100"/>
-      <c r="B30" s="85" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="82" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H30" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="100"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="100"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H32" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="100"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H33" s="11">
         <v>43886</v>
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="100"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="12" t="s">
-        <v>178</v>
+    <row r="34" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="82"/>
+      <c r="B34" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="94"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H34" s="11">
         <v>43886</v>
@@ -5377,75 +5683,83 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="100"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" s="78"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="90"/>
       <c r="F35" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H35" s="11">
         <v>43886</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="100"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="E36" s="78"/>
+    <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="82"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="89" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="90"/>
       <c r="F36" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="H36" s="11">
         <v>43886</v>
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="100"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="77" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="78"/>
+    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="82"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="F37" s="13" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H37" s="11">
         <v>43886</v>
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="100"/>
-      <c r="B38" s="86"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="12" t="s">
-        <v>177</v>
+    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="82"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H38" s="11">
         <v>43886</v>
@@ -5453,18 +5767,20 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="100"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="77" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="78"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="90"/>
       <c r="F39" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H39" s="11">
         <v>43886</v>
@@ -5472,119 +5788,159 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="100"/>
-      <c r="B40" s="86"/>
-      <c r="C40" s="82" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="78"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="E40" s="90"/>
       <c r="F40" s="12" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H40" s="11">
         <v>43886</v>
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="100"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="78"/>
+    <row r="41" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="82"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" s="90"/>
       <c r="F41" s="13" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H41" s="11">
         <v>43886</v>
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="101"/>
-      <c r="B42" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C42" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="7" t="s">
-        <v>185</v>
+    <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="82"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="90"/>
+      <c r="F42" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H42" s="11">
         <v>43886</v>
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="82"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" s="11">
+        <v>43886</v>
+      </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="82"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H44" s="11">
+        <v>43886</v>
+      </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="82"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="90"/>
+      <c r="F45" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" s="11">
+        <v>43886</v>
+      </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+    <row r="46" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="82"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="90"/>
+      <c r="F46" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H46" s="11">
+        <v>43886</v>
+      </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+    <row r="47" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="83"/>
+      <c r="B47" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="11">
+        <v>43886</v>
+      </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -5808,34 +6164,59 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="17"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B69" s="17"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="17"/>
       <c r="D69" s="17"/>
       <c r="E69" s="17"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="17"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B71" s="17"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="17"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B72" s="17"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B73" s="17"/>
@@ -5879,38 +6260,63 @@
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
     </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A1:A42"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D36:E36"/>
+  <mergeCells count="60">
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B30:B41"/>
+    <mergeCell ref="B35:B46"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:E5"/>
@@ -5918,28 +6324,34 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="B18:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5967,7 +6379,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -5991,7 +6403,7 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
@@ -6011,7 +6423,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
@@ -6031,14 +6443,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -6051,12 +6463,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -6069,14 +6481,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -6089,14 +6501,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="88"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -6109,14 +6521,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="88"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -6129,11 +6541,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="79" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="78" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6151,9 +6563,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -6169,9 +6581,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="105"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -6187,9 +6599,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="105"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -6205,9 +6617,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="105"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -6223,11 +6635,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="105"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -6245,9 +6657,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="105"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="83"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="48" t="s">
         <v>209</v>
       </c>
@@ -6263,9 +6675,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="105"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="84"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
@@ -6281,14 +6693,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="105"/>
-      <c r="B17" s="79" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="88"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -6301,12 +6713,12 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="105"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="77" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -6683,7 +7095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6707,8 +7119,8 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107" t="s">
         <v>71</v>
       </c>
       <c r="C2" s="91" t="s">
@@ -6727,8 +7139,8 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="91" t="s">
         <v>77</v>
       </c>
@@ -6745,7 +7157,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
@@ -6765,14 +7177,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="95"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -6785,14 +7197,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="105"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -6805,11 +7217,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="105"/>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="78" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -6827,9 +7239,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="105"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -6845,9 +7257,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="105"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -6863,9 +7275,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="105"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -6881,11 +7293,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="105"/>
-      <c r="B11" s="79" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="78" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -6903,9 +7315,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="105"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -6921,9 +7333,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="105"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -6939,14 +7351,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="105"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -6959,12 +7371,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="105"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="77" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="88"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -7339,7 +7751,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7363,8 +7775,8 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="106" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="91" t="s">
@@ -7383,8 +7795,8 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="107"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="108"/>
       <c r="C3" s="91" t="s">
         <v>13</v>
       </c>
@@ -7401,11 +7813,11 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="105"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="109" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -7423,9 +7835,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="105"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="109"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="51" t="s">
         <v>221</v>
       </c>
@@ -7795,7 +8207,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -7823,7 +8235,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="274">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2994,11 +2994,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
-・それぞれ職種名に一致する数をカウントする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・数値、または定数マスタの23種類勤務名(振替以外)の場合カウントする</t>
     <rPh sb="21" eb="23">
       <t>フリカエ</t>
@@ -3006,10 +3001,6 @@
     <rPh sb="23" eb="25">
       <t>イガイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3380,6 +3371,51 @@
 ・勤務別集計、職種集計が印刷されること</t>
     <rPh sb="1" eb="3">
       <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
+・それぞれ職種名毎に、定数マスタの24種類勤務名の場合カウントする（数値の場合はカウントしない）</t>
+    <rPh sb="56" eb="57">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3801,22 +3837,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3828,53 +3906,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -3885,6 +3930,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -3902,63 +3995,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -4295,7 +4331,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4326,17 +4362,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="53" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="53" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4357,13 +4393,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="6" t="s">
         <v>198</v>
       </c>
@@ -4382,13 +4418,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="67"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="6" t="s">
         <v>198</v>
       </c>
@@ -4407,9 +4443,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4434,12 +4470,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="60" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4457,14 +4493,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -4486,11 +4522,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4516,9 +4552,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4542,11 +4578,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="63" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4572,9 +4608,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -4598,14 +4634,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4622,14 +4658,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4646,11 +4682,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="60"/>
+      <c r="B14" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4676,9 +4712,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4696,11 +4732,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -4726,9 +4762,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -4746,11 +4782,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -4776,9 +4812,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -4796,11 +4832,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="56" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -4826,9 +4862,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -4846,14 +4882,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -4874,12 +4910,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -4900,14 +4936,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -4928,12 +4964,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -4955,6 +4991,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -4971,16 +5017,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4992,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A47"/>
     </sheetView>
   </sheetViews>
@@ -5002,14 +5038,14 @@
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="27.375" customWidth="1"/>
-    <col min="6" max="6" width="74.125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="77.875" customWidth="1"/>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="100" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5034,15 +5070,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
@@ -5055,13 +5091,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="91" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
@@ -5074,15 +5110,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="8" t="s">
         <v>137</v>
       </c>
@@ -5095,17 +5131,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
@@ -5118,13 +5154,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="99" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="97"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
@@ -5137,15 +5173,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
@@ -5158,17 +5194,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="90"/>
+      <c r="E8" s="85"/>
       <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
@@ -5181,13 +5217,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="89" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
@@ -5200,22 +5236,22 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="84" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H10" s="11">
         <v>43893</v>
@@ -5223,18 +5259,18 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="89" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H11" s="11">
         <v>43893</v>
@@ -5242,18 +5278,18 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="89" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H12" s="11">
         <v>43893</v>
@@ -5261,18 +5297,18 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="89" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="H13" s="11">
         <v>43893</v>
@@ -5280,32 +5316,36 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="89" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84" t="s">
         <v>250</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
+        <v>273</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="11">
+        <v>43894</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="89" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
@@ -5318,13 +5358,13 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="94" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="13" t="s">
         <v>148</v>
       </c>
@@ -5337,15 +5377,15 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
@@ -5358,17 +5398,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="101"/>
+      <c r="B18" s="86" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
@@ -5381,15 +5421,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="14" t="s">
         <v>161</v>
       </c>
@@ -5402,15 +5442,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="82"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="78" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="14" t="s">
         <v>162</v>
       </c>
@@ -5423,13 +5463,13 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="89" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="90"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="14" t="s">
         <v>240</v>
       </c>
@@ -5442,15 +5482,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="78" t="s">
+      <c r="A22" s="101"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="90"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="14" t="s">
         <v>163</v>
       </c>
@@ -5463,13 +5503,13 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="89" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="14" t="s">
         <v>241</v>
       </c>
@@ -5482,15 +5522,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="78" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="90"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="14" t="s">
         <v>163</v>
       </c>
@@ -5503,13 +5543,13 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="82"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="89" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="90"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="14" t="s">
         <v>242</v>
       </c>
@@ -5522,12 +5562,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="82"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="78" t="s">
+      <c r="A26" s="101"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="81" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -5545,10 +5585,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="41" t="s">
         <v>168</v>
       </c>
@@ -5556,7 +5596,7 @@
         <v>238</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>198</v>
+        <v>269</v>
       </c>
       <c r="H27" s="11">
         <v>43893</v>
@@ -5564,92 +5604,100 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="78" t="s">
-        <v>256</v>
+      <c r="A28" s="101"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="81" t="s">
+        <v>254</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F28" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H28" s="11">
+        <v>43894</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="101"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="11">
+        <v>43894</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="101"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>265</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>267</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="82"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D33" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="90"/>
+      <c r="E33" s="85"/>
       <c r="F33" s="14" t="s">
         <v>164</v>
       </c>
@@ -5662,15 +5710,15 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="C34" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="90"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="85"/>
       <c r="F34" s="13" t="s">
         <v>237</v>
       </c>
@@ -5683,17 +5731,17 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
-      <c r="B35" s="97" t="s">
+      <c r="A35" s="101"/>
+      <c r="B35" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="90"/>
+      <c r="E35" s="85"/>
       <c r="F35" s="12" t="s">
         <v>170</v>
       </c>
@@ -5706,13 +5754,13 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="82"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="89" t="s">
+      <c r="A36" s="101"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="90"/>
+      <c r="E36" s="85"/>
       <c r="F36" s="13" t="s">
         <v>171</v>
       </c>
@@ -5725,12 +5773,12 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="82"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="78" t="s">
+      <c r="A37" s="101"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="81" t="s">
         <v>194</v>
       </c>
       <c r="E37" s="46" t="s">
@@ -5748,10 +5796,10 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="82"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="46" t="s">
         <v>196</v>
       </c>
@@ -5767,15 +5815,15 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="78" t="s">
+      <c r="A39" s="101"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="90"/>
+      <c r="E39" s="85"/>
       <c r="F39" s="12" t="s">
         <v>178</v>
       </c>
@@ -5788,13 +5836,13 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="89" t="s">
+      <c r="A40" s="101"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="84" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="90"/>
+      <c r="E40" s="85"/>
       <c r="F40" s="12" t="s">
         <v>179</v>
       </c>
@@ -5807,13 +5855,13 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="89" t="s">
+      <c r="A41" s="101"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="84" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="90"/>
+      <c r="E41" s="85"/>
       <c r="F41" s="13" t="s">
         <v>180</v>
       </c>
@@ -5826,13 +5874,13 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="82"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="89" t="s">
+      <c r="A42" s="101"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="90"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="13" t="s">
         <v>186</v>
       </c>
@@ -5845,13 +5893,13 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="89" t="s">
+      <c r="A43" s="101"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="90"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="12" t="s">
         <v>177</v>
       </c>
@@ -5864,13 +5912,13 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="89" t="s">
+      <c r="A44" s="101"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="84" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="90"/>
+      <c r="E44" s="85"/>
       <c r="F44" s="12" t="s">
         <v>181</v>
       </c>
@@ -5883,15 +5931,15 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="82"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="78" t="s">
+      <c r="A45" s="101"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="D45" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="90"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="12" t="s">
         <v>231</v>
       </c>
@@ -5904,13 +5952,13 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="82"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="89" t="s">
+      <c r="A46" s="101"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="90"/>
+      <c r="E46" s="85"/>
       <c r="F46" s="13" t="s">
         <v>192</v>
       </c>
@@ -5923,15 +5971,15 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="83"/>
+      <c r="A47" s="102"/>
       <c r="B47" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="103" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="7" t="s">
         <v>185</v>
       </c>
@@ -6292,6 +6340,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A1:A47"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -6308,50 +6400,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D44:E44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6407,10 +6455,10 @@
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -6427,10 +6475,10 @@
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -6444,13 +6492,13 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="106"/>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -6464,11 +6512,11 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="106"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="99" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -6485,10 +6533,10 @@
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -6505,10 +6553,10 @@
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="94"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -6525,10 +6573,10 @@
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="94"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -6542,10 +6590,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="106"/>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="81" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6564,8 +6612,8 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -6582,8 +6630,8 @@
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="106"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -6600,8 +6648,8 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="106"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -6618,8 +6666,8 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="106"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -6636,10 +6684,10 @@
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="106"/>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -6658,8 +6706,8 @@
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="106"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="48" t="s">
         <v>209</v>
       </c>
@@ -6676,8 +6724,8 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="106"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
@@ -6694,13 +6742,13 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="106"/>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -6714,11 +6762,11 @@
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="106"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -7123,10 +7171,10 @@
       <c r="B2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
@@ -7141,10 +7189,10 @@
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="106"/>
       <c r="B3" s="108"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -7161,10 +7209,10 @@
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="93"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
@@ -7181,10 +7229,10 @@
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -7201,10 +7249,10 @@
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -7218,10 +7266,10 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="106"/>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="81" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -7240,8 +7288,8 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="106"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -7258,8 +7306,8 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="106"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -7276,8 +7324,8 @@
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -7294,10 +7342,10 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="106"/>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="81" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7316,8 +7364,8 @@
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="106"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -7334,8 +7382,8 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="106"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -7352,13 +7400,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="106"/>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -7372,11 +7420,11 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="106"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -7779,10 +7827,10 @@
       <c r="B2" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="93"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
@@ -7797,10 +7845,10 @@
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="106"/>
       <c r="B3" s="108"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
@@ -7814,7 +7862,7 @@
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="106"/>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="109" t="s">
@@ -7836,7 +7884,7 @@
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="106"/>
-      <c r="B5" s="88"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="110"/>
       <c r="D5" s="51" t="s">
         <v>221</v>
@@ -8207,7 +8255,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -8235,7 +8283,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
+      <c r="A2" s="61"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="275">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2980,16 +2980,6 @@
     <t>総勤日数</t>
     <rPh sb="0" eb="4">
       <t>ソウキンニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下８行</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3175,93 +3165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・予定ラジオボタン選択時、勤務予定データのみ印刷されること
-・実績ラジオボタン選択時、勤務変更データのみ印刷されること
-・予定/実績ラジオボタン選択時、勤務予定データと変更データが印刷されること（予定と変更が同じ場合は変更行は空白）</t>
-    <rPh sb="1" eb="3">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・用紙サイズがA4であること
 ・形態、職種、氏名、勤務が印刷されること</t>
     <rPh sb="1" eb="3">
@@ -3392,7 +3295,7 @@
   </si>
   <si>
     <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
-・それぞれ職種名毎に、定数マスタの24種類勤務名の場合カウントする（数値の場合はカウントしない）</t>
+・それぞれ職種名毎に、定数マスタの22種類勤務名（1/3勤,1/3半以外）の場合カウントする（数値の場合はカウントしない）</t>
     <rPh sb="56" eb="57">
       <t>ゴト</t>
     </rPh>
@@ -3408,14 +3311,357 @@
     <rPh sb="71" eb="72">
       <t>メイ</t>
     </rPh>
+    <rPh sb="76" eb="77">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職種別集計（下８行）</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・予定ラジオボタン選択時、勤務予定データのみ印刷されること
+・実績ラジオボタン選択時、勤務変更データのみ印刷されること
+・予定/実績ラジオボタン選択時、勤務予定データと変更データが印刷されること（予定と変更が同じ場合は変更行は空白）
+・勤務別集計の仕様
+　日勤：日勤、有休
+　早遅特：早出、日早、遅出、遅々、日遅、特日
+　半：半Ａ、半Ｂ、半勤、半夜、半行、
+　直１２：日直
+　ＡＢＣ：Ａ勤、Ｂ勤、Ｃ勤、研修、振替
+　夜宿明：深夜、夜勤、宿直、明け
+・職種別集計の仕様は換算ボタンの処理と同様</t>
+    <rPh sb="1" eb="3">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ハヤデ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>オソデ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ニッチョク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ヤキン</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>シュクチョク</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="225" eb="228">
+      <t>ショクシュベツ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総勤日数、職種別集計、勤務別集計での勤務カウント補足
+登録されている勤務データを以下の手順でカウント
+①勤務項目名マスタの印刷時項目名に一致する場合、入力時項目名に変換。印刷時項目名に該当がなければそのまま。
+②変換された、もしくはそのままの勤務文字列を</t>
+    <rPh sb="18" eb="20">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>イッチ</t>
+    </rPh>
     <rPh sb="73" eb="75">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="82" eb="84">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>バアイ</t>
+    <rPh sb="76" eb="79">
+      <t>ニュウリョクジ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3677,7 +3923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3911,6 +4157,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -5026,9 +5278,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A47"/>
     </sheetView>
   </sheetViews>
@@ -5044,8 +5296,8 @@
     <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="102" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5069,16 +5321,16 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="90" t="s">
+    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="103"/>
+      <c r="B2" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
@@ -5090,14 +5342,14 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="103"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
@@ -5109,16 +5361,16 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="101"/>
+    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="103"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
       <c r="F4" s="8" t="s">
         <v>137</v>
       </c>
@@ -5130,18 +5382,18 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="101"/>
-      <c r="B5" s="86" t="s">
+    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="103"/>
+      <c r="B5" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="95" t="s">
+      <c r="D5" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
@@ -5153,14 +5405,14 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="101"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="95" t="s">
+    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="103"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="97"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
@@ -5172,16 +5424,16 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="101"/>
+    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="103"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
@@ -5193,18 +5445,18 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="101"/>
-      <c r="B8" s="78" t="s">
+    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="103"/>
+      <c r="B8" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
@@ -5216,14 +5468,14 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="101"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="84" t="s">
+    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="103"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="85"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
@@ -5235,117 +5487,154 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="101"/>
-      <c r="B10" s="78" t="s">
+    <row r="10" spans="1:18" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="103"/>
+      <c r="B10" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="85"/>
+      <c r="E10" s="87"/>
       <c r="F10" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H10" s="11">
         <v>43893</v>
       </c>
       <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="101"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="84" t="s">
+      <c r="L10" s="78" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+    </row>
+    <row r="11" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="103"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="85"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H11" s="11">
         <v>43893</v>
       </c>
       <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="101"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="84" t="s">
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+    </row>
+    <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="103"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="85"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H12" s="11">
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="101"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="84" t="s">
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+    </row>
+    <row r="13" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="103"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H13" s="11">
+        <v>43895</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+    </row>
+    <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="103"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="11">
-        <v>43893</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="101"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H14" s="11">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101"/>
-      <c r="B15" s="86" t="s">
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+    </row>
+    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="103"/>
+      <c r="B15" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="91" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
@@ -5356,15 +5645,22 @@
         <v>43886</v>
       </c>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="101"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="89" t="s">
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+    </row>
+    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="103"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="85"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="13" t="s">
         <v>148</v>
       </c>
@@ -5375,17 +5671,24 @@
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="85"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="87"/>
       <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
@@ -5398,17 +5701,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="101"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="103"/>
+      <c r="B18" s="88" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="85"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
@@ -5421,15 +5724,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="101"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="85"/>
+      <c r="E19" s="87"/>
       <c r="F19" s="14" t="s">
         <v>161</v>
       </c>
@@ -5442,15 +5745,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="101"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="81" t="s">
+      <c r="A20" s="103"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="85"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="14" t="s">
         <v>162</v>
       </c>
@@ -5463,13 +5766,13 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="101"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="84" t="s">
+      <c r="A21" s="103"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="85"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="14" t="s">
         <v>240</v>
       </c>
@@ -5482,15 +5785,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="101"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="81" t="s">
+      <c r="A22" s="103"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="85"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="14" t="s">
         <v>163</v>
       </c>
@@ -5503,13 +5806,13 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="101"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="14" t="s">
         <v>241</v>
       </c>
@@ -5522,15 +5825,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="101"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="81" t="s">
+      <c r="A24" s="103"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="14" t="s">
         <v>163</v>
       </c>
@@ -5543,13 +5846,13 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="101"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="14" t="s">
         <v>242</v>
       </c>
@@ -5562,12 +5865,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="101"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="81" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="83" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -5585,10 +5888,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="101"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="83"/>
+      <c r="A27" s="103"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="85"/>
       <c r="E27" s="41" t="s">
         <v>168</v>
       </c>
@@ -5596,47 +5899,43 @@
         <v>238</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H27" s="11">
         <v>43893</v>
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="101"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="81" t="s">
-        <v>254</v>
+    <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="103"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="83" t="s">
+        <v>253</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H28" s="11">
-        <v>43894</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="101"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
       <c r="E29" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H29" s="11">
         <v>43894</v>
@@ -5644,60 +5943,60 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="101"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
       <c r="E30" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="11"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="101"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
       <c r="E31" s="52" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="11"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="101"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="11"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="101"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="90"/>
       <c r="C33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="89" t="s">
+      <c r="D33" s="91" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="87"/>
       <c r="F33" s="14" t="s">
         <v>164</v>
       </c>
@@ -5710,15 +6009,15 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="101"/>
+      <c r="A34" s="103"/>
       <c r="B34" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="85"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="13" t="s">
         <v>237</v>
       </c>
@@ -5731,17 +6030,17 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="101"/>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="103"/>
+      <c r="B35" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="81" t="s">
+      <c r="C35" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="85"/>
+      <c r="E35" s="87"/>
       <c r="F35" s="12" t="s">
         <v>170</v>
       </c>
@@ -5754,13 +6053,13 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="101"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84" t="s">
+      <c r="A36" s="103"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="85"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="13" t="s">
         <v>171</v>
       </c>
@@ -5773,12 +6072,12 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="101"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="81" t="s">
+      <c r="A37" s="103"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="83" t="s">
         <v>194</v>
       </c>
       <c r="E37" s="46" t="s">
@@ -5796,10 +6095,10 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="101"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
       <c r="E38" s="46" t="s">
         <v>196</v>
       </c>
@@ -5815,15 +6114,15 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="101"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="81" t="s">
+      <c r="A39" s="103"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="85"/>
+      <c r="E39" s="87"/>
       <c r="F39" s="12" t="s">
         <v>178</v>
       </c>
@@ -5836,13 +6135,13 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="101"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="84" t="s">
+      <c r="A40" s="103"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="85"/>
+      <c r="E40" s="87"/>
       <c r="F40" s="12" t="s">
         <v>179</v>
       </c>
@@ -5855,13 +6154,13 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="101"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="84" t="s">
+      <c r="A41" s="103"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="87"/>
       <c r="F41" s="13" t="s">
         <v>180</v>
       </c>
@@ -5874,13 +6173,13 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="101"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="84" t="s">
+      <c r="A42" s="103"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="85"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="13" t="s">
         <v>186</v>
       </c>
@@ -5893,13 +6192,13 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="101"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="84" t="s">
+      <c r="A43" s="103"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="85"/>
+      <c r="E43" s="87"/>
       <c r="F43" s="12" t="s">
         <v>177</v>
       </c>
@@ -5912,13 +6211,13 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="101"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84" t="s">
+      <c r="A44" s="103"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="85"/>
+      <c r="E44" s="87"/>
       <c r="F44" s="12" t="s">
         <v>181</v>
       </c>
@@ -5931,15 +6230,15 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="101"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="81" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="85"/>
+      <c r="E45" s="87"/>
       <c r="F45" s="12" t="s">
         <v>231</v>
       </c>
@@ -5952,13 +6251,13 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="101"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="84" t="s">
+      <c r="A46" s="103"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="85"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="13" t="s">
         <v>192</v>
       </c>
@@ -5971,15 +6270,15 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="102"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="105" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="107"/>
       <c r="F47" s="7" t="s">
         <v>185</v>
       </c>
@@ -6339,7 +6638,7 @@
       <c r="E84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
+  <mergeCells count="61">
     <mergeCell ref="C26:C32"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="A1:A47"/>
@@ -6356,6 +6655,7 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="C3:E3"/>
@@ -6368,6 +6668,7 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B35:B46"/>
@@ -6383,7 +6684,7 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="L10:R16"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -6399,7 +6700,6 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6427,7 +6727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6451,14 +6751,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
+      <c r="A2" s="108"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="93"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -6471,14 +6771,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
+      <c r="A3" s="108"/>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="93"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -6491,14 +6791,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="98"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -6511,12 +6811,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="95" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -6529,14 +6829,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -6549,14 +6849,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="89"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -6569,14 +6869,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
+      <c r="A8" s="108"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="89"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -6589,11 +6889,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="83" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6611,9 +6911,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -6629,9 +6929,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -6647,9 +6947,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -6665,9 +6965,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="82"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -6683,11 +6983,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -6705,9 +7005,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="82"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="48" t="s">
         <v>209</v>
       </c>
@@ -6723,9 +7023,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="83"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
@@ -6741,14 +7041,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="106"/>
-      <c r="B17" s="78" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -6761,12 +7061,12 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="106"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="84" t="s">
+      <c r="A18" s="108"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -7143,7 +7443,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7167,14 +7467,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="93"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
@@ -7187,12 +7487,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="93"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -7205,14 +7505,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
@@ -7225,14 +7525,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="96"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -7245,14 +7545,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -7265,11 +7565,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="108"/>
+      <c r="B7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="83" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -7287,9 +7587,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="82"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -7305,9 +7605,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -7323,9 +7623,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -7341,11 +7641,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="83" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7363,9 +7663,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -7381,9 +7681,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -7399,14 +7699,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -7419,12 +7719,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="84" t="s">
+      <c r="A15" s="108"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="91"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -7799,7 +8099,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7823,14 +8123,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="108"/>
+      <c r="B2" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="93"/>
+      <c r="D2" s="95"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
@@ -7843,12 +8143,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="93"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
@@ -7861,11 +8161,11 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="111" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -7883,9 +8183,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="112"/>
       <c r="D5" s="51" t="s">
         <v>221</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -3578,10 +3578,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>総勤日数、職種別集計、勤務別集計での勤務カウント補足
-登録されている勤務データを以下の手順でカウント
-①勤務項目名マスタの印刷時項目名に一致する場合、入力時項目名に変換。印刷時項目名に該当がなければそのまま。
-②変換された、もしくはそのままの勤務文字列を</t>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>総勤日数、職種別集計、勤務別集計での勤務カウント補足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+登録されている勤務名データを変換
+・「早」→「早出」
+・「遅」→「遅出」
+・上記以外はそのまま
+変換後の文字列でそれぞれの条件でカウント</t>
+    </r>
     <rPh sb="18" eb="20">
       <t>キンム</t>
     </rPh>
@@ -3594,74 +3617,29 @@
     <rPh sb="35" eb="37">
       <t>キンム</t>
     </rPh>
-    <rPh sb="41" eb="43">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>コウモク</t>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハヤデ</t>
     </rPh>
     <rPh sb="57" eb="58">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>イッチ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>ニュウリョクジ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="124" eb="127">
-      <t>モジレツ</t>
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>オソデ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>イガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3670,7 +3648,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3753,6 +3731,30 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF00B0F0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4083,6 +4085,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4092,15 +4130,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4113,24 +4142,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4143,111 +4160,90 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4262,6 +4258,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4583,7 +4585,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4614,17 +4616,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="60"/>
-      <c r="B2" s="57" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="65" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="65" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4645,13 +4647,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="60"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="54"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="6" t="s">
         <v>198</v>
       </c>
@@ -4670,13 +4672,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="60"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="54"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="55"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="6" t="s">
         <v>198</v>
       </c>
@@ -4695,9 +4697,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4722,12 +4724,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="74" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4745,14 +4747,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -4774,11 +4776,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60"/>
-      <c r="B8" s="62" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="57" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4804,9 +4806,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4830,11 +4832,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="60"/>
-      <c r="B10" s="57" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4860,9 +4862,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -4886,14 +4888,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4910,14 +4912,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="72"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4934,11 +4936,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="60"/>
-      <c r="B14" s="57" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4964,9 +4966,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4984,11 +4986,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -5014,9 +5016,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -5034,11 +5036,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="57" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5064,9 +5066,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -5084,11 +5086,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
-      <c r="B20" s="57" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="62" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -5114,9 +5116,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -5134,14 +5136,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="60"/>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -5162,12 +5164,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="60"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="68"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5188,14 +5190,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="68"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -5216,12 +5218,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67" t="s">
+      <c r="A25" s="70"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="68"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5243,16 +5245,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -5269,6 +5261,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5278,9 +5280,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A47"/>
     </sheetView>
   </sheetViews>
@@ -5296,8 +5298,8 @@
     <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="81" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5321,16 +5323,16 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="92" t="s">
+    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="82"/>
+      <c r="B2" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
       <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
@@ -5342,14 +5344,14 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="103"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="94" t="s">
+    <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="82"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
@@ -5361,16 +5363,16 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="103"/>
+    <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="82"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="8" t="s">
         <v>137</v>
       </c>
@@ -5382,18 +5384,18 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103"/>
-      <c r="B5" s="88" t="s">
+    <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="82"/>
+      <c r="B5" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="103" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D5" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="101"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
@@ -5405,14 +5407,14 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="103"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="97" t="s">
+    <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="99"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
@@ -5424,16 +5426,16 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="103"/>
+    <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="82"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
@@ -5445,18 +5447,18 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="103"/>
-      <c r="B8" s="80" t="s">
+    <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="82"/>
+      <c r="B8" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="90"/>
       <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
@@ -5468,14 +5470,14 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="103"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86" t="s">
+    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="82"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
@@ -5487,18 +5489,18 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="103"/>
-      <c r="B10" s="80" t="s">
+    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="82"/>
+      <c r="B10" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="87"/>
+      <c r="E10" s="90"/>
       <c r="F10" s="13" t="s">
         <v>261</v>
       </c>
@@ -5509,24 +5511,28 @@
         <v>43893</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="112" t="s">
         <v>274</v>
       </c>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-    </row>
-    <row r="11" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="103"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="86" t="s">
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+    </row>
+    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="82"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="13" t="s">
         <v>260</v>
       </c>
@@ -5537,22 +5543,26 @@
         <v>43893</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-    </row>
-    <row r="12" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="103"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="86" t="s">
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+    </row>
+    <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="82"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="87"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="13" t="s">
         <v>252</v>
       </c>
@@ -5563,22 +5573,26 @@
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-    </row>
-    <row r="13" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="103"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86" t="s">
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+    </row>
+    <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="82"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="90"/>
       <c r="F13" s="13" t="s">
         <v>250</v>
       </c>
@@ -5589,22 +5603,26 @@
         <v>43895</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-    </row>
-    <row r="14" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="103"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86" t="s">
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+    </row>
+    <row r="14" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="82"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="E14" s="87"/>
+      <c r="E14" s="90"/>
       <c r="F14" s="13" t="s">
         <v>271</v>
       </c>
@@ -5615,26 +5633,30 @@
         <v>43895</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-    </row>
-    <row r="15" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="103"/>
-      <c r="B15" s="88" t="s">
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+    </row>
+    <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="82"/>
+      <c r="B15" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="94" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
@@ -5645,22 +5667,26 @@
         <v>43886</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-    </row>
-    <row r="16" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="103"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="91" t="s">
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+    </row>
+    <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="13" t="s">
         <v>148</v>
       </c>
@@ -5671,24 +5697,28 @@
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="103"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="89" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="91"/>
-      <c r="E17" s="87"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
@@ -5701,17 +5731,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="103"/>
-      <c r="B18" s="88" t="s">
+      <c r="A18" s="82"/>
+      <c r="B18" s="97" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="87"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
@@ -5724,15 +5754,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="103"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="89" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="87"/>
+      <c r="E19" s="90"/>
       <c r="F19" s="14" t="s">
         <v>161</v>
       </c>
@@ -5745,15 +5775,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="103"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="83" t="s">
+      <c r="A20" s="82"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="87"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="14" t="s">
         <v>162</v>
       </c>
@@ -5766,13 +5796,13 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="103"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="86" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="14" t="s">
         <v>240</v>
       </c>
@@ -5785,15 +5815,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="103"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="83" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="87"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="14" t="s">
         <v>163</v>
       </c>
@@ -5806,13 +5836,13 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="103"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="86" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="87"/>
+      <c r="E23" s="90"/>
       <c r="F23" s="14" t="s">
         <v>241</v>
       </c>
@@ -5825,15 +5855,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="103"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="83" t="s">
+      <c r="A24" s="82"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="87"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="14" t="s">
         <v>163</v>
       </c>
@@ -5846,13 +5876,13 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="103"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="87"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="14" t="s">
         <v>242</v>
       </c>
@@ -5865,12 +5895,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="103"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="83" t="s">
+      <c r="A26" s="82"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="78" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -5888,10 +5918,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="103"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="41" t="s">
         <v>168</v>
       </c>
@@ -5907,10 +5937,10 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="103"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="83" t="s">
+      <c r="A28" s="82"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="78" t="s">
         <v>253</v>
       </c>
       <c r="E28" s="52" t="s">
@@ -5924,10 +5954,10 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="103"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
       <c r="E29" s="52" t="s">
         <v>256</v>
       </c>
@@ -5943,10 +5973,10 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="103"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
       <c r="E30" s="52" t="s">
         <v>254</v>
       </c>
@@ -5958,10 +5988,10 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="103"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
       <c r="E31" s="52" t="s">
         <v>265</v>
       </c>
@@ -5973,10 +6003,10 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="103"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="52" t="s">
         <v>255</v>
       </c>
@@ -5988,15 +6018,15 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="103"/>
-      <c r="B33" s="90"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="94" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="87"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="14" t="s">
         <v>164</v>
       </c>
@@ -6009,15 +6039,15 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="103"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="91"/>
-      <c r="E34" s="87"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="13" t="s">
         <v>237</v>
       </c>
@@ -6030,17 +6060,17 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="103"/>
-      <c r="B35" s="88" t="s">
+      <c r="A35" s="82"/>
+      <c r="B35" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="83" t="s">
+      <c r="C35" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="89" t="s">
         <v>134</v>
       </c>
-      <c r="E35" s="87"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="12" t="s">
         <v>170</v>
       </c>
@@ -6053,13 +6083,13 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="103"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86" t="s">
+      <c r="A36" s="82"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="89" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="87"/>
+      <c r="E36" s="90"/>
       <c r="F36" s="13" t="s">
         <v>171</v>
       </c>
@@ -6072,12 +6102,12 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="103"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="83" t="s">
+      <c r="A37" s="82"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="83" t="s">
+      <c r="D37" s="78" t="s">
         <v>194</v>
       </c>
       <c r="E37" s="46" t="s">
@@ -6095,10 +6125,10 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="103"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
       <c r="E38" s="46" t="s">
         <v>196</v>
       </c>
@@ -6114,15 +6144,15 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="103"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="83" t="s">
+      <c r="A39" s="82"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="E39" s="87"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="12" t="s">
         <v>178</v>
       </c>
@@ -6135,13 +6165,13 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="103"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="86" t="s">
+      <c r="A40" s="82"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="E40" s="87"/>
+      <c r="E40" s="90"/>
       <c r="F40" s="12" t="s">
         <v>179</v>
       </c>
@@ -6154,13 +6184,13 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="103"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="86" t="s">
+      <c r="A41" s="82"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="E41" s="87"/>
+      <c r="E41" s="90"/>
       <c r="F41" s="13" t="s">
         <v>180</v>
       </c>
@@ -6173,13 +6203,13 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="103"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="86" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="E42" s="87"/>
+      <c r="E42" s="90"/>
       <c r="F42" s="13" t="s">
         <v>186</v>
       </c>
@@ -6192,13 +6222,13 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="103"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="86" t="s">
+      <c r="A43" s="82"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="79"/>
+      <c r="D43" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="87"/>
+      <c r="E43" s="90"/>
       <c r="F43" s="12" t="s">
         <v>177</v>
       </c>
@@ -6211,13 +6241,13 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="103"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="86" t="s">
+      <c r="A44" s="82"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="87"/>
+      <c r="E44" s="90"/>
       <c r="F44" s="12" t="s">
         <v>181</v>
       </c>
@@ -6230,15 +6260,15 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="103"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="83" t="s">
+      <c r="A45" s="82"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="87"/>
+      <c r="E45" s="90"/>
       <c r="F45" s="12" t="s">
         <v>231</v>
       </c>
@@ -6251,13 +6281,13 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="103"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="86" t="s">
+      <c r="A46" s="82"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="87"/>
+      <c r="E46" s="90"/>
       <c r="F46" s="13" t="s">
         <v>192</v>
       </c>
@@ -6270,15 +6300,15 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="104"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="84" t="s">
         <v>184</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="107"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="86"/>
       <c r="F47" s="7" t="s">
         <v>185</v>
       </c>
@@ -6639,6 +6669,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="L10:V16"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="C26:C32"/>
     <mergeCell ref="D28:D32"/>
     <mergeCell ref="A1:A47"/>
@@ -6655,51 +6730,6 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C39:C44"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="L10:R16"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6727,7 +6757,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6751,14 +6781,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="108"/>
+      <c r="A2" s="106"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -6771,14 +6801,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="108"/>
+      <c r="A3" s="106"/>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -6791,14 +6821,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="97" t="s">
+      <c r="C4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -6811,12 +6841,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="97" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -6829,14 +6859,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -6849,14 +6879,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="94"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -6869,14 +6899,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="91"/>
+      <c r="D8" s="94"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -6889,11 +6919,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="108"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="78" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6911,9 +6941,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -6929,9 +6959,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="84"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -6947,9 +6977,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -6965,9 +6995,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -6983,11 +7013,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -7005,9 +7035,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="84"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="48" t="s">
         <v>209</v>
       </c>
@@ -7023,9 +7053,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="108"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
@@ -7041,14 +7071,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="108"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="106"/>
+      <c r="B17" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -7061,12 +7091,12 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="108"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="86" t="s">
+      <c r="A18" s="106"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -7443,7 +7473,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7467,14 +7497,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
@@ -7487,12 +7517,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="108"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="94" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -7505,14 +7535,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="95"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
@@ -7525,14 +7555,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="98"/>
+      <c r="D5" s="100"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -7545,14 +7575,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="108"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="98"/>
+      <c r="D6" s="100"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -7565,11 +7595,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="78" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -7587,9 +7617,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="108"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="84"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -7605,9 +7635,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="108"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="84"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -7623,9 +7653,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="108"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="84"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -7641,11 +7671,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="108"/>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="106"/>
+      <c r="B11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="78" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7663,9 +7693,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="108"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="84"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -7681,9 +7711,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="108"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -7699,14 +7729,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="108"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="106"/>
+      <c r="B14" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="91"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -7719,12 +7749,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="108"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="86" t="s">
+      <c r="A15" s="106"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="91"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -8099,7 +8129,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -8123,14 +8153,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="108"/>
-      <c r="B2" s="109" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="95"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
@@ -8143,12 +8173,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="108"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="94" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="95"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
@@ -8161,11 +8191,11 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="108"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="109" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -8183,9 +8213,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="112"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="51" t="s">
         <v>221</v>
       </c>
@@ -8555,7 +8585,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -8583,7 +8613,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="285">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -3029,10 +3029,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>B4→A4(NC)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A4</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3041,10 +3037,6 @@
     <rPh sb="0" eb="2">
       <t>キョウツウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3078,6 +3070,489 @@
       <t xml:space="preserve">
 ・形態が「常勤専従」の場合は常勤換算を1.00とする</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがA4であること
+・形態、職種、氏名、勤務が印刷されること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがB4であること
+・形態、職種、氏名、勤務、常勤換算、月合計（予定のみ）が印刷されること
+・勤務別集計、職種集計が印刷されること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがA4であること
+・印刷内容が「B4」選択時と同様であること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・用紙サイズがA4であること
+・形態、職種、氏名、勤務が印刷されること
+・勤務別集計、職種集計が印刷されること</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職種別集計（下８行）</t>
+    <rPh sb="0" eb="2">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・予定ラジオボタン選択時、勤務予定データのみ印刷されること
+・実績ラジオボタン選択時、勤務変更データのみ印刷されること
+・予定/実績ラジオボタン選択時、勤務予定データと変更データが印刷されること（予定と変更が同じ場合は変更行は空白）
+・勤務別集計の仕様
+　日勤：日勤、有休
+　早遅特：早出、日早、遅出、遅々、日遅、特日
+　半：半Ａ、半Ｂ、半勤、半夜、半行、
+　直１２：日直
+　ＡＢＣ：Ａ勤、Ｂ勤、Ｃ勤、研修、振替
+　夜宿明：深夜、夜勤、宿直、明け
+・職種別集計の仕様は換算ボタンの処理と同様</t>
+    <rPh sb="1" eb="3">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ニッキン</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ハヤデ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>オソデ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>イキ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>チョク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ニッチョク</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ケンシュウ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="209" eb="210">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>シンヤ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ヤキン</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>シュクチョク</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="225" eb="228">
+      <t>ショクシュベツ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="234" eb="236">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>総勤日数、職種別集計、勤務別集計での勤務カウント補足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+登録されている勤務名データを変換
+・「早」→「早出」
+・「遅」→「遅出」
+・上記以外はそのまま
+変換後の文字列でそれぞれの条件でカウント</t>
+    </r>
+    <rPh sb="18" eb="20">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ハヤデ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>オソデ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・特養とｼｮｰﾄｽﾃｲ以外の場合は集計が表示されないこと
+・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
+・それぞれ職種名毎に、定数マスタの22種類勤務名（1/3勤,1/3半以外）の場合カウントする（数値の場合はカウントしない）</t>
+    <rPh sb="1" eb="3">
+      <t>トクヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>テイスウ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3110,537 +3585,229 @@
 　　勤務時間
 　　　定数マスタを参照
 　　　入力が数値の場合は入力値を使用
-　　　「有休」は「日勤」扱いで計算
-　　常勤換算、月合計、総勤日数が0の場合は表示しない
-</t>
+　　　</t>
     </r>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニッスウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>アツカ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ケイサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・用紙サイズがA4であること
-・形態、職種、氏名、勤務が印刷されること</t>
-    <rPh sb="1" eb="3">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショクシュ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・用紙サイズがB4であること
-・形態、職種、氏名、勤務、常勤換算、月合計（予定のみ）が印刷されること
-・勤務別集計、職種集計が印刷されること</t>
-    <rPh sb="1" eb="3">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショクシュ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シメイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウキン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ショクシュ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>インサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・用紙サイズがA4であること
-・印刷内容が「B4」選択時と同様であること</t>
-    <rPh sb="1" eb="3">
-      <t>ヨウシ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B4→A4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・用紙サイズがA4であること
-・形態、職種、氏名、勤務が印刷されること
-・勤務別集計、職種集計が印刷されること</t>
-    <rPh sb="1" eb="3">
-      <t>ヨウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・下8行に「看護師、介護士　介護職、介護士ﾊﾟｰﾄ　介護職ﾊﾟｰﾄ、計」の集計が表示されること
-・それぞれ職種名毎に、定数マスタの22種類勤務名（1/3勤,1/3半以外）の場合カウントする（数値の場合はカウントしない）</t>
-    <rPh sb="56" eb="57">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>テイスウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>職種別集計（下８行）</t>
-    <rPh sb="0" eb="2">
-      <t>ショクシュ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・予定ラジオボタン選択時、勤務予定データのみ印刷されること
-・実績ラジオボタン選択時、勤務変更データのみ印刷されること
-・予定/実績ラジオボタン選択時、勤務予定データと変更データが印刷されること（予定と変更が同じ場合は変更行は空白）
-・勤務別集計の仕様
-　日勤：日勤、有休
-　早遅特：早出、日早、遅出、遅々、日遅、特日
-　半：半Ａ、半Ｂ、半勤、半夜、半行、
-　直１２：日直
-　ＡＢＣ：Ａ勤、Ｂ勤、Ｃ勤、研修、振替
-　夜宿明：深夜、夜勤、宿直、明け
-・職種別集計の仕様は換算ボタンの処理と同様</t>
-    <rPh sb="1" eb="3">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ニッキン</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ニッキン</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>ユウキュウ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>ハヤデ</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>オソデ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="161" eb="162">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>ハン</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>イキ</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>チョク</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ニッチョク</t>
-    </rPh>
-    <rPh sb="193" eb="194">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="196" eb="197">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>ケンシュウ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>フリカエ</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="209" eb="210">
-      <t>ヤド</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>アカ</t>
-    </rPh>
-    <rPh sb="212" eb="214">
-      <t>シンヤ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>ヤキン</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>シュクチョク</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="225" eb="228">
-      <t>ショクシュベツ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="234" eb="236">
-      <t>カンサン</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
-        <sz val="20"/>
-        <color rgb="FF00B0F0"/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>総勤日数、職種別集計、勤務別集計での勤務カウント補足</t>
+      <t>「有休」は「日勤」扱い</t>
     </r>
     <r>
       <rPr>
-        <sz val="20"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-登録されている勤務名データを変換
-・「早」→「早出」
-・「遅」→「遅出」
-・上記以外はそのまま
-変換後の文字列でそれぞれの条件でカウント</t>
+      <t xml:space="preserve">で計算
+　　常勤換算、月合計、総勤日数が0の場合は表示しない
+</t>
     </r>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウキン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンサン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シュウケイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4→A4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4→A4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4→A4(NC)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4→A4(NC)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印刷確認テスト</t>
+    <rPh sb="0" eb="2">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・新旧Diaryでそれぞれ該当年月の勤務データ（特養、事務、ｼｮｰﾄｽﾃｲ、ﾃﾞｲｻｰﾋﾞｽ、ﾍﾙﾊﾟｰｽﾃｰｼｮﾝ、居宅介護支援、生活支援ﾊｳｽ）を印刷、印刷内容が一致することを確認する
+・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>調整が0の年月データを使用</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シンキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツキ</t>
+    </rPh>
     <rPh sb="18" eb="20">
       <t>キンム</t>
     </rPh>
     <rPh sb="24" eb="26">
-      <t>ホソク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヘンカン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ハヤデ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>オソ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>オソデ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>イガイ</t>
-    </rPh>
+      <t>トクヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジム</t>
+    </rPh>
+    <rPh sb="59" eb="65">
+      <t>キョタクカイゴシエン</t>
+    </rPh>
+    <rPh sb="66" eb="70">
+      <t>セイカツシエン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2019/3データ印刷</t>
+    <rPh sb="10" eb="12">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2019/4データ印刷</t>
+    <rPh sb="10" eb="12">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2019/8データ印刷</t>
+    <rPh sb="10" eb="12">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・2018/6データ印刷</t>
+    <rPh sb="10" eb="12">
+      <t>インサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3648,7 +3815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3755,6 +3922,22 @@
     <font>
       <sz val="20"/>
       <color rgb="FF00B0F0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3925,7 +4108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4085,22 +4268,67 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4112,53 +4340,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -4169,6 +4370,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4187,63 +4436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4259,11 +4451,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4585,7 +4801,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4616,17 +4832,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="69"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="54" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="54" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4647,13 +4863,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="69"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="66"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="66"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="6" t="s">
         <v>198</v>
       </c>
@@ -4672,13 +4888,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="69"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="67"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="6" t="s">
         <v>198</v>
       </c>
@@ -4697,9 +4913,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4724,12 +4940,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="69"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="60" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
@@ -4747,14 +4963,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="69"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="64"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -4776,11 +4992,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="64" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -4806,9 +5022,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="69"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -4832,11 +5048,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="69"/>
-      <c r="B10" s="55" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -4862,9 +5078,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="69"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -4888,14 +5104,14 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="69"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="20" t="s">
         <v>133</v>
       </c>
@@ -4912,14 +5128,14 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="77"/>
+      <c r="D13" s="73"/>
       <c r="E13" s="20" t="s">
         <v>57</v>
       </c>
@@ -4936,11 +5152,11 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="69"/>
-      <c r="B14" s="55" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -4966,9 +5182,9 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="69"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="21" t="s">
         <v>48</v>
       </c>
@@ -4986,11 +5202,11 @@
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="69"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="21" t="s">
@@ -5016,9 +5232,9 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="69"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
@@ -5036,11 +5252,11 @@
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="69"/>
-      <c r="B18" s="55" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="21" t="s">
@@ -5066,9 +5282,9 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="69"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="21" t="s">
         <v>52</v>
       </c>
@@ -5086,11 +5302,11 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="69"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="57" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -5116,9 +5332,9 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="69"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="21" t="s">
         <v>54</v>
       </c>
@@ -5136,14 +5352,14 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="69"/>
-      <c r="B22" s="72" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="54"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="7" t="s">
         <v>19</v>
       </c>
@@ -5164,12 +5380,12 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="69"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="53" t="s">
+      <c r="A23" s="61"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="7" t="s">
         <v>21</v>
       </c>
@@ -5190,14 +5406,14 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="69"/>
-      <c r="B24" s="72" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="54"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="7" t="s">
         <v>22</v>
       </c>
@@ -5218,12 +5434,12 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="70"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="62"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="69"/>
       <c r="E25" s="7" t="s">
         <v>23</v>
       </c>
@@ -5245,6 +5461,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="B18:B19"/>
@@ -5261,16 +5487,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5280,10 +5496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5299,7 +5515,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="103" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="43" t="s">
@@ -5324,15 +5540,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="82"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="10" t="s">
         <v>136</v>
       </c>
@@ -5345,13 +5561,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="82"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="91" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="97"/>
       <c r="F3" s="10" t="s">
         <v>131</v>
       </c>
@@ -5364,15 +5580,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="82"/>
+      <c r="A4" s="104"/>
       <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="92"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="8" t="s">
         <v>137</v>
       </c>
@@ -5385,17 +5601,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="82"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="12" t="s">
         <v>142</v>
       </c>
@@ -5408,13 +5624,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="99" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="100"/>
       <c r="F6" s="12" t="s">
         <v>143</v>
       </c>
@@ -5427,15 +5643,15 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="101"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="12" t="s">
         <v>144</v>
       </c>
@@ -5448,17 +5664,17 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
-      <c r="B8" s="87" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="D8" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="E8" s="90"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="12" t="s">
         <v>189</v>
       </c>
@@ -5471,13 +5687,13 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="89" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="12" t="s">
         <v>190</v>
       </c>
@@ -5490,79 +5706,75 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="82"/>
-      <c r="B10" s="87" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="E10" s="88"/>
+      <c r="F10" s="117" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="79" t="s">
+        <v>267</v>
+      </c>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+    </row>
+    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="104"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="87" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="H10" s="11">
-        <v>43893</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="L10" s="112" t="s">
-        <v>274</v>
-      </c>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-    </row>
-    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="82"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="89" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="13" t="s">
-        <v>260</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H11" s="11">
         <v>43893</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
     </row>
     <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="89" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="13" t="s">
         <v>252</v>
       </c>
@@ -5573,90 +5785,86 @@
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+      <c r="U12" s="80"/>
+      <c r="V12" s="80"/>
     </row>
     <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="89" t="s">
+      <c r="A13" s="104"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="13" t="s">
         <v>250</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H13" s="11">
         <v>43895</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-    </row>
-    <row r="14" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="89" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="90"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+    </row>
+    <row r="14" spans="1:22" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="104"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="88"/>
       <c r="F14" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H14" s="11">
-        <v>43895</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="111"/>
-      <c r="O14" s="111"/>
-      <c r="P14" s="111"/>
-      <c r="Q14" s="111"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
     </row>
     <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="13" t="s">
         <v>147</v>
       </c>
@@ -5667,26 +5875,26 @@
         <v>43886</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="111"/>
-      <c r="M15" s="111"/>
-      <c r="N15" s="111"/>
-      <c r="O15" s="111"/>
-      <c r="P15" s="111"/>
-      <c r="Q15" s="111"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="82"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="94" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="E16" s="90"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="13" t="s">
         <v>148</v>
       </c>
@@ -5697,28 +5905,28 @@
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
-      <c r="O16" s="111"/>
-      <c r="P16" s="111"/>
-      <c r="Q16" s="111"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="82"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="90"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
@@ -5731,17 +5939,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="104"/>
+      <c r="B18" s="89" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="E18" s="90"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="14" t="s">
         <v>160</v>
       </c>
@@ -5754,15 +5962,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="87" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="90"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="14" t="s">
         <v>161</v>
       </c>
@@ -5775,15 +5983,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="82"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="78" t="s">
+      <c r="A20" s="104"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="90"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="14" t="s">
         <v>162</v>
       </c>
@@ -5796,13 +6004,13 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="82"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="89" t="s">
+      <c r="A21" s="104"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="90"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="14" t="s">
         <v>240</v>
       </c>
@@ -5815,15 +6023,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="78" t="s">
+      <c r="A22" s="104"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="90"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="14" t="s">
         <v>163</v>
       </c>
@@ -5836,13 +6044,13 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="82"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="89" t="s">
+      <c r="A23" s="104"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="90"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="14" t="s">
         <v>241</v>
       </c>
@@ -5855,15 +6063,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="82"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="78" t="s">
+      <c r="A24" s="104"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="90"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="14" t="s">
         <v>163</v>
       </c>
@@ -5876,13 +6084,13 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="82"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="89" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="90"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="14" t="s">
         <v>242</v>
       </c>
@@ -5895,12 +6103,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="82"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="78" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="84" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="41" t="s">
@@ -5918,10 +6126,10 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="41" t="s">
         <v>168</v>
       </c>
@@ -5929,7 +6137,7 @@
         <v>238</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H27" s="11">
         <v>43893</v>
@@ -5937,35 +6145,35 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="82"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="78" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="84" t="s">
         <v>253</v>
       </c>
       <c r="E28" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="F28" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="82"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="H29" s="11">
         <v>43894</v>
@@ -5973,191 +6181,179 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="82"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
       <c r="E30" s="52" t="s">
         <v>254</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="11"/>
+        <v>260</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H30" s="11">
+        <v>43899</v>
+      </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="82"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
       <c r="E31" s="52" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="11"/>
+        <v>261</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="11">
+        <v>43899</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="82"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="52" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="11"/>
+        <v>262</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H32" s="11">
+        <v>43899</v>
+      </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="82"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="42" t="s">
+    <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="104"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="114" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" s="120" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="104"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="123" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="11">
+        <v>43899</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="104"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="F35" s="123" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="104"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="104"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="123" t="s">
+        <v>280</v>
+      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="104"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="94" t="s">
+      <c r="D38" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="90"/>
-      <c r="F33" s="14" t="s">
+      <c r="E38" s="88"/>
+      <c r="F38" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G38" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="H33" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="82"/>
-      <c r="B34" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="94"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="82"/>
-      <c r="B35" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="C35" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="89" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="H35" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="82"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="89" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="82"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="82"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H38" s="11">
         <v>43886</v>
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="82"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="90"/>
-      <c r="F39" s="12" t="s">
-        <v>178</v>
+    <row r="39" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="104"/>
+      <c r="B39" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="92"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H39" s="11">
         <v>43886</v>
@@ -6165,75 +6361,83 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="82"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="89" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="90"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="88"/>
       <c r="F40" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H40" s="11">
         <v>43886</v>
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="82"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="89" t="s">
-        <v>174</v>
-      </c>
-      <c r="E41" s="90"/>
+    <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="104"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="88"/>
       <c r="F41" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="H41" s="11">
         <v>43886</v>
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="82"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="90"/>
+    <row r="42" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="104"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D42" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>195</v>
+      </c>
       <c r="F42" s="13" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H42" s="11">
         <v>43886</v>
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="82"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="90"/>
-      <c r="F43" s="12" t="s">
-        <v>177</v>
+    <row r="43" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="104"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>197</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H43" s="11">
         <v>43886</v>
@@ -6241,18 +6445,20 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="82"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="90"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="88"/>
       <c r="F44" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="H44" s="11">
         <v>43886</v>
@@ -6260,119 +6466,159 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="82"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="90"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="88"/>
       <c r="F45" s="12" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H45" s="11">
         <v>43886</v>
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="82"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="89" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="90"/>
+    <row r="46" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="104"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="88"/>
       <c r="F46" s="13" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H46" s="11">
         <v>43886</v>
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="83"/>
-      <c r="B47" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="C47" s="84" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="85"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="7" t="s">
-        <v>185</v>
+    <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="104"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="88"/>
+      <c r="F47" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H47" s="11">
         <v>43886</v>
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="15"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="104"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="88"/>
+      <c r="F48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H48" s="11">
+        <v>43886</v>
+      </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="15"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="104"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="88"/>
+      <c r="F49" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H49" s="11">
+        <v>43886</v>
+      </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="15"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="104"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="88"/>
+      <c r="F50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H50" s="11">
+        <v>43886</v>
+      </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="15"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
+    <row r="51" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="104"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H51" s="11">
+        <v>43886</v>
+      </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="15"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+    <row r="52" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="105"/>
+      <c r="B52" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" s="106" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="107"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="11">
+        <v>43886</v>
+      </c>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -6596,34 +6842,59 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B73" s="17"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B74" s="17"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B75" s="17"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="17"/>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B76" s="17"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B77" s="17"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="17"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B78" s="17"/>
@@ -6667,40 +6938,58 @@
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
     </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="L10:V16"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D14:E14"/>
+  <mergeCells count="65">
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C26:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="A1:A52"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B35:B46"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="C3:E3"/>
@@ -6714,22 +7003,38 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="A1:A47"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="L10:V16"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B18:B38"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6757,7 +7062,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -6781,14 +7086,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
+      <c r="A2" s="109"/>
       <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="10" t="s">
         <v>102</v>
       </c>
@@ -6801,14 +7106,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="8" t="s">
         <v>101</v>
       </c>
@@ -6821,14 +7126,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="99"/>
       <c r="E4" s="12" t="s">
         <v>97</v>
       </c>
@@ -6841,12 +7146,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="99" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="13" t="s">
         <v>98</v>
       </c>
@@ -6859,14 +7164,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="12" t="s">
         <v>100</v>
       </c>
@@ -6879,14 +7184,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="94"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
@@ -6899,14 +7204,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="94"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="13" t="s">
         <v>101</v>
       </c>
@@ -6919,11 +7224,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="109"/>
+      <c r="B9" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="84" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33" t="s">
@@ -6941,9 +7246,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="35" t="s">
         <v>116</v>
       </c>
@@ -6959,9 +7264,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
@@ -6977,9 +7282,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="34" t="s">
         <v>105</v>
       </c>
@@ -6995,9 +7300,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="79"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="32" t="s">
         <v>106</v>
       </c>
@@ -7013,11 +7318,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="84" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="47" t="s">
@@ -7035,9 +7340,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="79"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="48" t="s">
         <v>209</v>
       </c>
@@ -7053,9 +7358,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="106"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="48" t="s">
         <v>210</v>
       </c>
@@ -7071,14 +7376,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="106"/>
-      <c r="B17" s="87" t="s">
+      <c r="A17" s="109"/>
+      <c r="B17" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="92"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
@@ -7091,12 +7396,12 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="106"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89" t="s">
+      <c r="A18" s="109"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="92"/>
       <c r="E18" s="13" t="s">
         <v>95</v>
       </c>
@@ -7473,7 +7778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7497,14 +7802,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="10" t="s">
         <v>111</v>
       </c>
@@ -7517,12 +7822,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="91" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="10" t="s">
         <v>112</v>
       </c>
@@ -7535,14 +7840,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
@@ -7555,14 +7860,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
+      <c r="A5" s="109"/>
       <c r="B5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="100"/>
+      <c r="D5" s="99"/>
       <c r="E5" s="12" t="s">
         <v>117</v>
       </c>
@@ -7575,14 +7880,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="106"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="100"/>
+      <c r="D6" s="99"/>
       <c r="E6" s="12" t="s">
         <v>117</v>
       </c>
@@ -7595,11 +7900,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="106"/>
-      <c r="B7" s="87" t="s">
+      <c r="A7" s="109"/>
+      <c r="B7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="84" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="38" t="s">
@@ -7617,9 +7922,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="106"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="37" t="s">
         <v>125</v>
       </c>
@@ -7635,9 +7940,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="106"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="37" t="s">
         <v>120</v>
       </c>
@@ -7653,9 +7958,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="106"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="39" t="s">
         <v>122</v>
       </c>
@@ -7671,11 +7976,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="106"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="109"/>
+      <c r="B11" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="84" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="40" t="s">
@@ -7693,9 +7998,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="106"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="79"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="39" t="s">
         <v>125</v>
       </c>
@@ -7711,9 +8016,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="106"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="86"/>
       <c r="D13" s="39" t="s">
         <v>122</v>
       </c>
@@ -7729,14 +8034,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106"/>
-      <c r="B14" s="87" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="94"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="13" t="s">
         <v>129</v>
       </c>
@@ -7749,12 +8054,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="106"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="A15" s="109"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="94"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="14" t="s">
         <v>130</v>
       </c>
@@ -8129,7 +8434,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="109" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -8153,14 +8458,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107" t="s">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="91" t="s">
+      <c r="C2" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="96"/>
       <c r="E2" s="10" t="s">
         <v>132</v>
       </c>
@@ -8173,12 +8478,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="91" t="s">
+      <c r="A3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="10" t="s">
         <v>131</v>
       </c>
@@ -8191,11 +8496,11 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="106"/>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="109"/>
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="112" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="50" t="s">
@@ -8213,9 +8518,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="51" t="s">
         <v>221</v>
       </c>
@@ -8585,7 +8890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -8613,7 +8918,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="70"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="28035" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="トップフォーム" sheetId="10" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="292">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -475,49 +475,6 @@
   </si>
   <si>
     <t>ｼｮｰﾄｽﾃｲボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ファイル選択ダイアログが表示されること
-・コピー確認ダイアログにて「はい」を選択したデータがコピーされること
-・コピー時に既存データがある場合は削除されること
-　（特養の場合は既存データ削除されないこと）</t>
-    <rPh sb="5" eb="7">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>トクヨウ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>サクジョ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2737,10 +2694,6 @@
   </si>
   <si>
     <t>クリック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3810,12 +3763,145 @@
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト方法</t>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・新旧Diaryにて同じ年月でCSVを作成し、同じ内容が書き出されていることを確認（ファイルのバイト数が一致するかで判断）</t>
+    <rPh sb="1" eb="3">
+      <t>シンキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・ファイル選択ダイアログが表示されること
+・コピー確認ダイアログにて「はい」を選択したデータがコピーされること
+・コピー時に既存データがある場合は削除されること
+　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※（特養の場合は既存データが削除されないこと）</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>トクヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3943,6 +4029,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3952,7 +4046,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -4050,17 +4144,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -4108,7 +4191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4188,23 +4271,35 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4214,50 +4309,200 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4265,144 +4510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4418,15 +4525,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4436,50 +4543,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4782,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:A25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4801,7 +4899,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4832,21 +4930,21 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="64" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="64" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G2" s="19">
         <v>43883</v>
@@ -4863,15 +4961,15 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G3" s="19">
         <v>43883</v>
@@ -4888,15 +4986,15 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="61"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="56"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="19">
         <v>43883</v>
@@ -4913,17 +5011,17 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="61"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>58</v>
+      <c r="E5" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G5" s="19">
         <v>43883</v>
@@ -4940,14 +5038,14 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="61"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="82"/>
+      <c r="E6" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="19"/>
@@ -4963,19 +5061,19 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="78"/>
+      <c r="D7" s="84"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="19">
         <v>43883</v>
@@ -4992,11 +5090,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="74" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5006,7 +5104,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="19">
         <v>43883</v>
@@ -5022,9 +5120,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="61"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="71"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -5032,7 +5130,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G9" s="19">
         <v>43883</v>
@@ -5048,11 +5146,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="74" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5062,7 +5160,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G10" s="19">
         <v>43883</v>
@@ -5078,17 +5176,17 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>202</v>
+      <c r="E11" s="30" t="s">
+        <v>201</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="19">
         <v>43883</v>
@@ -5104,19 +5202,25 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="61"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="71"/>
+      <c r="B12" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C12" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="71"/>
+      <c r="D12" s="57" t="s">
+        <v>287</v>
+      </c>
       <c r="E12" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="19"/>
+        <v>132</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="62">
+        <v>43899</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -5127,20 +5231,18 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="73"/>
+    <row r="13" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="71"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="54" t="s">
+        <v>288</v>
+      </c>
       <c r="E13" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="19"/>
+        <v>289</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="63"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5151,25 +5253,25 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="61"/>
-      <c r="B14" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="57" t="s">
+    <row r="14" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="71"/>
+      <c r="B14" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>47</v>
+      <c r="D14" s="57" t="s">
+        <v>287</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G14" s="19">
-        <v>43883</v>
+        <v>197</v>
+      </c>
+      <c r="G14" s="59">
+        <v>43899</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -5182,17 +5284,21 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="61"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="D15" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>200</v>
+        <v>17</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>291</v>
       </c>
       <c r="G15" s="19">
         <v>43883</v>
@@ -5200,23 +5306,25 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="A16" s="71"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G16" s="19">
         <v>43883</v>
@@ -5224,25 +5332,23 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="61"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="D17" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G17" s="19">
         <v>43883</v>
@@ -5250,23 +5356,25 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="A18" s="71"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G18" s="19">
         <v>43883</v>
@@ -5274,25 +5382,23 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="57"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="D19" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="19">
         <v>43883</v>
@@ -5300,23 +5406,25 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="61"/>
-      <c r="B20" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>10</v>
-      </c>
+      <c r="A20" s="71"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G20" s="19">
         <v>43883</v>
@@ -5324,25 +5432,23 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="61"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="57"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>10</v>
+      </c>
       <c r="D21" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="19">
         <v>43883</v>
@@ -5350,44 +5456,44 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="7" t="s">
-        <v>19</v>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="71"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G22" s="19">
         <v>43883</v>
       </c>
-      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="69"/>
+    </row>
+    <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="71"/>
+      <c r="B23" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="79"/>
       <c r="E23" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>200</v>
@@ -5405,20 +5511,18 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="69"/>
+    <row r="24" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="71"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="79"/>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G24" s="19">
         <v>43883</v>
@@ -5433,18 +5537,20 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="62"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="69"/>
+    <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="71"/>
+      <c r="B25" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="79"/>
       <c r="E25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G25" s="19">
         <v>43883</v>
@@ -5459,34 +5565,62 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
+    <row r="26" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="72"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="79"/>
+      <c r="E26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="19">
+        <v>43883</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="28">
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A1:A25"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A1:A26"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5498,7 +5632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
@@ -5515,10 +5649,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="43" t="s">
+      <c r="A1" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -5527,7 +5661,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
@@ -5540,20 +5674,20 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104"/>
-      <c r="B2" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="105"/>
       <c r="F2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" s="11">
         <v>43886</v>
@@ -5561,18 +5695,18 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="97"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="11">
         <v>43886</v>
@@ -5580,20 +5714,20 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="104"/>
-      <c r="B4" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
+      <c r="A4" s="112"/>
+      <c r="B4" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H4" s="11">
         <v>43886</v>
@@ -5601,22 +5735,22 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="104"/>
-      <c r="B5" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="101" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="98" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="106" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="108"/>
+      <c r="F5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="12" t="s">
-        <v>142</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H5" s="11">
         <v>43886</v>
@@ -5624,18 +5758,18 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="104"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="100"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="108"/>
       <c r="F6" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" s="11">
         <v>43886</v>
@@ -5643,20 +5777,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="104"/>
-      <c r="B7" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="99"/>
-      <c r="E7" s="100"/>
+      <c r="A7" s="112"/>
+      <c r="B7" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="107"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H7" s="11">
         <v>43886</v>
@@ -5664,22 +5798,22 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="104"/>
-      <c r="B8" s="81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="88"/>
+      <c r="A8" s="112"/>
+      <c r="B8" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="96"/>
       <c r="F8" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H8" s="11">
         <v>43892</v>
@@ -5687,18 +5821,18 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="104"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="88"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9" s="96"/>
       <c r="F9" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H9" s="11">
         <v>43892</v>
@@ -5706,232 +5840,236 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="104"/>
-      <c r="B10" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="E10" s="88"/>
+      <c r="A10" s="112"/>
+      <c r="B10" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="96"/>
       <c r="F10" s="117" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G10" s="118"/>
       <c r="H10" s="119"/>
       <c r="I10" s="1"/>
-      <c r="L10" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="80"/>
-      <c r="U10" s="80"/>
-      <c r="V10" s="80"/>
+      <c r="L10" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
     </row>
     <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="104"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="88"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="96"/>
       <c r="F11" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H11" s="11">
         <v>43893</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="88"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
     </row>
     <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="104"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="88"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="96"/>
       <c r="F12" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="11">
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="80"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="80"/>
-      <c r="U12" s="80"/>
-      <c r="V12" s="80"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
     </row>
     <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="88"/>
+      <c r="A13" s="112"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="95" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="96"/>
       <c r="F13" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H13" s="11">
         <v>43895</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
     </row>
     <row r="14" spans="1:22" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="104"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="E14" s="88"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="96"/>
       <c r="F14" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="11"/>
+        <v>266</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="11">
+        <v>43899</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
+      <c r="L14" s="88"/>
+      <c r="M14" s="88"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="88"/>
+      <c r="P14" s="88"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
     </row>
     <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="104"/>
-      <c r="B15" s="89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="88"/>
+      <c r="A15" s="112"/>
+      <c r="B15" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="96"/>
       <c r="F15" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="H15" s="11">
         <v>43886</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="104"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" s="88"/>
+      <c r="A16" s="112"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="100" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="96"/>
       <c r="F16" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H16" s="11">
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="104"/>
-      <c r="B17" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="92"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="112"/>
+      <c r="B17" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D17" s="100"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H17" s="11">
         <v>43886</v>
@@ -5939,22 +6077,22 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="104"/>
-      <c r="B18" s="89" t="s">
+      <c r="A18" s="112"/>
+      <c r="B18" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="88"/>
+      <c r="D18" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="96"/>
       <c r="F18" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H18" s="11">
         <v>43886</v>
@@ -5962,20 +6100,20 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="104"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="88"/>
+      <c r="A19" s="112"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" s="96"/>
       <c r="F19" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H19" s="11">
         <v>43886</v>
@@ -5983,20 +6121,20 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="104"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="88"/>
+      <c r="A20" s="112"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="96"/>
       <c r="F20" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H20" s="11">
         <v>43886</v>
@@ -6004,18 +6142,18 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="104"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="88"/>
+      <c r="A21" s="112"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="96"/>
       <c r="F21" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="11">
         <v>43886</v>
@@ -6023,20 +6161,20 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="104"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="88"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="92" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="96"/>
       <c r="F22" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H22" s="11">
         <v>43886</v>
@@ -6044,18 +6182,18 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="104"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87" t="s">
+      <c r="A23" s="112"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="96"/>
+      <c r="F23" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="14" t="s">
-        <v>241</v>
-      </c>
       <c r="G23" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H23" s="11">
         <v>43886</v>
@@ -6063,20 +6201,20 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="104"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="88"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="96"/>
       <c r="F24" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="11">
         <v>43886</v>
@@ -6084,18 +6222,18 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="104"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="88"/>
+      <c r="A25" s="112"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="96"/>
       <c r="F25" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H25" s="11">
         <v>43886</v>
@@ -6103,22 +6241,22 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="104"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="84" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>167</v>
+      <c r="A26" s="112"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>166</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H26" s="11">
         <v>43892</v>
@@ -6126,18 +6264,18 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="104"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="41" t="s">
-        <v>168</v>
+      <c r="A27" s="112"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="40" t="s">
+        <v>167</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H27" s="11">
         <v>43893</v>
@@ -6145,35 +6283,35 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="104"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>256</v>
+      <c r="A28" s="112"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="92" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="F28" s="120" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G28" s="121"/>
       <c r="H28" s="122"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="104"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="52" t="s">
-        <v>255</v>
+      <c r="A29" s="112"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="51" t="s">
+        <v>253</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H29" s="11">
         <v>43894</v>
@@ -6181,18 +6319,18 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="104"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="52" t="s">
-        <v>254</v>
+      <c r="A30" s="112"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="51" t="s">
+        <v>252</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H30" s="11">
         <v>43899</v>
@@ -6200,18 +6338,18 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="104"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="52" t="s">
-        <v>272</v>
+      <c r="A31" s="112"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="51" t="s">
+        <v>270</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H31" s="11">
         <v>43899</v>
@@ -6219,18 +6357,18 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="104"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="52" t="s">
-        <v>274</v>
+      <c r="A32" s="112"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="51" t="s">
+        <v>272</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H32" s="11">
         <v>43899</v>
@@ -6238,35 +6376,35 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="104"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="114" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="53" t="s">
+      <c r="A33" s="112"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="F33" s="120" t="s">
         <v>276</v>
-      </c>
-      <c r="F33" s="120" t="s">
-        <v>278</v>
       </c>
       <c r="G33" s="121"/>
       <c r="H33" s="122"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="104"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="123" t="s">
-        <v>282</v>
+      <c r="A34" s="112"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="F34" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H34" s="11">
         <v>43899</v>
@@ -6274,65 +6412,77 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="53" t="s">
+      <c r="A35" s="112"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H35" s="11">
+        <v>43899</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="112"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="F35" s="123" t="s">
-        <v>281</v>
-      </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="104"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="53" t="s">
+      <c r="F36" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H36" s="11">
+        <v>43899</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="112"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="F36" s="123" t="s">
-        <v>279</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="104"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="F37" s="123" t="s">
-        <v>280</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="11"/>
+      <c r="F37" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H37" s="11">
+        <v>43899</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="104"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="88"/>
+      <c r="A38" s="112"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="96"/>
       <c r="F38" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H38" s="11">
         <v>43886</v>
@@ -6340,20 +6490,20 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="104"/>
-      <c r="B39" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="88"/>
+      <c r="A39" s="112"/>
+      <c r="B39" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="100"/>
+      <c r="E39" s="96"/>
       <c r="F39" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H39" s="11">
         <v>43886</v>
@@ -6361,22 +6511,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="104"/>
-      <c r="B40" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="88"/>
+      <c r="A40" s="112"/>
+      <c r="B40" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="96"/>
       <c r="F40" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H40" s="11">
         <v>43886</v>
@@ -6384,18 +6534,18 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="104"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="88"/>
+      <c r="A41" s="112"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="96"/>
       <c r="F41" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H41" s="11">
         <v>43886</v>
@@ -6403,22 +6553,22 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="104"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="84" t="s">
+      <c r="A42" s="112"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="E42" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="E42" s="46" t="s">
-        <v>195</v>
-      </c>
       <c r="F42" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H42" s="11">
         <v>43886</v>
@@ -6426,18 +6576,18 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="104"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="46" t="s">
+      <c r="A43" s="112"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G43" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="H43" s="11">
         <v>43886</v>
@@ -6445,20 +6595,20 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="104"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="88"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="96"/>
       <c r="F44" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H44" s="11">
         <v>43886</v>
@@ -6466,18 +6616,18 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="104"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="87" t="s">
-        <v>173</v>
-      </c>
-      <c r="E45" s="88"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="96"/>
       <c r="F45" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H45" s="11">
         <v>43886</v>
@@ -6485,18 +6635,18 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="104"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="88"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="96"/>
       <c r="F46" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H46" s="11">
         <v>43886</v>
@@ -6504,18 +6654,18 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="104"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="87" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="88"/>
+      <c r="A47" s="112"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="96"/>
       <c r="F47" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H47" s="11">
         <v>43886</v>
@@ -6523,18 +6673,18 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="104"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="87" t="s">
+      <c r="A48" s="112"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="95" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48" s="96"/>
+      <c r="F48" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E48" s="88"/>
-      <c r="F48" s="12" t="s">
-        <v>177</v>
-      </c>
       <c r="G48" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H48" s="11">
         <v>43886</v>
@@ -6542,18 +6692,18 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="104"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="88"/>
+      <c r="A49" s="112"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="E49" s="96"/>
       <c r="F49" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H49" s="11">
         <v>43886</v>
@@ -6561,20 +6711,20 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="104"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="84" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="88"/>
+      <c r="A50" s="112"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="96"/>
       <c r="F50" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H50" s="11">
         <v>43886</v>
@@ -6582,18 +6732,18 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="104"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="88"/>
+      <c r="A51" s="112"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="96"/>
       <c r="F51" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H51" s="11">
         <v>43886</v>
@@ -6601,20 +6751,20 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="105"/>
-      <c r="B52" s="29" t="s">
+      <c r="A52" s="113"/>
+      <c r="B52" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="C52" s="106" t="s">
+      <c r="D52" s="115"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="108"/>
-      <c r="F52" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="G52" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H52" s="11">
         <v>43886</v>
@@ -6976,6 +7126,8 @@
     <mergeCell ref="C26:C37"/>
     <mergeCell ref="D33:D37"/>
     <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A1:A52"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="B8:B9"/>
@@ -6992,7 +7144,6 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C15:C16"/>
@@ -7002,8 +7153,6 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B40:B51"/>
     <mergeCell ref="C2:E2"/>
@@ -7019,6 +7168,7 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="L10:V16"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
@@ -7062,8 +7212,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
-        <v>61</v>
+      <c r="A1" s="126" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7086,19 +7236,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
+      <c r="A2" s="126"/>
       <c r="B2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7106,19 +7256,19 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="95" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7126,19 +7276,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="109"/>
-      <c r="B4" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="98" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="99"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -7146,17 +7296,17 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="99"/>
+      <c r="A5" s="126"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="107"/>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -7164,19 +7314,19 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
-      <c r="B6" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="99"/>
+      <c r="A6" s="126"/>
+      <c r="B6" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="107"/>
       <c r="E6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -7184,19 +7334,19 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="109"/>
-      <c r="B7" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="92"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="100"/>
       <c r="E7" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -7204,19 +7354,19 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="87" t="s">
+      <c r="A8" s="126"/>
+      <c r="B8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="92"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -7224,21 +7374,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="109"/>
-      <c r="B9" s="81" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>103</v>
+      <c r="C9" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -7246,17 +7396,17 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="35" t="s">
-        <v>116</v>
+      <c r="A10" s="126"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="34" t="s">
+        <v>115</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -7264,17 +7414,17 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="109"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="34" t="s">
-        <v>104</v>
+      <c r="A11" s="126"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="33" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -7282,17 +7432,17 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="34" t="s">
-        <v>105</v>
+      <c r="A12" s="126"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -7300,17 +7450,17 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="109"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="32" t="s">
-        <v>106</v>
+      <c r="A13" s="126"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -7318,21 +7468,21 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="81" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="47" t="s">
-        <v>208</v>
+      <c r="D14" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -7340,17 +7490,17 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="109"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="48" t="s">
-        <v>209</v>
+      <c r="A15" s="126"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="47" t="s">
+        <v>208</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -7358,17 +7508,17 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="109"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="48" t="s">
-        <v>210</v>
+      <c r="A16" s="126"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G16" s="11">
         <v>43886</v>
@@ -7376,19 +7526,19 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="109"/>
-      <c r="B17" s="81" t="s">
+      <c r="A17" s="126"/>
+      <c r="B17" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="92"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="11">
         <v>43886</v>
@@ -7396,17 +7546,17 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="109"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="87" t="s">
+      <c r="A18" s="126"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="100"/>
       <c r="E18" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G18" s="11">
         <v>43886</v>
@@ -7778,8 +7928,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
-        <v>62</v>
+      <c r="A1" s="126" t="s">
+        <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -7802,19 +7952,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="96"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7822,17 +7972,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="96"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="104"/>
       <c r="E3" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7840,19 +7990,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="109"/>
-      <c r="B4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="95" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -7860,19 +8010,19 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
-      <c r="B5" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="98" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="99"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -7880,19 +8030,19 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="109"/>
-      <c r="B6" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="98" t="s">
+      <c r="A6" s="126"/>
+      <c r="B6" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="99"/>
+      <c r="D6" s="107"/>
       <c r="E6" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -7900,21 +8050,21 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="109"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="126"/>
+      <c r="B7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>127</v>
+      <c r="C7" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>126</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -7922,17 +8072,17 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="109"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="37" t="s">
-        <v>125</v>
+      <c r="A8" s="126"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -7940,17 +8090,17 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="109"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="37" t="s">
+      <c r="A9" s="126"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -7958,17 +8108,17 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="109"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="39" t="s">
-        <v>122</v>
+      <c r="A10" s="126"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -7976,21 +8126,21 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="109"/>
-      <c r="B11" s="81" t="s">
+      <c r="A11" s="126"/>
+      <c r="B11" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>124</v>
+      <c r="C11" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -7998,17 +8148,17 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="109"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="39" t="s">
-        <v>125</v>
+      <c r="A12" s="126"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="38" t="s">
+        <v>124</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -8016,17 +8166,17 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="109"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="39" t="s">
+      <c r="A13" s="126"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -8034,19 +8184,19 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="109"/>
-      <c r="B14" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="87" t="s">
+      <c r="A14" s="126"/>
+      <c r="B14" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="92"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -8054,17 +8204,17 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="109"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="87" t="s">
+      <c r="A15" s="126"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="92"/>
+      <c r="D15" s="100"/>
       <c r="E15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -8434,8 +8584,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="109" t="s">
-        <v>63</v>
+      <c r="A1" s="126" t="s">
+        <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -8458,19 +8608,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="96"/>
+      <c r="D2" s="104"/>
       <c r="E2" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -8478,17 +8628,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="95" t="s">
+      <c r="A3" s="126"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="96"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -8496,21 +8646,21 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="109"/>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="126"/>
+      <c r="B4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="E4" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -8518,17 +8668,17 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="51" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="F5" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -8890,7 +9040,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -8918,18 +9068,18 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
+      <c r="A2" s="72"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="48" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="19">
         <v>43886</v>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="293">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -2387,10 +2387,6 @@
     <rPh sb="12" eb="14">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3890,6 +3886,14 @@
     <rPh sb="96" eb="98">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4373,6 +4377,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4384,73 +4457,112 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4459,116 +4571,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -4931,16 +4935,16 @@
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="71"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="73" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="73" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4962,12 +4966,12 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="71"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="65"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="6" t="s">
         <v>197</v>
       </c>
@@ -4987,12 +4991,12 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="71"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="66"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="6" t="s">
         <v>197</v>
       </c>
@@ -5012,8 +5016,8 @@
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="71"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>198</v>
+        <v>291</v>
       </c>
       <c r="G5" s="19">
         <v>43883</v>
@@ -5039,16 +5043,20 @@
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="71"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="81" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" s="19">
+        <v>43899</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -5065,15 +5073,15 @@
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G7" s="19">
         <v>43883</v>
@@ -5091,10 +5099,10 @@
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="71"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="77" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5104,7 +5112,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G8" s="19">
         <v>43883</v>
@@ -5121,8 +5129,8 @@
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="71"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="75"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -5130,7 +5138,7 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G9" s="19">
         <v>43883</v>
@@ -5147,10 +5155,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="71"/>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="77" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5160,7 +5168,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G10" s="19">
         <v>43883</v>
@@ -5177,13 +5185,13 @@
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="71"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>197</v>
@@ -5203,22 +5211,22 @@
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="71"/>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="85">
         <v>43899</v>
       </c>
       <c r="I12" s="1"/>
@@ -5233,16 +5241,16 @@
     </row>
     <row r="13" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="71"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="63"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="86"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5262,10 +5270,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>197</v>
@@ -5285,10 +5293,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="71"/>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5298,7 +5306,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G15" s="19">
         <v>43883</v>
@@ -5315,8 +5323,8 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="71"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="67"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="21" t="s">
         <v>48</v>
       </c>
@@ -5324,7 +5332,7 @@
         <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G16" s="19">
         <v>43883</v>
@@ -5335,10 +5343,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="71"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -5348,7 +5356,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="19">
         <v>43883</v>
@@ -5365,8 +5373,8 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="71"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="21" t="s">
         <v>50</v>
       </c>
@@ -5374,7 +5382,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G18" s="19">
         <v>43883</v>
@@ -5385,10 +5393,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="71"/>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -5398,7 +5406,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="19">
         <v>43883</v>
@@ -5415,8 +5423,8 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="71"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="21" t="s">
         <v>52</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="19">
         <v>43883</v>
@@ -5435,10 +5443,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="71"/>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="65" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -5448,7 +5456,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G21" s="19">
         <v>43883</v>
@@ -5465,8 +5473,8 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="71"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="21" t="s">
         <v>54</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G22" s="19">
         <v>43883</v>
@@ -5485,18 +5493,18 @@
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="71"/>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G23" s="19">
         <v>43883</v>
@@ -5513,16 +5521,16 @@
     </row>
     <row r="24" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="71"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="82"/>
       <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G24" s="19">
         <v>43883</v>
@@ -5539,18 +5547,18 @@
     </row>
     <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="71"/>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="79"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G25" s="19">
         <v>43883</v>
@@ -5567,16 +5575,16 @@
     </row>
     <row r="26" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A26" s="72"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="82"/>
       <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G26" s="19">
         <v>43883</v>
@@ -5593,18 +5601,9 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="A1:A26"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="B8:B9"/>
@@ -5618,9 +5617,18 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5649,7 +5657,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="101" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -5674,20 +5682,20 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="112"/>
-      <c r="B2" s="101" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="113" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="104"/>
-      <c r="E2" s="105"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
       <c r="F2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="11">
         <v>43886</v>
@@ -5695,18 +5703,18 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="112"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="103" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="109" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="111"/>
       <c r="F3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H3" s="11">
         <v>43886</v>
@@ -5714,20 +5722,20 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="112"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="111"/>
       <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H4" s="11">
         <v>43886</v>
@@ -5735,22 +5743,22 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="112"/>
-      <c r="B5" s="97" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="115" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="117" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="108"/>
+      <c r="E5" s="119"/>
       <c r="F5" s="12" t="s">
         <v>141</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" s="11">
         <v>43886</v>
@@ -5758,18 +5766,18 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="112"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="106" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="117" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="108"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="12" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6" s="11">
         <v>43886</v>
@@ -5777,20 +5785,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="112"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="108"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H7" s="11">
         <v>43886</v>
@@ -5798,22 +5806,22 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="112"/>
-      <c r="B8" s="89" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="96"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="12" t="s">
         <v>188</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H8" s="11">
         <v>43892</v>
@@ -5821,18 +5829,18 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="112"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95" t="s">
+      <c r="A9" s="102"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="96"/>
+      <c r="E9" s="100"/>
       <c r="F9" s="12" t="s">
         <v>189</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H9" s="11">
         <v>43892</v>
@@ -5840,236 +5848,236 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="112"/>
-      <c r="B10" s="89" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="100"/>
+      <c r="F10" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="88"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="123" t="s">
+        <v>264</v>
+      </c>
+      <c r="M10" s="124"/>
+      <c r="N10" s="124"/>
+      <c r="O10" s="124"/>
+      <c r="P10" s="124"/>
+      <c r="Q10" s="124"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="124"/>
+    </row>
+    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="102"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="117" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="1"/>
-      <c r="L10" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="88"/>
-      <c r="V10" s="88"/>
-    </row>
-    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="112"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="95" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="96"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H11" s="11">
         <v>43893</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="124"/>
+      <c r="Q11" s="124"/>
+      <c r="R11" s="124"/>
+      <c r="S11" s="124"/>
+      <c r="T11" s="124"/>
+      <c r="U11" s="124"/>
+      <c r="V11" s="124"/>
     </row>
     <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="112"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="95" t="s">
-        <v>246</v>
-      </c>
-      <c r="E12" s="96"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="100"/>
       <c r="F12" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H12" s="11">
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="88"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="88"/>
-      <c r="V12" s="88"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
+      <c r="Q12" s="124"/>
+      <c r="R12" s="124"/>
+      <c r="S12" s="124"/>
+      <c r="T12" s="124"/>
+      <c r="U12" s="124"/>
+      <c r="V12" s="124"/>
     </row>
     <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="112"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="95" t="s">
+      <c r="A13" s="102"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="99" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" s="100"/>
+      <c r="F13" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="13" t="s">
-        <v>248</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H13" s="11">
         <v>43895</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="88"/>
-      <c r="V13" s="88"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
+      <c r="S13" s="124"/>
+      <c r="T13" s="124"/>
+      <c r="U13" s="124"/>
+      <c r="V13" s="124"/>
     </row>
     <row r="14" spans="1:22" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="112"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95" t="s">
-        <v>263</v>
-      </c>
-      <c r="E14" s="96"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="100"/>
       <c r="F14" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H14" s="11">
         <v>43899</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="88"/>
-      <c r="V14" s="88"/>
+      <c r="L14" s="124"/>
+      <c r="M14" s="124"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
+      <c r="P14" s="124"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="124"/>
+      <c r="S14" s="124"/>
+      <c r="T14" s="124"/>
+      <c r="U14" s="124"/>
+      <c r="V14" s="124"/>
     </row>
     <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="112"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="102"/>
+      <c r="B15" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="96"/>
+      <c r="E15" s="100"/>
       <c r="F15" s="13" t="s">
         <v>146</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H15" s="11">
         <v>43886</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="88"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
+      <c r="L15" s="124"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="124"/>
+      <c r="O15" s="124"/>
+      <c r="P15" s="124"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="124"/>
+      <c r="T15" s="124"/>
+      <c r="U15" s="124"/>
+      <c r="V15" s="124"/>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="112"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="100" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="112" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="96"/>
+      <c r="E16" s="100"/>
       <c r="F16" s="13" t="s">
         <v>147</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" s="11">
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
+      <c r="S16" s="124"/>
+      <c r="T16" s="124"/>
+      <c r="U16" s="124"/>
+      <c r="V16" s="124"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="112"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="D17" s="100"/>
-      <c r="E17" s="96"/>
+      <c r="C17" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" s="112"/>
+      <c r="E17" s="100"/>
       <c r="F17" s="14" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" s="11">
         <v>43886</v>
@@ -6077,17 +6085,17 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="112"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="115" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="96"/>
+      <c r="E18" s="100"/>
       <c r="F18" s="14" t="s">
         <v>159</v>
       </c>
@@ -6100,15 +6108,15 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="112"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="116"/>
       <c r="C19" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="96"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="14" t="s">
         <v>160</v>
       </c>
@@ -6121,15 +6129,15 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="112"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="92" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="96"/>
+      <c r="E20" s="100"/>
       <c r="F20" s="14" t="s">
         <v>161</v>
       </c>
@@ -6142,15 +6150,15 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="112"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="100"/>
+      <c r="F21" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="14" t="s">
-        <v>238</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>197</v>
@@ -6161,15 +6169,15 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="112"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="92" t="s">
+      <c r="A22" s="102"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="96"/>
+      <c r="E22" s="100"/>
       <c r="F22" s="14" t="s">
         <v>162</v>
       </c>
@@ -6182,15 +6190,15 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="112"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="E23" s="96"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" s="100"/>
       <c r="F23" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>197</v>
@@ -6201,15 +6209,15 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="112"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="92" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="95" t="s">
+      <c r="D24" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="96"/>
+      <c r="E24" s="100"/>
       <c r="F24" s="14" t="s">
         <v>162</v>
       </c>
@@ -6222,15 +6230,15 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="112"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="96"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="99" t="s">
+        <v>236</v>
+      </c>
+      <c r="E25" s="100"/>
       <c r="F25" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>197</v>
@@ -6241,12 +6249,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="112"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="92" t="s">
+      <c r="A26" s="102"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="93" t="s">
         <v>157</v>
       </c>
       <c r="E26" s="40" t="s">
@@ -6264,18 +6272,18 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="112"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="94"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="40" t="s">
         <v>167</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H27" s="11">
         <v>43893</v>
@@ -6283,35 +6291,35 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="112"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="92" t="s">
-        <v>251</v>
+      <c r="A28" s="102"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="93" t="s">
+        <v>250</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>254</v>
-      </c>
-      <c r="F28" s="120" t="s">
-        <v>264</v>
-      </c>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
+        <v>253</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="112"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H29" s="11">
         <v>43894</v>
@@ -6319,18 +6327,18 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="112"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
       <c r="E30" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="11">
         <v>43899</v>
@@ -6338,18 +6346,18 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="112"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
       <c r="E31" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H31" s="11">
         <v>43899</v>
@@ -6357,18 +6365,18 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="112"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
       <c r="E32" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H32" s="11">
         <v>43899</v>
@@ -6376,35 +6384,35 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="112"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="123" t="s">
+      <c r="A33" s="102"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="F33" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="F33" s="120" t="s">
-        <v>276</v>
-      </c>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="112"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="124"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H34" s="11">
         <v>43899</v>
@@ -6412,18 +6420,18 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="112"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="124"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H35" s="11">
         <v>43899</v>
@@ -6431,18 +6439,18 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="112"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="124"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="52" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H36" s="11">
         <v>43899</v>
@@ -6450,18 +6458,18 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="112"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="125"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H37" s="11">
         <v>43899</v>
@@ -6469,20 +6477,20 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="112"/>
-      <c r="B38" s="99"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="96"/>
+      <c r="E38" s="100"/>
       <c r="F38" s="14" t="s">
         <v>163</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H38" s="11">
         <v>43886</v>
@@ -6490,20 +6498,20 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="112"/>
+      <c r="A39" s="102"/>
       <c r="B39" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="100"/>
-      <c r="E39" s="96"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="100"/>
       <c r="F39" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H39" s="11">
         <v>43886</v>
@@ -6511,22 +6519,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="112"/>
-      <c r="B40" s="97" t="s">
+      <c r="A40" s="102"/>
+      <c r="B40" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="92" t="s">
+      <c r="C40" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="95" t="s">
+      <c r="D40" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="96"/>
+      <c r="E40" s="100"/>
       <c r="F40" s="12" t="s">
         <v>169</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H40" s="11">
         <v>43886</v>
@@ -6534,13 +6542,13 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="112"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="95" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="96"/>
+      <c r="E41" s="100"/>
       <c r="F41" s="13" t="s">
         <v>170</v>
       </c>
@@ -6553,19 +6561,19 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="112"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="92" t="s">
+      <c r="A42" s="102"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="93" t="s">
         <v>193</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>194</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>197</v>
@@ -6576,10 +6584,10 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="112"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
       <c r="E43" s="45" t="s">
         <v>195</v>
       </c>
@@ -6595,15 +6603,15 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="112"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="92" t="s">
+      <c r="A44" s="102"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="95" t="s">
+      <c r="D44" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="96"/>
+      <c r="E44" s="100"/>
       <c r="F44" s="12" t="s">
         <v>177</v>
       </c>
@@ -6616,18 +6624,18 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="112"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="95" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="96"/>
+      <c r="E45" s="100"/>
       <c r="F45" s="12" t="s">
         <v>178</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H45" s="11">
         <v>43886</v>
@@ -6635,18 +6643,18 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="112"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="95" t="s">
+      <c r="A46" s="102"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="96"/>
+      <c r="E46" s="100"/>
       <c r="F46" s="13" t="s">
         <v>179</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H46" s="11">
         <v>43886</v>
@@ -6654,18 +6662,18 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="112"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="95" t="s">
+      <c r="A47" s="102"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="96"/>
+      <c r="E47" s="100"/>
       <c r="F47" s="13" t="s">
         <v>185</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H47" s="11">
         <v>43886</v>
@@ -6673,18 +6681,18 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="112"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="95" t="s">
+      <c r="A48" s="102"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="96"/>
+      <c r="E48" s="100"/>
       <c r="F48" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H48" s="11">
         <v>43886</v>
@@ -6692,18 +6700,18 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="112"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="95" t="s">
+      <c r="A49" s="102"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="99" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="96"/>
+      <c r="E49" s="100"/>
       <c r="F49" s="12" t="s">
         <v>180</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H49" s="11">
         <v>43886</v>
@@ -6711,20 +6719,20 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="112"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="92" t="s">
+      <c r="A50" s="102"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="D50" s="95" t="s">
+      <c r="D50" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="96"/>
+      <c r="E50" s="100"/>
       <c r="F50" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H50" s="11">
         <v>43886</v>
@@ -6732,18 +6740,18 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="112"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="95" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="96"/>
+      <c r="E51" s="100"/>
       <c r="F51" s="13" t="s">
         <v>191</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H51" s="11">
         <v>43886</v>
@@ -6751,20 +6759,20 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="113"/>
+      <c r="A52" s="103"/>
       <c r="B52" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="114" t="s">
+      <c r="C52" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="115"/>
-      <c r="E52" s="116"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="106"/>
       <c r="F52" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H52" s="11">
         <v>43886</v>
@@ -7120,14 +7128,47 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C26:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="L10:V16"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B18:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="A1:A52"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="B8:B9"/>
@@ -7144,47 +7185,14 @@
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="L10:V16"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B18:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C26:C37"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7240,15 +7248,15 @@
       <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7260,15 +7268,15 @@
       <c r="B3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="104"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7277,18 +7285,18 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="126"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="118"/>
       <c r="E4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -7297,16 +7305,16 @@
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="126"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="106" t="s">
+      <c r="B5" s="108"/>
+      <c r="C5" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -7318,15 +7326,15 @@
       <c r="B6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="117" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -7338,15 +7346,15 @@
       <c r="B7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="100"/>
+      <c r="D7" s="112"/>
       <c r="E7" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -7358,15 +7366,15 @@
       <c r="B8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="100"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -7375,10 +7383,10 @@
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="93" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -7388,7 +7396,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -7397,8 +7405,8 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="34" t="s">
         <v>115</v>
       </c>
@@ -7406,7 +7414,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -7415,8 +7423,8 @@
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="93"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="33" t="s">
         <v>103</v>
       </c>
@@ -7424,7 +7432,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -7433,8 +7441,8 @@
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="126"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="33" t="s">
         <v>104</v>
       </c>
@@ -7442,7 +7450,7 @@
         <v>108</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -7451,8 +7459,8 @@
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="126"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="31" t="s">
         <v>105</v>
       </c>
@@ -7460,7 +7468,7 @@
         <v>109</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -7469,20 +7477,20 @@
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="93" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>114</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -7491,16 +7499,16 @@
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -7509,16 +7517,16 @@
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="126"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G16" s="11">
         <v>43886</v>
@@ -7527,18 +7535,18 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="126"/>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="100"/>
+      <c r="D17" s="112"/>
       <c r="E17" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G17" s="11">
         <v>43886</v>
@@ -7547,16 +7555,16 @@
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="126"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="95" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="100"/>
+      <c r="D18" s="112"/>
       <c r="E18" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="11">
         <v>43886</v>
@@ -7953,18 +7961,18 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="126"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="10" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7973,16 +7981,16 @@
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="126"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="109" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="104"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7994,15 +8002,15 @@
       <c r="B4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="110"/>
       <c r="E4" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -8014,10 +8022,10 @@
       <c r="B5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="107"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="12" t="s">
         <v>116</v>
       </c>
@@ -8034,15 +8042,15 @@
       <c r="B6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="107"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -8051,10 +8059,10 @@
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="126"/>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="93" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -8064,7 +8072,7 @@
         <v>117</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -8073,8 +8081,8 @@
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="126"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="36" t="s">
         <v>124</v>
       </c>
@@ -8082,7 +8090,7 @@
         <v>118</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -8091,8 +8099,8 @@
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="93"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="36" t="s">
         <v>119</v>
       </c>
@@ -8100,7 +8108,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -8109,13 +8117,13 @@
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="38" t="s">
         <v>121</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>197</v>
@@ -8127,10 +8135,10 @@
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="93" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -8149,8 +8157,8 @@
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="126"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="38" t="s">
         <v>124</v>
       </c>
@@ -8167,8 +8175,8 @@
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="126"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="38" t="s">
         <v>121</v>
       </c>
@@ -8185,13 +8193,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="100"/>
+      <c r="D14" s="112"/>
       <c r="E14" s="13" t="s">
         <v>128</v>
       </c>
@@ -8205,11 +8213,11 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="95" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="100"/>
+      <c r="D15" s="112"/>
       <c r="E15" s="14" t="s">
         <v>129</v>
       </c>
@@ -8609,18 +8617,18 @@
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="126"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="104"/>
+      <c r="D2" s="110"/>
       <c r="E2" s="10" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -8629,16 +8637,16 @@
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="126"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="103" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="104"/>
+      <c r="D3" s="110"/>
       <c r="E3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -8647,20 +8655,20 @@
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="126"/>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="107" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="E4" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -8669,16 +8677,16 @@
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="126"/>
-      <c r="B5" s="91"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="128"/>
       <c r="D5" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>222</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -9079,7 +9087,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" s="19">
         <v>43886</v>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -2180,60 +2180,6 @@
     </rPh>
     <rPh sb="57" eb="59">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・入力が可能であること
-・変更行は文字色が赤色であること
-・勤務対応ラベルの数値を入力後エンターキー押下で勤務名が入力されること</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ショク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>アカイロ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3898,6 +3844,79 @@
   </si>
   <si>
     <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・入力が可能であること
+・変更行は文字色が赤色であること
+・勤務対応ラベルの数値を入力後エンターキー押下で勤務名が入力されること
+(表示されていない勤務対応数値の場合はダイアログが表示されること)</t>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4195,7 +4214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4373,9 +4392,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4406,6 +4422,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4415,15 +4446,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -4445,18 +4467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4582,6 +4592,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4897,13 +4919,13 @@
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="129" customWidth="1"/>
     <col min="9" max="11" width="9.125" customWidth="1"/>
     <col min="19" max="19" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4934,23 +4956,23 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71"/>
-      <c r="B2" s="60" t="s">
+      <c r="A2" s="75"/>
+      <c r="B2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" s="19">
+        <v>196</v>
+      </c>
+      <c r="G2" s="11">
         <v>43883</v>
       </c>
       <c r="H2" s="3"/>
@@ -4965,17 +4987,17 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="74"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="72"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" s="19">
+        <v>196</v>
+      </c>
+      <c r="G3" s="11">
         <v>43883</v>
       </c>
       <c r="H3" s="1"/>
@@ -4990,17 +5012,17 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="71"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="75"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="19">
+        <v>196</v>
+      </c>
+      <c r="G4" s="11">
         <v>43883</v>
       </c>
       <c r="H4" s="1"/>
@@ -5015,9 +5037,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="71"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="75"/>
+      <c r="A5" s="75"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="73"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -5025,9 +5047,9 @@
         <v>57</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="G5" s="19">
+        <v>290</v>
+      </c>
+      <c r="G5" s="11">
         <v>43883</v>
       </c>
       <c r="H5" s="2"/>
@@ -5042,19 +5064,19 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="64"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="23" t="s">
         <v>92</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G6" s="19">
+        <v>291</v>
+      </c>
+      <c r="G6" s="11">
         <v>43899</v>
       </c>
       <c r="H6" s="2"/>
@@ -5069,21 +5091,21 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="67"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="19">
+        <v>198</v>
+      </c>
+      <c r="G7" s="11">
         <v>43883</v>
       </c>
       <c r="H7" s="2"/>
@@ -5098,11 +5120,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5112,9 +5134,9 @@
         <v>17</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="19">
+        <v>198</v>
+      </c>
+      <c r="G8" s="11">
         <v>43883</v>
       </c>
       <c r="H8" s="1"/>
@@ -5128,9 +5150,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="78"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -5138,9 +5160,9 @@
         <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G9" s="19">
+        <v>198</v>
+      </c>
+      <c r="G9" s="11">
         <v>43883</v>
       </c>
       <c r="H9" s="1"/>
@@ -5154,11 +5176,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="60" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="78" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5168,9 +5190,9 @@
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="19">
+        <v>198</v>
+      </c>
+      <c r="G10" s="11">
         <v>43883</v>
       </c>
       <c r="H10" s="1"/>
@@ -5184,19 +5206,19 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="71"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="78"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="19">
+        <v>196</v>
+      </c>
+      <c r="G11" s="11">
         <v>43883</v>
       </c>
       <c r="H11" s="1"/>
@@ -5210,23 +5232,23 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
-      <c r="B12" s="60" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="67" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="G12" s="85">
+      <c r="F12" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="126">
         <v>43899</v>
       </c>
       <c r="I12" s="1"/>
@@ -5240,17 +5262,17 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="71"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="84"/>
-      <c r="G13" s="86"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="127"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5262,7 +5284,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="55" t="s">
         <v>40</v>
       </c>
@@ -5270,15 +5292,15 @@
         <v>10</v>
       </c>
       <c r="D14" s="57" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="59">
+        <v>196</v>
+      </c>
+      <c r="G14" s="128">
         <v>43899</v>
       </c>
       <c r="I14" s="1"/>
@@ -5292,11 +5314,11 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="71"/>
-      <c r="B15" s="60" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5306,9 +5328,9 @@
         <v>17</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>290</v>
-      </c>
-      <c r="G15" s="19">
+        <v>289</v>
+      </c>
+      <c r="G15" s="11">
         <v>43883</v>
       </c>
       <c r="I15" s="1"/>
@@ -5322,9 +5344,9 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="21" t="s">
         <v>48</v>
       </c>
@@ -5332,9 +5354,9 @@
         <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="19">
+        <v>197</v>
+      </c>
+      <c r="G16" s="11">
         <v>43883</v>
       </c>
       <c r="I16" s="1"/>
@@ -5342,11 +5364,11 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="B17" s="60" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -5356,9 +5378,9 @@
         <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G17" s="19">
+        <v>197</v>
+      </c>
+      <c r="G17" s="11">
         <v>43883</v>
       </c>
       <c r="I17" s="1"/>
@@ -5372,9 +5394,9 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="65"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="21" t="s">
         <v>50</v>
       </c>
@@ -5382,9 +5404,9 @@
         <v>38</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G18" s="19">
+        <v>197</v>
+      </c>
+      <c r="G18" s="11">
         <v>43883</v>
       </c>
       <c r="I18" s="1"/>
@@ -5392,11 +5414,11 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="71"/>
-      <c r="B19" s="60" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -5406,9 +5428,9 @@
         <v>17</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="19">
+        <v>197</v>
+      </c>
+      <c r="G19" s="11">
         <v>43883</v>
       </c>
       <c r="I19" s="1"/>
@@ -5422,9 +5444,9 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="65"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="21" t="s">
         <v>52</v>
       </c>
@@ -5432,9 +5454,9 @@
         <v>38</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="19">
+        <v>197</v>
+      </c>
+      <c r="G20" s="11">
         <v>43883</v>
       </c>
       <c r="I20" s="1"/>
@@ -5442,11 +5464,11 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="71"/>
-      <c r="B21" s="60" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -5456,9 +5478,9 @@
         <v>17</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="19">
+        <v>197</v>
+      </c>
+      <c r="G21" s="11">
         <v>43883</v>
       </c>
       <c r="I21" s="1"/>
@@ -5472,9 +5494,9 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="65"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="21" t="s">
         <v>54</v>
       </c>
@@ -5482,9 +5504,9 @@
         <v>38</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G22" s="19">
+        <v>197</v>
+      </c>
+      <c r="G22" s="11">
         <v>43883</v>
       </c>
       <c r="I22" s="1"/>
@@ -5492,21 +5514,21 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="71"/>
-      <c r="B23" s="79" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="82"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="19">
+        <v>198</v>
+      </c>
+      <c r="G23" s="11">
         <v>43883</v>
       </c>
       <c r="H23" s="1"/>
@@ -5520,19 +5542,19 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="71"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="19">
+        <v>197</v>
+      </c>
+      <c r="G24" s="11">
         <v>43883</v>
       </c>
       <c r="H24" s="1"/>
@@ -5546,21 +5568,21 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="71"/>
-      <c r="B25" s="79" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="19">
+        <v>197</v>
+      </c>
+      <c r="G25" s="11">
         <v>43883</v>
       </c>
       <c r="H25" s="1"/>
@@ -5574,19 +5596,19 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="72"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G26" s="19">
+        <v>197</v>
+      </c>
+      <c r="G26" s="11">
         <v>43883</v>
       </c>
       <c r="H26" s="1"/>
@@ -5657,7 +5679,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="98" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -5682,20 +5704,20 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="102"/>
-      <c r="B2" s="113" t="s">
+      <c r="A2" s="99"/>
+      <c r="B2" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H2" s="11">
         <v>43886</v>
@@ -5703,18 +5725,18 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="109" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H3" s="11">
         <v>43886</v>
@@ -5722,20 +5744,20 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="102"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" s="11">
         <v>43886</v>
@@ -5743,22 +5765,22 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="102"/>
-      <c r="B5" s="115" t="s">
+      <c r="A5" s="99"/>
+      <c r="B5" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="118" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="119"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="12" t="s">
         <v>141</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5" s="11">
         <v>43886</v>
@@ -5766,18 +5788,18 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="102"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="117" t="s">
+      <c r="A6" s="99"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="119"/>
+      <c r="E6" s="116"/>
       <c r="F6" s="12" t="s">
         <v>142</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H6" s="11">
         <v>43886</v>
@@ -5785,20 +5807,20 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="102"/>
+      <c r="A7" s="99"/>
       <c r="B7" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="12" t="s">
         <v>143</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" s="11">
         <v>43886</v>
@@ -5806,22 +5828,22 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="102"/>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="99"/>
+      <c r="B8" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="99" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="100"/>
+      <c r="D8" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="97"/>
       <c r="F8" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H8" s="11">
         <v>43892</v>
@@ -5829,18 +5851,18 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="102"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="100"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="97"/>
       <c r="F9" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H9" s="11">
         <v>43892</v>
@@ -5848,236 +5870,236 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="102"/>
-      <c r="B10" s="107" t="s">
+      <c r="A10" s="99"/>
+      <c r="B10" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="85"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="1"/>
+      <c r="L10" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+      <c r="V10" s="121"/>
+    </row>
+    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="99"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="100"/>
-      <c r="F10" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="88"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="1"/>
-      <c r="L10" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="M10" s="124"/>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124"/>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-    </row>
-    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="102"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="100"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H11" s="11">
         <v>43893</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="121"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+      <c r="V11" s="121"/>
     </row>
     <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="102"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="100"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="97"/>
       <c r="F12" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H12" s="11">
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-      <c r="Q12" s="124"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+      <c r="V12" s="121"/>
     </row>
     <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="102"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="99" t="s">
+      <c r="A13" s="99"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="97"/>
+      <c r="F13" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E13" s="100"/>
-      <c r="F13" s="13" t="s">
-        <v>247</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H13" s="11">
         <v>43895</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="124"/>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
     </row>
     <row r="14" spans="1:22" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="102"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="99" t="s">
-        <v>262</v>
-      </c>
-      <c r="E14" s="100"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="97"/>
       <c r="F14" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H14" s="11">
         <v>43899</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124"/>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124"/>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="124"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121"/>
+      <c r="U14" s="121"/>
+      <c r="V14" s="121"/>
     </row>
     <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="102"/>
-      <c r="B15" s="115" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="112" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="112" t="s">
+      <c r="D15" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="13" t="s">
         <v>146</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H15" s="11">
         <v>43886</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="124"/>
-      <c r="O15" s="124"/>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="124"/>
-      <c r="R15" s="124"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="124"/>
-      <c r="V15" s="124"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
+      <c r="Q15" s="121"/>
+      <c r="R15" s="121"/>
+      <c r="S15" s="121"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+      <c r="V15" s="121"/>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="102"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="112" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="100"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="13" t="s">
         <v>147</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H16" s="11">
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="124"/>
-      <c r="U16" s="124"/>
-      <c r="V16" s="124"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="121"/>
+      <c r="S16" s="121"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+      <c r="V16" s="121"/>
     </row>
     <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="102"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="D17" s="112"/>
-      <c r="E17" s="100"/>
+      <c r="C17" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="109"/>
+      <c r="E17" s="97"/>
       <c r="F17" s="14" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" s="11">
         <v>43886</v>
@@ -6085,22 +6107,22 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="102"/>
-      <c r="B18" s="115" t="s">
+      <c r="A18" s="99"/>
+      <c r="B18" s="112" t="s">
         <v>149</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="99" t="s">
+      <c r="D18" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="E18" s="100"/>
+      <c r="E18" s="97"/>
       <c r="F18" s="14" t="s">
         <v>159</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H18" s="11">
         <v>43886</v>
@@ -6108,20 +6130,20 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="102"/>
-      <c r="B19" s="116"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="14" t="s">
         <v>160</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H19" s="11">
         <v>43886</v>
@@ -6129,20 +6151,20 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="102"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="93" t="s">
+      <c r="A20" s="99"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="90" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="100"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="14" t="s">
         <v>161</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H20" s="11">
         <v>43886</v>
@@ -6150,18 +6172,18 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="102"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="99" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="97"/>
+      <c r="F21" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="14" t="s">
-        <v>237</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H21" s="11">
         <v>43886</v>
@@ -6169,20 +6191,20 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="102"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="93" t="s">
+      <c r="A22" s="99"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="100"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="14" t="s">
         <v>162</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H22" s="11">
         <v>43886</v>
@@ -6190,18 +6212,18 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="102"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" s="100"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="97"/>
       <c r="F23" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H23" s="11">
         <v>43886</v>
@@ -6209,20 +6231,20 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="102"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="93" t="s">
+      <c r="A24" s="99"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="100"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="14" t="s">
         <v>162</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="11">
         <v>43886</v>
@@ -6230,18 +6252,18 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="102"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="99" t="s">
-        <v>236</v>
-      </c>
-      <c r="E25" s="100"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="97"/>
       <c r="F25" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="11">
         <v>43886</v>
@@ -6249,12 +6271,12 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="102"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="93" t="s">
+      <c r="A26" s="99"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="93" t="s">
+      <c r="D26" s="90" t="s">
         <v>157</v>
       </c>
       <c r="E26" s="40" t="s">
@@ -6264,7 +6286,7 @@
         <v>168</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H26" s="11">
         <v>43892</v>
@@ -6272,18 +6294,18 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="102"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="95"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="40" t="s">
         <v>167</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="11">
         <v>43893</v>
@@ -6291,35 +6313,35 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="102"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="93" t="s">
-        <v>250</v>
+      <c r="A28" s="99"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="90" t="s">
+        <v>249</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="F28" s="90" t="s">
-        <v>263</v>
-      </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
+        <v>252</v>
+      </c>
+      <c r="F28" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="102"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H29" s="11">
         <v>43894</v>
@@ -6327,18 +6349,18 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="102"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
       <c r="E30" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H30" s="11">
         <v>43899</v>
@@ -6346,18 +6368,18 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="102"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="A31" s="99"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
       <c r="E31" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="11">
         <v>43899</v>
@@ -6365,18 +6387,18 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="102"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="92"/>
       <c r="E32" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H32" s="11">
         <v>43899</v>
@@ -6384,35 +6406,35 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="102"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="96" t="s">
+      <c r="A33" s="99"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="93" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="E33" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="102"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="97"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F34" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H34" s="11">
         <v>43899</v>
@@ -6420,18 +6442,18 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="102"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="97"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="94"/>
       <c r="E35" s="52" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F35" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H35" s="11">
         <v>43899</v>
@@ -6439,18 +6461,18 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="102"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="97"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="94"/>
       <c r="E36" s="52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H36" s="11">
         <v>43899</v>
@@ -6458,18 +6480,18 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="102"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="98"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="52" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H37" s="11">
         <v>43899</v>
@@ -6477,20 +6499,20 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="102"/>
-      <c r="B38" s="120"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="109" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="100"/>
+      <c r="E38" s="97"/>
       <c r="F38" s="14" t="s">
         <v>163</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H38" s="11">
         <v>43886</v>
@@ -6498,20 +6520,20 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="102"/>
+      <c r="A39" s="99"/>
       <c r="B39" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C39" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="112"/>
-      <c r="E39" s="100"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="97"/>
       <c r="F39" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H39" s="11">
         <v>43886</v>
@@ -6519,22 +6541,22 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="102"/>
-      <c r="B40" s="115" t="s">
+      <c r="A40" s="99"/>
+      <c r="B40" s="112" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="100"/>
+      <c r="E40" s="97"/>
       <c r="F40" s="12" t="s">
         <v>169</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H40" s="11">
         <v>43886</v>
@@ -6542,18 +6564,18 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="102"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="99" t="s">
+      <c r="A41" s="99"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="E41" s="100"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="13" t="s">
         <v>170</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H41" s="11">
         <v>43886</v>
@@ -6561,22 +6583,22 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="102"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="93" t="s">
+      <c r="A42" s="99"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D42" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="E42" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="E42" s="45" t="s">
-        <v>194</v>
-      </c>
       <c r="F42" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H42" s="11">
         <v>43886</v>
@@ -6584,18 +6606,18 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="102"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
+      <c r="A43" s="99"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G43" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="H43" s="11">
         <v>43886</v>
@@ -6603,20 +6625,20 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="102"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="93" t="s">
+      <c r="A44" s="99"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="100"/>
+      <c r="E44" s="97"/>
       <c r="F44" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H44" s="11">
         <v>43886</v>
@@ -6624,18 +6646,18 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="102"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="99" t="s">
+      <c r="A45" s="99"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="100"/>
+      <c r="E45" s="97"/>
       <c r="F45" s="12" t="s">
         <v>178</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H45" s="11">
         <v>43886</v>
@@ -6643,56 +6665,56 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="102"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="99" t="s">
+      <c r="A46" s="99"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="E46" s="100"/>
+      <c r="E46" s="97"/>
       <c r="F46" s="13" t="s">
         <v>179</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H46" s="11">
         <v>43886</v>
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="102"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="99" t="s">
+    <row r="47" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="99"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="E47" s="100"/>
+      <c r="E47" s="97"/>
       <c r="F47" s="13" t="s">
-        <v>185</v>
+        <v>292</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="H47" s="11">
-        <v>43886</v>
+        <v>43900</v>
       </c>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="102"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="99" t="s">
+      <c r="A48" s="99"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="E48" s="100"/>
+      <c r="E48" s="97"/>
       <c r="F48" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H48" s="11">
         <v>43886</v>
@@ -6700,18 +6722,18 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="102"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="99" t="s">
+      <c r="A49" s="99"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="100"/>
+      <c r="E49" s="97"/>
       <c r="F49" s="12" t="s">
         <v>180</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H49" s="11">
         <v>43886</v>
@@ -6719,20 +6741,20 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="102"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" s="99" t="s">
+      <c r="A50" s="99"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D50" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="E50" s="100"/>
+      <c r="E50" s="97"/>
       <c r="F50" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H50" s="11">
         <v>43886</v>
@@ -6740,18 +6762,18 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="102"/>
-      <c r="B51" s="116"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="99" t="s">
+      <c r="A51" s="99"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="100"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H51" s="11">
         <v>43886</v>
@@ -6759,20 +6781,20 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="103"/>
+      <c r="A52" s="100"/>
       <c r="B52" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="104" t="s">
+      <c r="C52" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="105"/>
-      <c r="E52" s="106"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="103"/>
       <c r="F52" s="7" t="s">
         <v>184</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H52" s="11">
         <v>43886</v>
@@ -7220,7 +7242,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7244,19 +7266,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126"/>
+      <c r="A2" s="123"/>
       <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7264,19 +7286,19 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126"/>
+      <c r="A3" s="123"/>
       <c r="B3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="8" t="s">
         <v>100</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7284,19 +7306,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="126"/>
-      <c r="B4" s="107" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="117" t="s">
+      <c r="C4" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="118"/>
+      <c r="D4" s="115"/>
       <c r="E4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -7304,17 +7326,17 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="126"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="117" t="s">
+      <c r="A5" s="123"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -7322,19 +7344,19 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="126"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -7342,19 +7364,19 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="126"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="112"/>
+      <c r="D7" s="109"/>
       <c r="E7" s="13" t="s">
         <v>98</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -7362,19 +7384,19 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="126"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="112"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -7382,11 +7404,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="126"/>
-      <c r="B9" s="107" t="s">
+      <c r="A9" s="123"/>
+      <c r="B9" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="90" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -7396,7 +7418,7 @@
         <v>106</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -7404,9 +7426,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="126"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="94"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="34" t="s">
         <v>115</v>
       </c>
@@ -7414,7 +7436,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -7422,9 +7444,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="126"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="94"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="33" t="s">
         <v>103</v>
       </c>
@@ -7432,7 +7454,7 @@
         <v>107</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -7440,9 +7462,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="126"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="94"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="33" t="s">
         <v>104</v>
       </c>
@@ -7450,7 +7472,7 @@
         <v>108</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -7458,9 +7480,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="126"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="31" t="s">
         <v>105</v>
       </c>
@@ -7468,7 +7490,7 @@
         <v>109</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -7476,21 +7498,21 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="126"/>
-      <c r="B14" s="107" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="90" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>114</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -7498,17 +7520,17 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="126"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="94"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -7516,17 +7538,17 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="126"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="95"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="47" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="11">
         <v>43886</v>
@@ -7534,19 +7556,19 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="126"/>
-      <c r="B17" s="107" t="s">
+      <c r="A17" s="123"/>
+      <c r="B17" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G17" s="11">
         <v>43886</v>
@@ -7554,17 +7576,17 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="126"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="99" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="112"/>
+      <c r="D18" s="109"/>
       <c r="E18" s="13" t="s">
         <v>94</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G18" s="11">
         <v>43886</v>
@@ -7936,7 +7958,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7960,19 +7982,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="10" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -7980,17 +8002,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="109" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -7998,19 +8020,19 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="126"/>
+      <c r="A4" s="123"/>
       <c r="B4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="10" t="s">
         <v>113</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -8018,19 +8040,19 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="126"/>
+      <c r="A5" s="123"/>
       <c r="B5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="118"/>
+      <c r="D5" s="115"/>
       <c r="E5" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -8038,19 +8060,19 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="126"/>
+      <c r="A6" s="123"/>
       <c r="B6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="117" t="s">
+      <c r="C6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="118"/>
+      <c r="D6" s="115"/>
       <c r="E6" s="12" t="s">
         <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G6" s="11">
         <v>43886</v>
@@ -8058,11 +8080,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="126"/>
-      <c r="B7" s="107" t="s">
+      <c r="A7" s="123"/>
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="90" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -8072,7 +8094,7 @@
         <v>117</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" s="11">
         <v>43886</v>
@@ -8080,9 +8102,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="126"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="94"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="36" t="s">
         <v>124</v>
       </c>
@@ -8090,7 +8112,7 @@
         <v>118</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G8" s="11">
         <v>43886</v>
@@ -8098,9 +8120,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="126"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="94"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="36" t="s">
         <v>119</v>
       </c>
@@ -8108,7 +8130,7 @@
         <v>120</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" s="11">
         <v>43886</v>
@@ -8116,17 +8138,17 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="126"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="94"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="38" t="s">
         <v>121</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="11">
         <v>43886</v>
@@ -8134,11 +8156,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="126"/>
-      <c r="B11" s="107" t="s">
+      <c r="A11" s="123"/>
+      <c r="B11" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="90" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -8148,7 +8170,7 @@
         <v>125</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="11">
         <v>43886</v>
@@ -8156,9 +8178,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="126"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="94"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="38" t="s">
         <v>124</v>
       </c>
@@ -8166,7 +8188,7 @@
         <v>127</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="11">
         <v>43886</v>
@@ -8174,9 +8196,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="126"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="95"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="38" t="s">
         <v>121</v>
       </c>
@@ -8184,7 +8206,7 @@
         <v>122</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="11">
         <v>43886</v>
@@ -8192,19 +8214,19 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="126"/>
-      <c r="B14" s="107" t="s">
+      <c r="A14" s="123"/>
+      <c r="B14" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="112"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G14" s="11">
         <v>43886</v>
@@ -8212,17 +8234,17 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="126"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="99" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="112"/>
+      <c r="D15" s="109"/>
       <c r="E15" s="14" t="s">
         <v>129</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G15" s="11">
         <v>43886</v>
@@ -8592,7 +8614,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="123" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -8616,19 +8638,19 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="126"/>
-      <c r="B2" s="83" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="107"/>
       <c r="E2" s="10" t="s">
         <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G2" s="11">
         <v>43886</v>
@@ -8636,17 +8658,17 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="126"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="109" t="s">
+      <c r="A3" s="123"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="107"/>
       <c r="E3" s="10" t="s">
         <v>130</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G3" s="11">
         <v>43886</v>
@@ -8654,21 +8676,21 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="126"/>
-      <c r="B4" s="107" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="C4" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="E4" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>218</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G4" s="11">
         <v>43886</v>
@@ -8676,17 +8698,17 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="126"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="128"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="125"/>
       <c r="D5" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="F5" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="G5" s="11">
         <v>43886</v>
@@ -9048,7 +9070,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -9076,7 +9098,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72"/>
+      <c r="A2" s="76"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
@@ -9087,7 +9109,7 @@
         <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F2" s="19">
         <v>43886</v>

--- a/Symphony_Diary/テスト/テスト結果表.xlsx
+++ b/Symphony_Diary/テスト/テスト結果表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="295">
   <si>
     <t>動作内容</t>
     <rPh sb="0" eb="2">
@@ -3916,6 +3916,48 @@
     </rPh>
     <rPh sb="90" eb="92">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規追加行への入力等</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・形態、職種、氏名、勤務の入力が可能であること
+・換算ボタン押下時に結果表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクシュ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4392,12 +4434,69 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -4422,50 +4521,95 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4486,15 +4630,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4503,87 +4638,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -4592,18 +4646,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4919,13 +4961,13 @@
     <col min="3" max="3" width="27.75" customWidth="1"/>
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="129" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="60" customWidth="1"/>
     <col min="9" max="11" width="9.125" customWidth="1"/>
     <col min="19" max="19" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -4956,17 +4998,17 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="65" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="65" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -4987,13 +5029,13 @@
       <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="75"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="72"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="6" t="s">
         <v>196</v>
       </c>
@@ -5012,13 +5054,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="75"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="6" t="s">
         <v>196</v>
       </c>
@@ -5037,9 +5079,9 @@
       <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="75"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="73"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="18" t="s">
         <v>28</v>
       </c>
@@ -5064,12 +5106,12 @@
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="75"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="62" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="63"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="23" t="s">
         <v>92</v>
       </c>
@@ -5091,14 +5133,14 @@
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="75"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="66"/>
+      <c r="D7" s="85"/>
       <c r="E7" s="25" t="s">
         <v>36</v>
       </c>
@@ -5120,11 +5162,11 @@
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="73" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="18" t="s">
@@ -5150,9 +5192,9 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="18" t="s">
         <v>30</v>
       </c>
@@ -5176,11 +5218,11 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="59" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="73" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -5206,9 +5248,9 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="75"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="18" t="s">
         <v>30</v>
       </c>
@@ -5232,11 +5274,11 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="59" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="86" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="57" t="s">
@@ -5245,10 +5287,10 @@
       <c r="E12" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="126">
+      <c r="G12" s="63">
         <v>43899</v>
       </c>
       <c r="I12" s="1"/>
@@ -5262,17 +5304,17 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="68"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="54" t="s">
         <v>286</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="F13" s="70"/>
-      <c r="G13" s="127"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="64"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -5284,7 +5326,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="75"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="55" t="s">
         <v>40</v>
       </c>
@@ -5300,7 +5342,7 @@
       <c r="F14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="128">
+      <c r="G14" s="59">
         <v>43899</v>
       </c>
       <c r="I14" s="1"/>
@@ -5314,11 +5356,11 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="75"/>
-      <c r="B15" s="59" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="21" t="s">
@@ -5344,9 +5386,9 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="75"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="83"/>
       <c r="D16" s="21" t="s">
         <v>48</v>
       </c>
@@ -5364,11 +5406,11 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A17" s="75"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="21" t="s">
@@ -5394,9 +5436,9 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="75"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="83"/>
       <c r="D18" s="21" t="s">
         <v>50</v>
       </c>
@@ -5414,11 +5456,11 @@
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="75"/>
-      <c r="B19" s="59" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="21" t="s">
@@ -5444,9 +5486,9 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="75"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="64"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="21" t="s">
         <v>52</v>
       </c>
@@ -5464,11 +5506,11 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="75"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="83" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="21" t="s">
@@ -5494,9 +5536,9 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="75"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="64"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="21" t="s">
         <v>54</v>
       </c>
@@ -5514,14 +5556,14 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="75"/>
-      <c r="B23" s="80" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="83"/>
+      <c r="D23" s="78"/>
       <c r="E23" s="7" t="s">
         <v>19</v>
       </c>
@@ -5542,12 +5584,12 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82" t="s">
+      <c r="A24" s="69"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="7" t="s">
         <v>21</v>
       </c>
@@ -5568,14 +5610,14 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="1:17" ht="27" x14ac:dyDescent="0.15">
-      <c r="A25" s="75"/>
-      <c r="B25" s="80" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="7" t="s">
         <v>22</v>
       </c>
@@ -5596,12 +5638,12 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="1:17" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="81"/>
-      <c r="C26" s="82" t="s">
+      <c r="A26" s="70"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
@@ -5623,6 +5665,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="E2:E4"/>
@@ -5639,18 +5693,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5660,10 +5702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A52"/>
+      <selection sqref="A1:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5679,7 +5721,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="112" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -5704,15 +5746,15 @@
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="99"/>
-      <c r="B2" s="110" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="10" t="s">
         <v>135</v>
       </c>
@@ -5725,13 +5767,13 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="99"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="106" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="10" t="s">
         <v>130</v>
       </c>
@@ -5744,15 +5786,15 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="99"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="106"/>
       <c r="F4" s="8" t="s">
         <v>136</v>
       </c>
@@ -5765,17 +5807,17 @@
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="99"/>
-      <c r="B5" s="112" t="s">
+      <c r="A5" s="113"/>
+      <c r="B5" s="90" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="118" t="s">
+      <c r="C5" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="116"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="12" t="s">
         <v>141</v>
       </c>
@@ -5788,13 +5830,13 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="99"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="114" t="s">
+      <c r="A6" s="113"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="116"/>
+      <c r="E6" s="109"/>
       <c r="F6" s="12" t="s">
         <v>142</v>
       </c>
@@ -5806,341 +5848,339 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="99"/>
-      <c r="B7" s="44" t="s">
+    <row r="7" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="113"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="108"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7" s="11">
+        <v>43904</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="113"/>
+      <c r="B8" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C8" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="12" t="s">
+      <c r="D8" s="108"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H8" s="11">
         <v>43886</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="99"/>
-      <c r="B8" s="104" t="s">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="113"/>
+      <c r="B9" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C9" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D9" s="96" t="s">
         <v>185</v>
-      </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="11">
-        <v>43892</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="99"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="96" t="s">
-        <v>186</v>
       </c>
       <c r="E9" s="97"/>
       <c r="F9" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H9" s="11">
         <v>43892</v>
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="99"/>
-      <c r="B10" s="104" t="s">
+    <row r="10" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="113"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H10" s="11">
+        <v>43892</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="113"/>
+      <c r="B11" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C11" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D11" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="84" t="s">
+      <c r="E11" s="97"/>
+      <c r="F11" s="118" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="1"/>
-      <c r="L10" s="120" t="s">
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="1"/>
+      <c r="L11" s="88" t="s">
         <v>263</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-    </row>
-    <row r="11" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="99"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="96" t="s">
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+    </row>
+    <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="113"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="96" t="s">
         <v>243</v>
-      </c>
-      <c r="E11" s="97"/>
-      <c r="F11" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H11" s="11">
-        <v>43893</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-    </row>
-    <row r="12" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="99"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="96" t="s">
-        <v>244</v>
       </c>
       <c r="E12" s="97"/>
       <c r="F12" s="13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H12" s="11">
         <v>43893</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121"/>
-      <c r="U12" s="121"/>
-      <c r="V12" s="121"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
     </row>
     <row r="13" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="99"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="96" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="97"/>
       <c r="F13" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="H13" s="11">
-        <v>43895</v>
+        <v>43893</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-    </row>
-    <row r="14" spans="1:22" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="99"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="92"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+    </row>
+    <row r="14" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="113"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="96" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E14" s="97"/>
       <c r="F14" s="13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="H14" s="11">
-        <v>43899</v>
+        <v>43895</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="121"/>
-      <c r="O14" s="121"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121"/>
-      <c r="U14" s="121"/>
-      <c r="V14" s="121"/>
-    </row>
-    <row r="15" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="99"/>
-      <c r="B15" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="90" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>144</v>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+    </row>
+    <row r="15" spans="1:22" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="113"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96" t="s">
+        <v>261</v>
       </c>
       <c r="E15" s="97"/>
       <c r="F15" s="13" t="s">
-        <v>146</v>
+        <v>264</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H15" s="11">
-        <v>43886</v>
+        <v>43899</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="121"/>
-      <c r="O15" s="121"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="121"/>
-      <c r="R15" s="121"/>
-      <c r="S15" s="121"/>
-      <c r="T15" s="121"/>
-      <c r="U15" s="121"/>
-      <c r="V15" s="121"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
     </row>
     <row r="16" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="99"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="109" t="s">
-        <v>145</v>
+      <c r="A16" s="113"/>
+      <c r="B16" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="101" t="s">
+        <v>144</v>
       </c>
       <c r="E16" s="97"/>
       <c r="F16" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="H16" s="11">
         <v>43886</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="121"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="121"/>
-      <c r="R16" s="121"/>
-      <c r="S16" s="121"/>
-      <c r="T16" s="121"/>
-      <c r="U16" s="121"/>
-      <c r="V16" s="121"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="99"/>
-      <c r="B17" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="109"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+    </row>
+    <row r="17" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="113"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="101" t="s">
+        <v>145</v>
+      </c>
       <c r="E17" s="97"/>
-      <c r="F17" s="14" t="s">
-        <v>148</v>
+      <c r="F17" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H17" s="11">
         <v>43886</v>
       </c>
       <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="99"/>
-      <c r="B18" s="112" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>164</v>
-      </c>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+    </row>
+    <row r="18" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="113"/>
+      <c r="B18" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="101"/>
       <c r="E18" s="97"/>
       <c r="F18" s="14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="H18" s="11">
         <v>43886</v>
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="99"/>
-      <c r="B19" s="113"/>
+    <row r="19" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="113"/>
+      <c r="B19" s="98" t="s">
+        <v>149</v>
+      </c>
       <c r="C19" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>164</v>
       </c>
       <c r="E19" s="97"/>
       <c r="F19" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>196</v>
@@ -6150,18 +6190,18 @@
       </c>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="99"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="90" t="s">
-        <v>152</v>
+    <row r="20" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="113"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="41" t="s">
+        <v>151</v>
       </c>
       <c r="D20" s="96" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="97"/>
       <c r="F20" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>196</v>
@@ -6171,16 +6211,18 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="99"/>
-      <c r="B21" s="113"/>
-      <c r="C21" s="92"/>
+    <row r="21" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="113"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="93" t="s">
+        <v>152</v>
+      </c>
       <c r="D21" s="96" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="E21" s="97"/>
       <c r="F21" s="14" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>196</v>
@@ -6190,18 +6232,16 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="99"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="90" t="s">
-        <v>155</v>
-      </c>
+    <row r="22" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="113"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="96" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E22" s="97"/>
       <c r="F22" s="14" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>196</v>
@@ -6211,16 +6251,18 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="99"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="92"/>
+    <row r="23" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="113"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="93" t="s">
+        <v>155</v>
+      </c>
       <c r="D23" s="96" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="14" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>196</v>
@@ -6230,18 +6272,16 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="99"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="90" t="s">
-        <v>156</v>
-      </c>
+    <row r="24" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="113"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="96" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E24" s="97"/>
       <c r="F24" s="14" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>196</v>
@@ -6251,16 +6291,18 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="99"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="92"/>
+    <row r="25" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="113"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="93" t="s">
+        <v>156</v>
+      </c>
       <c r="D25" s="96" t="s">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="E25" s="97"/>
       <c r="F25" s="14" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>196</v>
@@ -6270,113 +6312,113 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="99"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>166</v>
-      </c>
+    <row r="26" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="113"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="97"/>
       <c r="F26" s="14" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>196</v>
       </c>
       <c r="H26" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="113"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="11">
         <v>43892</v>
       </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="99"/>
-      <c r="B27" s="113"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="40" t="s">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="113"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F28" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H28" s="11">
         <v>43893</v>
       </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="99"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="90" t="s">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:22" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="113"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="93" t="s">
         <v>249</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E29" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F29" s="121" t="s">
         <v>262</v>
       </c>
-      <c r="G28" s="88"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="99"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="51" t="s">
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="113"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F30" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G30" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H30" s="11">
         <v>43894</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="99"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="51" t="s">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="113"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="H30" s="11">
-        <v>43899</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="99"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="51" t="s">
-        <v>268</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>257</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>280</v>
@@ -6386,16 +6428,16 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="99"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="92"/>
+    <row r="32" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="113"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
       <c r="E32" s="51" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>280</v>
@@ -6406,54 +6448,54 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="99"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="93" t="s">
+      <c r="A33" s="113"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="H33" s="11">
+        <v>43899</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="113"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="124" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E34" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F34" s="121" t="s">
         <v>274</v>
       </c>
-      <c r="G33" s="88"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="99"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="52" t="s">
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="113"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F35" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="H34" s="11">
-        <v>43899</v>
-      </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="99"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>282</v>
       </c>
       <c r="H35" s="11">
         <v>43899</v>
@@ -6461,18 +6503,18 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="99"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="94"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="125"/>
       <c r="E36" s="52" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H36" s="11">
         <v>43899</v>
@@ -6480,57 +6522,55 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="99"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="95"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="125"/>
       <c r="E37" s="52" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="11">
         <v>43899</v>
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="99"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="41" t="s">
+    <row r="38" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="113"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="F38" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="H38" s="11">
+        <v>43899</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="113"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="109" t="s">
+      <c r="D39" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="14" t="s">
+      <c r="E39" s="97"/>
+      <c r="F39" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H38" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="99"/>
-      <c r="B39" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="109"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="13" t="s">
-        <v>233</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>231</v>
@@ -6540,62 +6580,60 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="99"/>
-      <c r="B40" s="112" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="96" t="s">
-        <v>133</v>
-      </c>
+    <row r="40" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="113"/>
+      <c r="B40" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="101"/>
       <c r="E40" s="97"/>
-      <c r="F40" s="12" t="s">
-        <v>169</v>
+      <c r="F40" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H40" s="11">
         <v>43886</v>
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="99"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="92"/>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="113"/>
+      <c r="B41" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>86</v>
+      </c>
       <c r="D41" s="96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" s="97"/>
-      <c r="F41" s="13" t="s">
-        <v>170</v>
+      <c r="F41" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="H41" s="11">
         <v>43886</v>
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="99"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="90" t="s">
-        <v>192</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>193</v>
-      </c>
+    <row r="42" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="113"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="E42" s="97"/>
       <c r="F42" s="13" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>196</v>
@@ -6606,15 +6644,19 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="99"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="93" t="s">
+        <v>192</v>
+      </c>
       <c r="E43" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>196</v>
@@ -6624,18 +6666,16 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="99"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="90" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="96" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="97"/>
-      <c r="F44" s="12" t="s">
-        <v>177</v>
+    <row r="44" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="113"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>196</v>
@@ -6646,91 +6686,93 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="99"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="91"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="93" t="s">
+        <v>87</v>
+      </c>
       <c r="D45" s="96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E45" s="97"/>
       <c r="F45" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="H45" s="11">
         <v>43886</v>
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="99"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="91"/>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="113"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="94"/>
       <c r="D46" s="96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E46" s="97"/>
-      <c r="F46" s="13" t="s">
-        <v>179</v>
+      <c r="F46" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H46" s="11">
         <v>43886</v>
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="99"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="91"/>
+    <row r="47" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="113"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="94"/>
       <c r="D47" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="97"/>
       <c r="F47" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="11">
+        <v>43886</v>
+      </c>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="113"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="97"/>
+      <c r="F48" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G48" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H48" s="11">
         <v>43900</v>
       </c>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="99"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="91"/>
-      <c r="D48" s="96" t="s">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="113"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="96" t="s">
         <v>175</v>
-      </c>
-      <c r="E48" s="97"/>
-      <c r="F48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="11">
-        <v>43886</v>
-      </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="99"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="96" t="s">
-        <v>181</v>
       </c>
       <c r="E49" s="97"/>
       <c r="F49" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>231</v>
@@ -6741,36 +6783,36 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="99"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="90" t="s">
-        <v>189</v>
-      </c>
+      <c r="A50" s="113"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="96" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="E50" s="97"/>
       <c r="F50" s="12" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H50" s="11">
         <v>43886</v>
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="99"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="92"/>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="113"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="93" t="s">
+        <v>189</v>
+      </c>
       <c r="D51" s="96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E51" s="97"/>
-      <c r="F51" s="13" t="s">
-        <v>190</v>
+      <c r="F51" s="12" t="s">
+        <v>227</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>225</v>
@@ -6780,36 +6822,44 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="100"/>
-      <c r="B52" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C52" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" s="102"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="7" t="s">
-        <v>184</v>
+    <row r="52" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="113"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="97"/>
+      <c r="F52" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H52" s="11">
         <v>43886</v>
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="15"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
+    <row r="53" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="114"/>
+      <c r="B53" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="116"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="11">
+        <v>43886</v>
+      </c>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -7077,10 +7127,15 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B78" s="17"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B79" s="17"/>
@@ -7148,73 +7203,80 @@
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
     </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="L10:V16"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B18:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C2:E2"/>
+  <mergeCells count="66">
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="D29:D33"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A1:A53"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:A52"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D49:E49"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="C26:C37"/>
-    <mergeCell ref="D33:D37"/>
-    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L11:V17"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B19:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7242,7 +7304,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7266,14 +7328,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123"/>
+      <c r="A2" s="127"/>
       <c r="B2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="107"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="10" t="s">
         <v>101</v>
       </c>
@@ -7286,14 +7348,14 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="8" t="s">
         <v>100</v>
       </c>
@@ -7306,14 +7368,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="127"/>
+      <c r="B4" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="C4" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="115"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="12" t="s">
         <v>96</v>
       </c>
@@ -7326,12 +7388,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="114" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="13" t="s">
         <v>97</v>
       </c>
@@ -7344,14 +7406,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="12" t="s">
         <v>99</v>
       </c>
@@ -7364,14 +7426,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="109"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="13" t="s">
         <v>98</v>
       </c>
@@ -7384,14 +7446,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="26" t="s">
         <v>68</v>
       </c>
       <c r="C8" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="109"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="13" t="s">
         <v>100</v>
       </c>
@@ -7404,11 +7466,11 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="123"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="93" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="32" t="s">
@@ -7426,9 +7488,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="123"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="91"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="34" t="s">
         <v>115</v>
       </c>
@@ -7444,9 +7506,9 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="123"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="33" t="s">
         <v>103</v>
       </c>
@@ -7462,9 +7524,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="123"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="33" t="s">
         <v>104</v>
       </c>
@@ -7480,9 +7542,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="123"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="31" t="s">
         <v>105</v>
       </c>
@@ -7498,11 +7560,11 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="123"/>
-      <c r="B14" s="104" t="s">
+      <c r="A14" s="127"/>
+      <c r="B14" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="93" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="46" t="s">
@@ -7520,9 +7582,9 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="123"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="47" t="s">
         <v>206</v>
       </c>
@@ -7538,9 +7600,9 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="123"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="92"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="47" t="s">
         <v>207</v>
       </c>
@@ -7556,14 +7618,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="123"/>
-      <c r="B17" s="104" t="s">
+      <c r="A17" s="127"/>
+      <c r="B17" s="90" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="109"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="12" t="s">
         <v>93</v>
       </c>
@@ -7576,12 +7638,12 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="123"/>
-      <c r="B18" s="105"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="109"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="13" t="s">
         <v>94</v>
       </c>
@@ -7958,7 +8020,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -7982,14 +8044,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123"/>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="107"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="10" t="s">
         <v>110</v>
       </c>
@@ -8002,12 +8064,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="106" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="10" t="s">
         <v>111</v>
       </c>
@@ -8020,14 +8082,14 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="10" t="s">
         <v>113</v>
       </c>
@@ -8040,14 +8102,14 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="115"/>
+      <c r="D5" s="108"/>
       <c r="E5" s="12" t="s">
         <v>116</v>
       </c>
@@ -8060,14 +8122,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="123"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="115"/>
+      <c r="D6" s="108"/>
       <c r="E6" s="12" t="s">
         <v>116</v>
       </c>
@@ -8080,11 +8142,11 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="123"/>
-      <c r="B7" s="104" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="93" t="s">
         <v>75</v>
       </c>
       <c r="D7" s="37" t="s">
@@ -8102,9 +8164,9 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="123"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="36" t="s">
         <v>124</v>
       </c>
@@ -8120,9 +8182,9 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="123"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="36" t="s">
         <v>119</v>
       </c>
@@ -8138,9 +8200,9 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="123"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="91"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="38" t="s">
         <v>121</v>
       </c>
@@ -8156,11 +8218,11 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="123"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="127"/>
+      <c r="B11" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="93" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="39" t="s">
@@ -8178,9 +8240,9 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="123"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="94"/>
       <c r="D12" s="38" t="s">
         <v>124</v>
       </c>
@@ -8196,9 +8258,9 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="123"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="92"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="38" t="s">
         <v>121</v>
       </c>
@@ -8214,14 +8276,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="123"/>
-      <c r="B14" s="104" t="s">
+      <c r="A14" s="127"/>
+      <c r="B14" s="90" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="109"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="13" t="s">
         <v>128</v>
       </c>
@@ -8234,12 +8296,12 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="123"/>
-      <c r="B15" s="105"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="109"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="14" t="s">
         <v>129</v>
       </c>
@@ -8614,7 +8676,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -8638,14 +8700,14 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="123"/>
-      <c r="B2" s="69" t="s">
+      <c r="A2" s="127"/>
+      <c r="B2" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="106" t="s">
+      <c r="C2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="107"/>
+      <c r="D2" s="105"/>
       <c r="E2" s="10" t="s">
         <v>131</v>
       </c>
@@ -8658,12 +8720,12 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="123"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="106" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="107"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="10" t="s">
         <v>130</v>
       </c>
@@ -8676,11 +8738,11 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="123"/>
-      <c r="B4" s="104" t="s">
+      <c r="A4" s="127"/>
+      <c r="B4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="128" t="s">
         <v>215</v>
       </c>
       <c r="D4" s="49" t="s">
@@ -8698,9 +8760,9 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="123"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="125"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="50" t="s">
         <v>218</v>
       </c>
@@ -9070,7 +9132,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="68" t="s">
         <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -9098,7 +9160,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
